--- a/cmip6/responsible_parties/cmip6_miroc_responsible_parties.xlsx
+++ b/cmip6/responsible_parties/cmip6_miroc_responsible_parties.xlsx
@@ -5,12 +5,12 @@
   <workbookPr date1904="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ipsl/Engineering/esdoc/bash/cmip6/models/templates_xls/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ipsl/Engineering/esdoc/bash/cmip6/responsible_parties/templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1DA8D93-E539-0143-AC4B-6DF10DC868EA}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{237F9912-A739-AB48-BDD0-24089904ED3C}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="15960" windowHeight="18080" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25320" windowHeight="18220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Frontis" sheetId="1" r:id="rId1"/>
@@ -1691,7 +1691,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:IV10"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
@@ -1746,7 +1746,7 @@
       <c r="D5" s="6"/>
       <c r="E5" s="7"/>
     </row>
-    <row r="6" spans="1:5" ht="409.6" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:5" ht="409.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="5"/>
       <c r="B6" s="6"/>
       <c r="C6" s="6"/>
@@ -1800,8 +1800,8 @@
   </sheetPr>
   <dimension ref="A1:IV28"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView showGridLines="0" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2130,8 +2130,8 @@
   </sheetPr>
   <dimension ref="A1:IV30"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.15"/>

--- a/cmip6/responsible_parties/cmip6_miroc_responsible_parties.xlsx
+++ b/cmip6/responsible_parties/cmip6_miroc_responsible_parties.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11109"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10114"/>
   <workbookPr date1904="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ipsl/Engineering/esdoc/bash/cmip6/responsible_parties/templates/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/toshi/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{237F9912-A739-AB48-BDD0-24089904ED3C}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC7596CD-C490-F54E-818A-21191EAEA427}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25320" windowHeight="18220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25320" windowHeight="18220" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Frontis" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="29">
   <si>
     <t>ES-DOC CMIP6 Model Responsible Parties</t>
   </si>
@@ -144,12 +144,36 @@
   <si>
     <t>ORCID ID</t>
   </si>
+  <si>
+    <t>TTAKEMURA</t>
+    <phoneticPr fontId="12"/>
+  </si>
+  <si>
+    <t>Toshihiko Takemura</t>
+    <phoneticPr fontId="12"/>
+  </si>
+  <si>
+    <t>6-1 Kasuga-koen, Kasuga, Fukuoka 816-8580, Japan</t>
+    <phoneticPr fontId="12"/>
+  </si>
+  <si>
+    <t>toshi@riam.kyushu-u.ac.jp</t>
+    <phoneticPr fontId="12"/>
+  </si>
+  <si>
+    <t>https://sprintars.riam.kyushu-u.ac.jp/toshi/indexe.html</t>
+    <phoneticPr fontId="12"/>
+  </si>
+  <si>
+    <t>http://orcid.org/0000-0002-2859-6067</t>
+    <phoneticPr fontId="12"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="13">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -220,6 +244,18 @@
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <name val="A-OTF Futo Go B101 Pr6N Bold"/>
+      <family val="3"/>
+      <charset val="128"/>
     </font>
   </fonts>
   <fills count="5">
@@ -408,7 +444,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -529,9 +565,12 @@
     <xf numFmtId="0" fontId="9" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0"/>
@@ -1691,9 +1730,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:IV10"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="35.6640625" style="1" customWidth="1"/>
     <col min="2" max="2" width="180.6640625" style="1" customWidth="1"/>
@@ -1701,7 +1740,7 @@
     <col min="6" max="256" width="8.83203125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="34.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" ht="34.25" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1710,14 +1749,14 @@
       <c r="D1" s="3"/>
       <c r="E1" s="4"/>
     </row>
-    <row r="2" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5" ht="15" customHeight="1">
       <c r="A2" s="5"/>
       <c r="B2" s="6"/>
       <c r="C2" s="6"/>
       <c r="D2" s="6"/>
       <c r="E2" s="7"/>
     </row>
-    <row r="3" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:5" ht="25.5" customHeight="1">
       <c r="A3" s="8" t="s">
         <v>1</v>
       </c>
@@ -1728,14 +1767,14 @@
       <c r="D3" s="6"/>
       <c r="E3" s="7"/>
     </row>
-    <row r="4" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:5" ht="15" customHeight="1">
       <c r="A4" s="5"/>
       <c r="B4" s="6"/>
       <c r="C4" s="6"/>
       <c r="D4" s="6"/>
       <c r="E4" s="7"/>
     </row>
-    <row r="5" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:5" ht="25.5" customHeight="1">
       <c r="A5" s="8" t="s">
         <v>3</v>
       </c>
@@ -1746,35 +1785,35 @@
       <c r="D5" s="6"/>
       <c r="E5" s="7"/>
     </row>
-    <row r="6" spans="1:5" ht="409.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:5" ht="409.5" customHeight="1">
       <c r="A6" s="5"/>
       <c r="B6" s="6"/>
       <c r="C6" s="6"/>
       <c r="D6" s="6"/>
       <c r="E6" s="7"/>
     </row>
-    <row r="7" spans="1:5" ht="14.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:5" ht="14.75" customHeight="1">
       <c r="A7" s="10"/>
       <c r="B7" s="11"/>
       <c r="C7" s="11"/>
       <c r="D7" s="11"/>
       <c r="E7" s="12"/>
     </row>
-    <row r="8" spans="1:5" ht="14.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:5" ht="14.75" customHeight="1">
       <c r="A8" s="10"/>
       <c r="B8" s="11"/>
       <c r="C8" s="11"/>
       <c r="D8" s="11"/>
       <c r="E8" s="12"/>
     </row>
-    <row r="9" spans="1:5" ht="14.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:5" ht="14.75" customHeight="1">
       <c r="A9" s="10"/>
       <c r="B9" s="11"/>
       <c r="C9" s="11"/>
       <c r="D9" s="11"/>
       <c r="E9" s="12"/>
     </row>
-    <row r="10" spans="1:5" ht="14.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:5" ht="14.75" customHeight="1">
       <c r="A10" s="13"/>
       <c r="B10" s="14"/>
       <c r="C10" s="14"/>
@@ -1782,6 +1821,7 @@
       <c r="E10" s="15"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="12"/>
   <hyperlinks>
     <hyperlink ref="B5" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
@@ -1800,11 +1840,11 @@
   </sheetPr>
   <dimension ref="A1:IV28"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="E1" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="B1" workbookViewId="0">
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="20" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="25.83203125" style="16" customWidth="1"/>
     <col min="2" max="2" width="19.6640625" style="16" customWidth="1"/>
@@ -1816,7 +1856,7 @@
     <col min="8" max="256" width="16.33203125" style="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="31" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" ht="31" customHeight="1">
       <c r="A1" s="17" t="s">
         <v>5</v>
       </c>
@@ -1827,7 +1867,7 @@
       <c r="F1" s="18"/>
       <c r="G1" s="19"/>
     </row>
-    <row r="2" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7" ht="19.5" customHeight="1">
       <c r="A2" s="20" t="s">
         <v>6</v>
       </c>
@@ -1850,7 +1890,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="21.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7" ht="21.25" customHeight="1">
       <c r="A3" s="23" t="s">
         <v>12</v>
       </c>
@@ -1873,7 +1913,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="44" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7" ht="44" customHeight="1">
       <c r="A4" s="27" t="s">
         <v>18</v>
       </c>
@@ -1894,7 +1934,7 @@
       </c>
       <c r="G4" s="28"/>
     </row>
-    <row r="5" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7" ht="21" customHeight="1">
       <c r="A5" s="32"/>
       <c r="B5" s="33"/>
       <c r="C5" s="33"/>
@@ -1903,7 +1943,7 @@
       <c r="F5" s="33"/>
       <c r="G5" s="33"/>
     </row>
-    <row r="6" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:7" ht="21" customHeight="1">
       <c r="A6" s="32"/>
       <c r="B6" s="33"/>
       <c r="C6" s="33"/>
@@ -1912,7 +1952,7 @@
       <c r="F6" s="33"/>
       <c r="G6" s="33"/>
     </row>
-    <row r="7" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:7" ht="21" customHeight="1">
       <c r="A7" s="32"/>
       <c r="B7" s="33"/>
       <c r="C7" s="33"/>
@@ -1921,7 +1961,7 @@
       <c r="F7" s="33"/>
       <c r="G7" s="33"/>
     </row>
-    <row r="8" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:7" ht="21" customHeight="1">
       <c r="A8" s="32"/>
       <c r="B8" s="33"/>
       <c r="C8" s="33"/>
@@ -1930,7 +1970,7 @@
       <c r="F8" s="33"/>
       <c r="G8" s="33"/>
     </row>
-    <row r="9" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:7" ht="21" customHeight="1">
       <c r="A9" s="32"/>
       <c r="B9" s="33"/>
       <c r="C9" s="33"/>
@@ -1939,7 +1979,7 @@
       <c r="F9" s="33"/>
       <c r="G9" s="33"/>
     </row>
-    <row r="10" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:7" ht="21" customHeight="1">
       <c r="A10" s="32"/>
       <c r="B10" s="33"/>
       <c r="C10" s="33"/>
@@ -1948,7 +1988,7 @@
       <c r="F10" s="33"/>
       <c r="G10" s="33"/>
     </row>
-    <row r="11" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:7" ht="21" customHeight="1">
       <c r="A11" s="32"/>
       <c r="B11" s="33"/>
       <c r="C11" s="33"/>
@@ -1957,7 +1997,7 @@
       <c r="F11" s="33"/>
       <c r="G11" s="33"/>
     </row>
-    <row r="12" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:7" ht="21" customHeight="1">
       <c r="A12" s="32"/>
       <c r="B12" s="33"/>
       <c r="C12" s="33"/>
@@ -1966,7 +2006,7 @@
       <c r="F12" s="33"/>
       <c r="G12" s="33"/>
     </row>
-    <row r="13" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:7" ht="21" customHeight="1">
       <c r="A13" s="32"/>
       <c r="B13" s="33"/>
       <c r="C13" s="33"/>
@@ -1975,7 +2015,7 @@
       <c r="F13" s="33"/>
       <c r="G13" s="33"/>
     </row>
-    <row r="14" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:7" ht="21" customHeight="1">
       <c r="A14" s="32"/>
       <c r="B14" s="33"/>
       <c r="C14" s="33"/>
@@ -1984,7 +2024,7 @@
       <c r="F14" s="33"/>
       <c r="G14" s="33"/>
     </row>
-    <row r="15" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:7" ht="21" customHeight="1">
       <c r="A15" s="32"/>
       <c r="B15" s="33"/>
       <c r="C15" s="33"/>
@@ -1993,7 +2033,7 @@
       <c r="F15" s="33"/>
       <c r="G15" s="33"/>
     </row>
-    <row r="16" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:7" ht="21" customHeight="1">
       <c r="A16" s="32"/>
       <c r="B16" s="33"/>
       <c r="C16" s="33"/>
@@ -2002,7 +2042,7 @@
       <c r="F16" s="33"/>
       <c r="G16" s="33"/>
     </row>
-    <row r="17" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:7" ht="21" customHeight="1">
       <c r="A17" s="32"/>
       <c r="B17" s="33"/>
       <c r="C17" s="33"/>
@@ -2011,7 +2051,7 @@
       <c r="F17" s="33"/>
       <c r="G17" s="33"/>
     </row>
-    <row r="18" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:7" ht="21" customHeight="1">
       <c r="A18" s="32"/>
       <c r="B18" s="33"/>
       <c r="C18" s="33"/>
@@ -2020,7 +2060,7 @@
       <c r="F18" s="33"/>
       <c r="G18" s="33"/>
     </row>
-    <row r="19" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:7" ht="21" customHeight="1">
       <c r="A19" s="32"/>
       <c r="B19" s="33"/>
       <c r="C19" s="33"/>
@@ -2029,7 +2069,7 @@
       <c r="F19" s="33"/>
       <c r="G19" s="33"/>
     </row>
-    <row r="20" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:7" ht="21" customHeight="1">
       <c r="A20" s="32"/>
       <c r="B20" s="33"/>
       <c r="C20" s="33"/>
@@ -2038,7 +2078,7 @@
       <c r="F20" s="33"/>
       <c r="G20" s="33"/>
     </row>
-    <row r="21" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:7" ht="21" customHeight="1">
       <c r="A21" s="32"/>
       <c r="B21" s="33"/>
       <c r="C21" s="33"/>
@@ -2047,7 +2087,7 @@
       <c r="F21" s="33"/>
       <c r="G21" s="33"/>
     </row>
-    <row r="22" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:7" ht="21" customHeight="1">
       <c r="A22" s="34"/>
       <c r="B22" s="35"/>
       <c r="C22" s="35"/>
@@ -2056,7 +2096,7 @@
       <c r="F22" s="35"/>
       <c r="G22" s="35"/>
     </row>
-    <row r="23" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:7" ht="21" customHeight="1">
       <c r="A23" s="34"/>
       <c r="B23" s="35"/>
       <c r="C23" s="35"/>
@@ -2065,7 +2105,7 @@
       <c r="F23" s="35"/>
       <c r="G23" s="35"/>
     </row>
-    <row r="24" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:7" ht="21" customHeight="1">
       <c r="A24" s="34"/>
       <c r="B24" s="35"/>
       <c r="C24" s="35"/>
@@ -2074,7 +2114,7 @@
       <c r="F24" s="35"/>
       <c r="G24" s="35"/>
     </row>
-    <row r="25" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:7" ht="21" customHeight="1">
       <c r="A25" s="34"/>
       <c r="B25" s="35"/>
       <c r="C25" s="35"/>
@@ -2083,7 +2123,7 @@
       <c r="F25" s="35"/>
       <c r="G25" s="35"/>
     </row>
-    <row r="26" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:7" ht="21" customHeight="1">
       <c r="A26" s="34"/>
       <c r="B26" s="35"/>
       <c r="C26" s="35"/>
@@ -2092,7 +2132,7 @@
       <c r="F26" s="35"/>
       <c r="G26" s="35"/>
     </row>
-    <row r="27" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:7" ht="21" customHeight="1">
       <c r="A27" s="34"/>
       <c r="B27" s="35"/>
       <c r="C27" s="35"/>
@@ -2101,7 +2141,7 @@
       <c r="F27" s="35"/>
       <c r="G27" s="35"/>
     </row>
-    <row r="28" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:7" ht="21" customHeight="1">
       <c r="A28" s="34"/>
       <c r="B28" s="35"/>
       <c r="C28" s="35"/>
@@ -2111,6 +2151,7 @@
       <c r="G28" s="35"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="12"/>
   <hyperlinks>
     <hyperlink ref="G3" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
     <hyperlink ref="E4" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
@@ -2130,11 +2171,11 @@
   </sheetPr>
   <dimension ref="A1:IV30"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="20" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="25.83203125" style="36" customWidth="1"/>
     <col min="2" max="2" width="29.5" style="36" customWidth="1"/>
@@ -2144,7 +2185,7 @@
     <col min="8" max="256" width="16.33203125" style="36" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="31" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" ht="31" customHeight="1">
       <c r="A1" s="17" t="s">
         <v>5</v>
       </c>
@@ -2155,7 +2196,7 @@
       <c r="F1" s="18"/>
       <c r="G1" s="19"/>
     </row>
-    <row r="2" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7" ht="19.5" customHeight="1">
       <c r="A2" s="20" t="s">
         <v>6</v>
       </c>
@@ -2178,16 +2219,30 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="37"/>
-      <c r="B3" s="38"/>
-      <c r="C3" s="38"/>
-      <c r="D3" s="38"/>
-      <c r="E3" s="38"/>
-      <c r="F3" s="39"/>
-      <c r="G3" s="39"/>
-    </row>
-    <row r="4" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7" ht="20.25" customHeight="1">
+      <c r="A3" s="37" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" s="44" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" s="38" t="b">
+        <v>0</v>
+      </c>
+      <c r="D3" s="44" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" s="44" t="s">
+        <v>26</v>
+      </c>
+      <c r="F3" s="39" t="s">
+        <v>27</v>
+      </c>
+      <c r="G3" s="39" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="20" customHeight="1">
       <c r="A4" s="40"/>
       <c r="B4" s="41"/>
       <c r="C4" s="41"/>
@@ -2196,7 +2251,7 @@
       <c r="F4" s="41"/>
       <c r="G4" s="41"/>
     </row>
-    <row r="5" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7" ht="20" customHeight="1">
       <c r="A5" s="40"/>
       <c r="B5" s="42"/>
       <c r="C5" s="42"/>
@@ -2205,7 +2260,7 @@
       <c r="F5" s="42"/>
       <c r="G5" s="42"/>
     </row>
-    <row r="6" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:7" ht="20" customHeight="1">
       <c r="A6" s="40"/>
       <c r="B6" s="42"/>
       <c r="C6" s="42"/>
@@ -2214,7 +2269,7 @@
       <c r="F6" s="42"/>
       <c r="G6" s="42"/>
     </row>
-    <row r="7" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:7" ht="20" customHeight="1">
       <c r="A7" s="40"/>
       <c r="B7" s="42"/>
       <c r="C7" s="42"/>
@@ -2223,7 +2278,7 @@
       <c r="F7" s="42"/>
       <c r="G7" s="42"/>
     </row>
-    <row r="8" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:7" ht="20" customHeight="1">
       <c r="A8" s="40"/>
       <c r="B8" s="42"/>
       <c r="C8" s="42"/>
@@ -2232,7 +2287,7 @@
       <c r="F8" s="42"/>
       <c r="G8" s="42"/>
     </row>
-    <row r="9" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:7" ht="20" customHeight="1">
       <c r="A9" s="40"/>
       <c r="B9" s="42"/>
       <c r="C9" s="42"/>
@@ -2241,7 +2296,7 @@
       <c r="F9" s="42"/>
       <c r="G9" s="42"/>
     </row>
-    <row r="10" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:7" ht="20" customHeight="1">
       <c r="A10" s="40"/>
       <c r="B10" s="42"/>
       <c r="C10" s="42"/>
@@ -2250,7 +2305,7 @@
       <c r="F10" s="42"/>
       <c r="G10" s="42"/>
     </row>
-    <row r="11" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:7" ht="20" customHeight="1">
       <c r="A11" s="40"/>
       <c r="B11" s="42"/>
       <c r="C11" s="42"/>
@@ -2259,7 +2314,7 @@
       <c r="F11" s="42"/>
       <c r="G11" s="42"/>
     </row>
-    <row r="12" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:7" ht="20" customHeight="1">
       <c r="A12" s="40"/>
       <c r="B12" s="42"/>
       <c r="C12" s="42"/>
@@ -2268,7 +2323,7 @@
       <c r="F12" s="42"/>
       <c r="G12" s="42"/>
     </row>
-    <row r="13" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:7" ht="20" customHeight="1">
       <c r="A13" s="40"/>
       <c r="B13" s="42"/>
       <c r="C13" s="42"/>
@@ -2277,7 +2332,7 @@
       <c r="F13" s="42"/>
       <c r="G13" s="42"/>
     </row>
-    <row r="14" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:7" ht="20" customHeight="1">
       <c r="A14" s="40"/>
       <c r="B14" s="42"/>
       <c r="C14" s="42"/>
@@ -2286,7 +2341,7 @@
       <c r="F14" s="42"/>
       <c r="G14" s="42"/>
     </row>
-    <row r="15" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:7" ht="20" customHeight="1">
       <c r="A15" s="40"/>
       <c r="B15" s="42"/>
       <c r="C15" s="42"/>
@@ -2295,7 +2350,7 @@
       <c r="F15" s="42"/>
       <c r="G15" s="42"/>
     </row>
-    <row r="16" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:7" ht="20" customHeight="1">
       <c r="A16" s="40"/>
       <c r="B16" s="42"/>
       <c r="C16" s="42"/>
@@ -2304,7 +2359,7 @@
       <c r="F16" s="42"/>
       <c r="G16" s="42"/>
     </row>
-    <row r="17" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:7" ht="20" customHeight="1">
       <c r="A17" s="40"/>
       <c r="B17" s="42"/>
       <c r="C17" s="42"/>
@@ -2313,7 +2368,7 @@
       <c r="F17" s="42"/>
       <c r="G17" s="42"/>
     </row>
-    <row r="18" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:7" ht="20" customHeight="1">
       <c r="A18" s="40"/>
       <c r="B18" s="42"/>
       <c r="C18" s="42"/>
@@ -2322,7 +2377,7 @@
       <c r="F18" s="42"/>
       <c r="G18" s="42"/>
     </row>
-    <row r="19" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:7" ht="20" customHeight="1">
       <c r="A19" s="40"/>
       <c r="B19" s="42"/>
       <c r="C19" s="42"/>
@@ -2331,7 +2386,7 @@
       <c r="F19" s="42"/>
       <c r="G19" s="42"/>
     </row>
-    <row r="20" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:7" ht="20" customHeight="1">
       <c r="A20" s="40"/>
       <c r="B20" s="42"/>
       <c r="C20" s="42"/>
@@ -2340,7 +2395,7 @@
       <c r="F20" s="42"/>
       <c r="G20" s="42"/>
     </row>
-    <row r="21" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:7" ht="20" customHeight="1">
       <c r="A21" s="40"/>
       <c r="B21" s="42"/>
       <c r="C21" s="42"/>
@@ -2349,7 +2404,7 @@
       <c r="F21" s="42"/>
       <c r="G21" s="42"/>
     </row>
-    <row r="22" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:7" ht="20" customHeight="1">
       <c r="A22" s="40"/>
       <c r="B22" s="42"/>
       <c r="C22" s="42"/>
@@ -2358,7 +2413,7 @@
       <c r="F22" s="42"/>
       <c r="G22" s="42"/>
     </row>
-    <row r="23" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:7" ht="20" customHeight="1">
       <c r="A23" s="40"/>
       <c r="B23" s="42"/>
       <c r="C23" s="42"/>
@@ -2367,7 +2422,7 @@
       <c r="F23" s="42"/>
       <c r="G23" s="42"/>
     </row>
-    <row r="24" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:7" ht="20" customHeight="1">
       <c r="A24" s="43"/>
       <c r="B24" s="41"/>
       <c r="C24" s="41"/>
@@ -2376,7 +2431,7 @@
       <c r="F24" s="41"/>
       <c r="G24" s="41"/>
     </row>
-    <row r="25" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:7" ht="20" customHeight="1">
       <c r="A25" s="43"/>
       <c r="B25" s="41"/>
       <c r="C25" s="41"/>
@@ -2385,7 +2440,7 @@
       <c r="F25" s="41"/>
       <c r="G25" s="41"/>
     </row>
-    <row r="26" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:7" ht="20" customHeight="1">
       <c r="A26" s="43"/>
       <c r="B26" s="41"/>
       <c r="C26" s="41"/>
@@ -2394,7 +2449,7 @@
       <c r="F26" s="41"/>
       <c r="G26" s="41"/>
     </row>
-    <row r="27" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:7" ht="20" customHeight="1">
       <c r="A27" s="43"/>
       <c r="B27" s="41"/>
       <c r="C27" s="41"/>
@@ -2403,7 +2458,7 @@
       <c r="F27" s="41"/>
       <c r="G27" s="41"/>
     </row>
-    <row r="28" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:7" ht="20" customHeight="1">
       <c r="A28" s="43"/>
       <c r="B28" s="41"/>
       <c r="C28" s="41"/>
@@ -2412,7 +2467,7 @@
       <c r="F28" s="41"/>
       <c r="G28" s="41"/>
     </row>
-    <row r="29" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:7" ht="20" customHeight="1">
       <c r="A29" s="43"/>
       <c r="B29" s="41"/>
       <c r="C29" s="41"/>
@@ -2421,7 +2476,7 @@
       <c r="F29" s="41"/>
       <c r="G29" s="41"/>
     </row>
-    <row r="30" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:7" ht="20" customHeight="1">
       <c r="A30" s="43"/>
       <c r="B30" s="41"/>
       <c r="C30" s="41"/>
@@ -2431,6 +2486,7 @@
       <c r="G30" s="41"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="12"/>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.27777800000000002" footer="0.27777800000000002"/>
   <pageSetup orientation="portrait"/>
   <headerFooter>

--- a/cmip6/responsible_parties/cmip6_miroc_responsible_parties.xlsx
+++ b/cmip6/responsible_parties/cmip6_miroc_responsible_parties.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10114"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr date1904="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/toshi/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Takahiro\Google ドライブ\ES-DOC\collected\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC7596CD-C490-F54E-818A-21191EAEA427}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25320" windowHeight="18220" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21705" windowHeight="12975" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Frontis" sheetId="1" r:id="rId1"/>
@@ -22,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="38">
   <si>
     <t>ES-DOC CMIP6 Model Responsible Parties</t>
   </si>
@@ -168,12 +167,50 @@
     <t>http://orcid.org/0000-0002-2859-6067</t>
     <phoneticPr fontId="12"/>
   </si>
+  <si>
+    <t>Sudo-Kengo</t>
+    <phoneticPr fontId="14"/>
+  </si>
+  <si>
+    <t>Kengo Sudo</t>
+    <phoneticPr fontId="14"/>
+  </si>
+  <si>
+    <t>Furo-cho, Chikusa-ku, Nagoya 464-8601, Japan</t>
+    <phoneticPr fontId="14"/>
+  </si>
+  <si>
+    <t>kengo@nagoya-u.jp</t>
+    <phoneticPr fontId="14"/>
+  </si>
+  <si>
+    <t>http://chaser.has.env.nagoya-u.ac.jp/aecm/</t>
+    <phoneticPr fontId="14"/>
+  </si>
+  <si>
+    <t>https://orcid.org/0000-0002-5013-4168</t>
+    <phoneticPr fontId="14"/>
+  </si>
+  <si>
+    <t>NAGOYA-Univ.</t>
+    <phoneticPr fontId="14"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Division of Earth and Environmental Sciences,
+Graduate School of Environmental Studies, Nagoya University</t>
+    <phoneticPr fontId="14"/>
+  </si>
+  <si>
+    <t>http://has.env.nagoya-u.ac.jp/english/index.html</t>
+    <phoneticPr fontId="14"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="15">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -254,6 +291,20 @@
     <font>
       <sz val="6"/>
       <name val="A-OTF Futo Go B101 Pr6N Bold"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Helvetica Neue"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
       <charset val="128"/>
     </font>
@@ -439,12 +490,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -568,8 +622,15 @@
     <xf numFmtId="0" fontId="11" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="13" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="14" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1727,20 +1788,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:IV10"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="35.6640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="180.6640625" style="1" customWidth="1"/>
-    <col min="3" max="5" width="9.1640625" style="1" customWidth="1"/>
-    <col min="6" max="256" width="8.83203125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="35.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="180.7109375" style="1" customWidth="1"/>
+    <col min="3" max="5" width="9.140625" style="1" customWidth="1"/>
+    <col min="6" max="256" width="8.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="34.25" customHeight="1">
+    <row r="1" spans="1:5" ht="34.35" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1792,28 +1853,28 @@
       <c r="D6" s="6"/>
       <c r="E6" s="7"/>
     </row>
-    <row r="7" spans="1:5" ht="14.75" customHeight="1">
+    <row r="7" spans="1:5" ht="14.85" customHeight="1">
       <c r="A7" s="10"/>
       <c r="B7" s="11"/>
       <c r="C7" s="11"/>
       <c r="D7" s="11"/>
       <c r="E7" s="12"/>
     </row>
-    <row r="8" spans="1:5" ht="14.75" customHeight="1">
+    <row r="8" spans="1:5" ht="14.85" customHeight="1">
       <c r="A8" s="10"/>
       <c r="B8" s="11"/>
       <c r="C8" s="11"/>
       <c r="D8" s="11"/>
       <c r="E8" s="12"/>
     </row>
-    <row r="9" spans="1:5" ht="14.75" customHeight="1">
+    <row r="9" spans="1:5" ht="14.85" customHeight="1">
       <c r="A9" s="10"/>
       <c r="B9" s="11"/>
       <c r="C9" s="11"/>
       <c r="D9" s="11"/>
       <c r="E9" s="12"/>
     </row>
-    <row r="10" spans="1:5" ht="14.75" customHeight="1">
+    <row r="10" spans="1:5" ht="14.85" customHeight="1">
       <c r="A10" s="13"/>
       <c r="B10" s="14"/>
       <c r="C10" s="14"/>
@@ -1823,7 +1884,7 @@
   </sheetData>
   <phoneticPr fontId="12"/>
   <hyperlinks>
-    <hyperlink ref="B5" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="B5" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
@@ -1834,7 +1895,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -1844,19 +1905,19 @@
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="20" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="16.28515625" defaultRowHeight="20.100000000000001" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="25.83203125" style="16" customWidth="1"/>
-    <col min="2" max="2" width="19.6640625" style="16" customWidth="1"/>
-    <col min="3" max="3" width="21.5" style="16" customWidth="1"/>
-    <col min="4" max="4" width="37.83203125" style="16" customWidth="1"/>
+    <col min="1" max="1" width="25.85546875" style="16" customWidth="1"/>
+    <col min="2" max="2" width="19.7109375" style="16" customWidth="1"/>
+    <col min="3" max="3" width="21.42578125" style="16" customWidth="1"/>
+    <col min="4" max="4" width="37.85546875" style="16" customWidth="1"/>
     <col min="5" max="5" width="24" style="16" customWidth="1"/>
-    <col min="6" max="6" width="54.5" style="16" customWidth="1"/>
-    <col min="7" max="7" width="36.5" style="16" customWidth="1"/>
-    <col min="8" max="256" width="16.33203125" style="16" customWidth="1"/>
+    <col min="6" max="6" width="54.42578125" style="16" customWidth="1"/>
+    <col min="7" max="7" width="36.42578125" style="16" customWidth="1"/>
+    <col min="8" max="256" width="16.28515625" style="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="31" customHeight="1">
+    <row r="1" spans="1:7" ht="30.95" customHeight="1">
       <c r="A1" s="17" t="s">
         <v>5</v>
       </c>
@@ -1890,7 +1951,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="21.25" customHeight="1">
+    <row r="3" spans="1:7" ht="21.2" customHeight="1">
       <c r="A3" s="23" t="s">
         <v>12</v>
       </c>
@@ -1913,7 +1974,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="44" customHeight="1">
+    <row r="4" spans="1:7" ht="44.1" customHeight="1">
       <c r="A4" s="27" t="s">
         <v>18</v>
       </c>
@@ -2153,8 +2214,8 @@
   </sheetData>
   <phoneticPr fontId="12"/>
   <hyperlinks>
-    <hyperlink ref="G3" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
-    <hyperlink ref="E4" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
+    <hyperlink ref="G3" r:id="rId1"/>
+    <hyperlink ref="E4" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.27777800000000002" footer="0.27777800000000002"/>
   <pageSetup orientation="portrait"/>
@@ -2165,27 +2226,27 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:IV30"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="20" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="16.28515625" defaultRowHeight="20.100000000000001" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="25.83203125" style="36" customWidth="1"/>
-    <col min="2" max="2" width="29.5" style="36" customWidth="1"/>
-    <col min="3" max="4" width="29.83203125" style="36" customWidth="1"/>
-    <col min="5" max="5" width="23.1640625" style="36" customWidth="1"/>
-    <col min="6" max="7" width="26.5" style="36" customWidth="1"/>
-    <col min="8" max="256" width="16.33203125" style="36" customWidth="1"/>
+    <col min="1" max="1" width="25.85546875" style="36" customWidth="1"/>
+    <col min="2" max="2" width="29.42578125" style="36" customWidth="1"/>
+    <col min="3" max="4" width="29.85546875" style="36" customWidth="1"/>
+    <col min="5" max="5" width="23.140625" style="36" customWidth="1"/>
+    <col min="6" max="7" width="26.42578125" style="36" customWidth="1"/>
+    <col min="8" max="256" width="16.28515625" style="36" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="31" customHeight="1">
+    <row r="1" spans="1:7" ht="30.95" customHeight="1">
       <c r="A1" s="17" t="s">
         <v>5</v>
       </c>
@@ -2219,7 +2280,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="20.25" customHeight="1">
+    <row r="3" spans="1:7" ht="25.5">
       <c r="A3" s="37" t="s">
         <v>23</v>
       </c>
@@ -2242,25 +2303,49 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="20" customHeight="1">
-      <c r="A4" s="40"/>
-      <c r="B4" s="41"/>
-      <c r="C4" s="41"/>
-      <c r="D4" s="41"/>
-      <c r="E4" s="41"/>
-      <c r="F4" s="41"/>
-      <c r="G4" s="41"/>
-    </row>
-    <row r="5" spans="1:7" ht="20" customHeight="1">
-      <c r="A5" s="40"/>
-      <c r="B5" s="42"/>
-      <c r="C5" s="42"/>
-      <c r="D5" s="42"/>
-      <c r="E5" s="42"/>
-      <c r="F5" s="42"/>
-      <c r="G5" s="42"/>
-    </row>
-    <row r="6" spans="1:7" ht="20" customHeight="1">
+    <row r="4" spans="1:7" ht="38.25" customHeight="1">
+      <c r="A4" s="37" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4" s="38" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" s="38" t="b">
+        <v>0</v>
+      </c>
+      <c r="D4" s="38" t="s">
+        <v>31</v>
+      </c>
+      <c r="E4" s="45" t="s">
+        <v>32</v>
+      </c>
+      <c r="F4" s="45" t="s">
+        <v>33</v>
+      </c>
+      <c r="G4" s="45" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="75.75" customHeight="1">
+      <c r="A5" s="40" t="s">
+        <v>35</v>
+      </c>
+      <c r="B5" s="41" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5" s="42" t="b">
+        <v>1</v>
+      </c>
+      <c r="D5" s="41" t="s">
+        <v>31</v>
+      </c>
+      <c r="E5" s="41"/>
+      <c r="F5" s="46" t="s">
+        <v>37</v>
+      </c>
+      <c r="G5" s="41"/>
+    </row>
+    <row r="6" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A6" s="40"/>
       <c r="B6" s="42"/>
       <c r="C6" s="42"/>
@@ -2269,7 +2354,7 @@
       <c r="F6" s="42"/>
       <c r="G6" s="42"/>
     </row>
-    <row r="7" spans="1:7" ht="20" customHeight="1">
+    <row r="7" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A7" s="40"/>
       <c r="B7" s="42"/>
       <c r="C7" s="42"/>
@@ -2278,7 +2363,7 @@
       <c r="F7" s="42"/>
       <c r="G7" s="42"/>
     </row>
-    <row r="8" spans="1:7" ht="20" customHeight="1">
+    <row r="8" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A8" s="40"/>
       <c r="B8" s="42"/>
       <c r="C8" s="42"/>
@@ -2287,7 +2372,7 @@
       <c r="F8" s="42"/>
       <c r="G8" s="42"/>
     </row>
-    <row r="9" spans="1:7" ht="20" customHeight="1">
+    <row r="9" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A9" s="40"/>
       <c r="B9" s="42"/>
       <c r="C9" s="42"/>
@@ -2296,7 +2381,7 @@
       <c r="F9" s="42"/>
       <c r="G9" s="42"/>
     </row>
-    <row r="10" spans="1:7" ht="20" customHeight="1">
+    <row r="10" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A10" s="40"/>
       <c r="B10" s="42"/>
       <c r="C10" s="42"/>
@@ -2305,7 +2390,7 @@
       <c r="F10" s="42"/>
       <c r="G10" s="42"/>
     </row>
-    <row r="11" spans="1:7" ht="20" customHeight="1">
+    <row r="11" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A11" s="40"/>
       <c r="B11" s="42"/>
       <c r="C11" s="42"/>
@@ -2314,7 +2399,7 @@
       <c r="F11" s="42"/>
       <c r="G11" s="42"/>
     </row>
-    <row r="12" spans="1:7" ht="20" customHeight="1">
+    <row r="12" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A12" s="40"/>
       <c r="B12" s="42"/>
       <c r="C12" s="42"/>
@@ -2323,7 +2408,7 @@
       <c r="F12" s="42"/>
       <c r="G12" s="42"/>
     </row>
-    <row r="13" spans="1:7" ht="20" customHeight="1">
+    <row r="13" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A13" s="40"/>
       <c r="B13" s="42"/>
       <c r="C13" s="42"/>
@@ -2332,7 +2417,7 @@
       <c r="F13" s="42"/>
       <c r="G13" s="42"/>
     </row>
-    <row r="14" spans="1:7" ht="20" customHeight="1">
+    <row r="14" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A14" s="40"/>
       <c r="B14" s="42"/>
       <c r="C14" s="42"/>
@@ -2341,7 +2426,7 @@
       <c r="F14" s="42"/>
       <c r="G14" s="42"/>
     </row>
-    <row r="15" spans="1:7" ht="20" customHeight="1">
+    <row r="15" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A15" s="40"/>
       <c r="B15" s="42"/>
       <c r="C15" s="42"/>
@@ -2350,7 +2435,7 @@
       <c r="F15" s="42"/>
       <c r="G15" s="42"/>
     </row>
-    <row r="16" spans="1:7" ht="20" customHeight="1">
+    <row r="16" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A16" s="40"/>
       <c r="B16" s="42"/>
       <c r="C16" s="42"/>
@@ -2359,7 +2444,7 @@
       <c r="F16" s="42"/>
       <c r="G16" s="42"/>
     </row>
-    <row r="17" spans="1:7" ht="20" customHeight="1">
+    <row r="17" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A17" s="40"/>
       <c r="B17" s="42"/>
       <c r="C17" s="42"/>
@@ -2368,7 +2453,7 @@
       <c r="F17" s="42"/>
       <c r="G17" s="42"/>
     </row>
-    <row r="18" spans="1:7" ht="20" customHeight="1">
+    <row r="18" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A18" s="40"/>
       <c r="B18" s="42"/>
       <c r="C18" s="42"/>
@@ -2377,7 +2462,7 @@
       <c r="F18" s="42"/>
       <c r="G18" s="42"/>
     </row>
-    <row r="19" spans="1:7" ht="20" customHeight="1">
+    <row r="19" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A19" s="40"/>
       <c r="B19" s="42"/>
       <c r="C19" s="42"/>
@@ -2386,7 +2471,7 @@
       <c r="F19" s="42"/>
       <c r="G19" s="42"/>
     </row>
-    <row r="20" spans="1:7" ht="20" customHeight="1">
+    <row r="20" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A20" s="40"/>
       <c r="B20" s="42"/>
       <c r="C20" s="42"/>
@@ -2395,7 +2480,7 @@
       <c r="F20" s="42"/>
       <c r="G20" s="42"/>
     </row>
-    <row r="21" spans="1:7" ht="20" customHeight="1">
+    <row r="21" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A21" s="40"/>
       <c r="B21" s="42"/>
       <c r="C21" s="42"/>
@@ -2404,7 +2489,7 @@
       <c r="F21" s="42"/>
       <c r="G21" s="42"/>
     </row>
-    <row r="22" spans="1:7" ht="20" customHeight="1">
+    <row r="22" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A22" s="40"/>
       <c r="B22" s="42"/>
       <c r="C22" s="42"/>
@@ -2413,7 +2498,7 @@
       <c r="F22" s="42"/>
       <c r="G22" s="42"/>
     </row>
-    <row r="23" spans="1:7" ht="20" customHeight="1">
+    <row r="23" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A23" s="40"/>
       <c r="B23" s="42"/>
       <c r="C23" s="42"/>
@@ -2422,7 +2507,7 @@
       <c r="F23" s="42"/>
       <c r="G23" s="42"/>
     </row>
-    <row r="24" spans="1:7" ht="20" customHeight="1">
+    <row r="24" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A24" s="43"/>
       <c r="B24" s="41"/>
       <c r="C24" s="41"/>
@@ -2431,7 +2516,7 @@
       <c r="F24" s="41"/>
       <c r="G24" s="41"/>
     </row>
-    <row r="25" spans="1:7" ht="20" customHeight="1">
+    <row r="25" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A25" s="43"/>
       <c r="B25" s="41"/>
       <c r="C25" s="41"/>
@@ -2440,7 +2525,7 @@
       <c r="F25" s="41"/>
       <c r="G25" s="41"/>
     </row>
-    <row r="26" spans="1:7" ht="20" customHeight="1">
+    <row r="26" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A26" s="43"/>
       <c r="B26" s="41"/>
       <c r="C26" s="41"/>
@@ -2449,7 +2534,7 @@
       <c r="F26" s="41"/>
       <c r="G26" s="41"/>
     </row>
-    <row r="27" spans="1:7" ht="20" customHeight="1">
+    <row r="27" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A27" s="43"/>
       <c r="B27" s="41"/>
       <c r="C27" s="41"/>
@@ -2458,7 +2543,7 @@
       <c r="F27" s="41"/>
       <c r="G27" s="41"/>
     </row>
-    <row r="28" spans="1:7" ht="20" customHeight="1">
+    <row r="28" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A28" s="43"/>
       <c r="B28" s="41"/>
       <c r="C28" s="41"/>
@@ -2467,7 +2552,7 @@
       <c r="F28" s="41"/>
       <c r="G28" s="41"/>
     </row>
-    <row r="29" spans="1:7" ht="20" customHeight="1">
+    <row r="29" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A29" s="43"/>
       <c r="B29" s="41"/>
       <c r="C29" s="41"/>
@@ -2476,7 +2561,7 @@
       <c r="F29" s="41"/>
       <c r="G29" s="41"/>
     </row>
-    <row r="30" spans="1:7" ht="20" customHeight="1">
+    <row r="30" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A30" s="43"/>
       <c r="B30" s="41"/>
       <c r="C30" s="41"/>
@@ -2487,6 +2572,12 @@
     </row>
   </sheetData>
   <phoneticPr fontId="12"/>
+  <hyperlinks>
+    <hyperlink ref="E4" r:id="rId1"/>
+    <hyperlink ref="F4" r:id="rId2"/>
+    <hyperlink ref="G4" r:id="rId3"/>
+    <hyperlink ref="F5" r:id="rId4"/>
+  </hyperlinks>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.27777800000000002" footer="0.27777800000000002"/>
   <pageSetup orientation="portrait"/>
   <headerFooter>

--- a/cmip6/responsible_parties/cmip6_miroc_responsible_parties.xlsx
+++ b/cmip6/responsible_parties/cmip6_miroc_responsible_parties.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="58">
   <si>
     <t>ES-DOC CMIP6 Model Responsible Parties</t>
   </si>
@@ -204,6 +204,66 @@
   <si>
     <t>http://has.env.nagoya-u.ac.jp/english/index.html</t>
     <phoneticPr fontId="14"/>
+  </si>
+  <si>
+    <t>YOSHIMURA-KEI</t>
+  </si>
+  <si>
+    <t>Kei Yoshimura</t>
+  </si>
+  <si>
+    <t>The University of Tokyo, 5-1-5 Kashiwanoha, Kashiwa, Chiba, 277-8574, Japan</t>
+  </si>
+  <si>
+    <t>kei@iis.u-tokyo.ac.jp</t>
+  </si>
+  <si>
+    <t>0000-0002-5761-1561</t>
+  </si>
+  <si>
+    <t>NITTA-TOMOKO</t>
+  </si>
+  <si>
+    <t>Tomoko Nitta</t>
+  </si>
+  <si>
+    <t>t-nitta@iis.u-tokyo.ac.jp</t>
+  </si>
+  <si>
+    <t>TAKATA-KUMIKO</t>
+  </si>
+  <si>
+    <t>Kumiko Takata</t>
+  </si>
+  <si>
+    <t>National Institute for Environmental Studies, 16-2 Onogawa, Tsukuba, Ibaraki, 305-8506, Japan</t>
+  </si>
+  <si>
+    <t>takata.kumiko@nies.go.jp</t>
+  </si>
+  <si>
+    <t>0000-0003-4622-8927</t>
+  </si>
+  <si>
+    <t>OISHI-RYOUTA</t>
+  </si>
+  <si>
+    <t>Ryouta O'ishi</t>
+  </si>
+  <si>
+    <t>ryo@aori.u-tokyo.ac.jp</t>
+  </si>
+  <si>
+    <t>YAMAZAKI-DAI</t>
+  </si>
+  <si>
+    <t>Dai Yamazaki</t>
+  </si>
+  <si>
+    <t>The University of Tokyo, 4-6-1 Komaba, Meguro-ku, Tokyo 153-8505, Japan</t>
+  </si>
+  <si>
+    <t>yamadai@rainbow.iis.u-tokyo.ac.jp</t>
   </si>
 </sst>
 </file>
@@ -498,7 +558,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -626,6 +686,15 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="3" borderId="14" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="14" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2233,7 +2302,7 @@
   <dimension ref="A1:IV30"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.28515625" defaultRowHeight="20.100000000000001" customHeight="1"/>
@@ -2345,48 +2414,102 @@
       </c>
       <c r="G5" s="41"/>
     </row>
-    <row r="6" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A6" s="40"/>
-      <c r="B6" s="42"/>
-      <c r="C6" s="42"/>
-      <c r="D6" s="42"/>
-      <c r="E6" s="42"/>
-      <c r="F6" s="42"/>
-      <c r="G6" s="42"/>
-    </row>
-    <row r="7" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A7" s="40"/>
-      <c r="B7" s="42"/>
-      <c r="C7" s="42"/>
-      <c r="D7" s="42"/>
-      <c r="E7" s="42"/>
-      <c r="F7" s="42"/>
-      <c r="G7" s="42"/>
-    </row>
-    <row r="8" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A8" s="40"/>
-      <c r="B8" s="42"/>
-      <c r="C8" s="42"/>
-      <c r="D8" s="42"/>
-      <c r="E8" s="42"/>
+    <row r="6" spans="1:7" ht="36">
+      <c r="A6" s="37" t="s">
+        <v>38</v>
+      </c>
+      <c r="B6" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="C6" s="38" t="b">
+        <v>0</v>
+      </c>
+      <c r="D6" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="E6" s="45" t="s">
+        <v>41</v>
+      </c>
+      <c r="F6" s="39"/>
+      <c r="G6" s="39" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="36">
+      <c r="A7" s="40" t="s">
+        <v>43</v>
+      </c>
+      <c r="B7" s="41" t="s">
+        <v>44</v>
+      </c>
+      <c r="C7" s="42" t="b">
+        <v>0</v>
+      </c>
+      <c r="D7" s="41" t="s">
+        <v>40</v>
+      </c>
+      <c r="E7" s="46" t="s">
+        <v>45</v>
+      </c>
+      <c r="F7" s="41"/>
+      <c r="G7" s="41"/>
+    </row>
+    <row r="8" spans="1:7" ht="48">
+      <c r="A8" s="40" t="s">
+        <v>46</v>
+      </c>
+      <c r="B8" s="42" t="s">
+        <v>47</v>
+      </c>
+      <c r="C8" s="42" t="b">
+        <v>0</v>
+      </c>
+      <c r="D8" s="47" t="s">
+        <v>48</v>
+      </c>
+      <c r="E8" s="48" t="s">
+        <v>49</v>
+      </c>
       <c r="F8" s="42"/>
-      <c r="G8" s="42"/>
-    </row>
-    <row r="9" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A9" s="40"/>
-      <c r="B9" s="42"/>
-      <c r="C9" s="42"/>
-      <c r="D9" s="42"/>
-      <c r="E9" s="42"/>
+      <c r="G8" s="49" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="36">
+      <c r="A9" s="40" t="s">
+        <v>51</v>
+      </c>
+      <c r="B9" s="42" t="s">
+        <v>52</v>
+      </c>
+      <c r="C9" s="42" t="b">
+        <v>0</v>
+      </c>
+      <c r="D9" s="41" t="s">
+        <v>40</v>
+      </c>
+      <c r="E9" s="48" t="s">
+        <v>53</v>
+      </c>
       <c r="F9" s="42"/>
       <c r="G9" s="42"/>
     </row>
-    <row r="10" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A10" s="40"/>
-      <c r="B10" s="42"/>
-      <c r="C10" s="42"/>
-      <c r="D10" s="42"/>
-      <c r="E10" s="42"/>
+    <row r="10" spans="1:7" ht="36">
+      <c r="A10" s="40" t="s">
+        <v>54</v>
+      </c>
+      <c r="B10" s="42" t="s">
+        <v>55</v>
+      </c>
+      <c r="C10" s="42" t="b">
+        <v>0</v>
+      </c>
+      <c r="D10" s="47" t="s">
+        <v>56</v>
+      </c>
+      <c r="E10" s="48" t="s">
+        <v>57</v>
+      </c>
       <c r="F10" s="42"/>
       <c r="G10" s="42"/>
     </row>
@@ -2577,6 +2700,11 @@
     <hyperlink ref="F4" r:id="rId2"/>
     <hyperlink ref="G4" r:id="rId3"/>
     <hyperlink ref="F5" r:id="rId4"/>
+    <hyperlink ref="E6" r:id="rId5"/>
+    <hyperlink ref="E7" r:id="rId6"/>
+    <hyperlink ref="E8" r:id="rId7"/>
+    <hyperlink ref="E9" r:id="rId8"/>
+    <hyperlink ref="E10" r:id="rId9"/>
   </hyperlinks>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.27777800000000002" footer="0.27777800000000002"/>
   <pageSetup orientation="portrait"/>

--- a/cmip6/responsible_parties/cmip6_miroc_responsible_parties.xlsx
+++ b/cmip6/responsible_parties/cmip6_miroc_responsible_parties.xlsx
@@ -16,12 +16,12 @@
     <sheet name="Example" sheetId="2" r:id="rId2"/>
     <sheet name="Responsibile Parties" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="0" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="66">
   <si>
     <t>ES-DOC CMIP6 Model Responsible Parties</t>
   </si>
@@ -265,12 +265,36 @@
   <si>
     <t>yamadai@rainbow.iis.u-tokyo.ac.jp</t>
   </si>
+  <si>
+    <t>HAJIMA-TOMOHIRO</t>
+  </si>
+  <si>
+    <t>Tomohiro Hajima</t>
+  </si>
+  <si>
+    <t>236-0001, Japan Agency for Marine-Earth Science and Technology</t>
+  </si>
+  <si>
+    <t>hajima@jamstec.go.jp</t>
+  </si>
+  <si>
+    <t>http://www.jamstec.go.jp/souran/html/Tomohiro_Hajima002673-e.html</t>
+  </si>
+  <si>
+    <t>https://orcid.org/0000-0002-4828-5100</t>
+  </si>
+  <si>
+    <t>ITO-AKIHIKO</t>
+  </si>
+  <si>
+    <t>Akihiko Ito</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="15">
+  <fonts count="17">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -367,6 +391,20 @@
       <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
       <charset val="128"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="Helvetica Neue"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="5">
@@ -550,11 +588,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
@@ -698,9 +742,11 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="4">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
+    <cellStyle name="ハイパーリンク 2" xfId="3"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
+    <cellStyle name="標準 2" xfId="2"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0"/>
@@ -2302,7 +2348,7 @@
   <dimension ref="A1:IV30"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.28515625" defaultRowHeight="20.100000000000001" customHeight="1"/>
@@ -2513,28 +2559,54 @@
       <c r="F10" s="42"/>
       <c r="G10" s="42"/>
     </row>
-    <row r="11" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A11" s="40"/>
-      <c r="B11" s="42"/>
-      <c r="C11" s="42"/>
-      <c r="D11" s="42"/>
-      <c r="E11" s="42"/>
-      <c r="F11" s="42"/>
-      <c r="G11" s="42"/>
+    <row r="11" spans="1:7" ht="36">
+      <c r="A11" s="40" t="s">
+        <v>58</v>
+      </c>
+      <c r="B11" s="42" t="s">
+        <v>59</v>
+      </c>
+      <c r="C11" s="42" t="b">
+        <v>0</v>
+      </c>
+      <c r="D11" s="42" t="s">
+        <v>60</v>
+      </c>
+      <c r="E11" s="42" t="s">
+        <v>61</v>
+      </c>
+      <c r="F11" s="42" t="s">
+        <v>62</v>
+      </c>
+      <c r="G11" s="42" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="12" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A12" s="40"/>
-      <c r="B12" s="42"/>
-      <c r="C12" s="42"/>
+      <c r="A12" s="40" t="s">
+        <v>64</v>
+      </c>
+      <c r="B12" s="42" t="s">
+        <v>65</v>
+      </c>
+      <c r="C12" s="42" t="b">
+        <v>0</v>
+      </c>
       <c r="D12" s="42"/>
       <c r="E12" s="42"/>
       <c r="F12" s="42"/>
       <c r="G12" s="42"/>
     </row>
     <row r="13" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A13" s="40"/>
-      <c r="B13" s="42"/>
-      <c r="C13" s="42"/>
+      <c r="A13" s="40" t="s">
+        <v>46</v>
+      </c>
+      <c r="B13" s="42" t="s">
+        <v>47</v>
+      </c>
+      <c r="C13" s="42" t="b">
+        <v>0</v>
+      </c>
       <c r="D13" s="42"/>
       <c r="E13" s="42"/>
       <c r="F13" s="42"/>

--- a/cmip6/responsible_parties/cmip6_miroc_responsible_parties.xlsx
+++ b/cmip6/responsible_parties/cmip6_miroc_responsible_parties.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="107">
   <si>
     <t>ES-DOC CMIP6 Model Responsible Parties</t>
   </si>
@@ -288,6 +288,129 @@
   </si>
   <si>
     <t>Akihiko Ito</t>
+  </si>
+  <si>
+    <t>Kodama</t>
+  </si>
+  <si>
+    <t>Chihiro Kodama</t>
+  </si>
+  <si>
+    <t>kodamac@jamstec.go.jp</t>
+  </si>
+  <si>
+    <t>Ohno</t>
+  </si>
+  <si>
+    <t>Tomoki Ohno</t>
+  </si>
+  <si>
+    <t>t-ohno@jamstec.go.jp</t>
+  </si>
+  <si>
+    <t>Seiki</t>
+  </si>
+  <si>
+    <t>Tatsuya Seiki</t>
+  </si>
+  <si>
+    <t>tseiki@jamstec.go.jp</t>
+  </si>
+  <si>
+    <t>Yashiro</t>
+  </si>
+  <si>
+    <t>Hisashi Yashiro</t>
+  </si>
+  <si>
+    <t>h.yashiro@riken.jp</t>
+  </si>
+  <si>
+    <t>Noda</t>
+  </si>
+  <si>
+    <t>Akira T. Noda</t>
+  </si>
+  <si>
+    <t>a_noda@jamstec.go.jp</t>
+  </si>
+  <si>
+    <t>Nakano</t>
+  </si>
+  <si>
+    <t>Masuo Nakano</t>
+  </si>
+  <si>
+    <t>masuo@jamstec.go.jp</t>
+  </si>
+  <si>
+    <t>Yamada</t>
+  </si>
+  <si>
+    <t>Yohei Yamada</t>
+  </si>
+  <si>
+    <t>yoheiy@jamstec.go.jp</t>
+  </si>
+  <si>
+    <t>Roh</t>
+  </si>
+  <si>
+    <t>Woosub Roh</t>
+  </si>
+  <si>
+    <t>ws-roh@aori.u-tokyo.ac.jp</t>
+  </si>
+  <si>
+    <t>Satoh</t>
+  </si>
+  <si>
+    <t>Masaki Satoh</t>
+  </si>
+  <si>
+    <t>satoh@aori.u-tokyo.ac.jp</t>
+  </si>
+  <si>
+    <t>Nitta</t>
+  </si>
+  <si>
+    <t>t_nitta@aori.u-tokyo.ac.jp</t>
+  </si>
+  <si>
+    <t>Nasuno</t>
+  </si>
+  <si>
+    <t>Tomoe Nasuno</t>
+  </si>
+  <si>
+    <t>nasuno@jamstec.go.jp</t>
+  </si>
+  <si>
+    <t>Miyakawa</t>
+  </si>
+  <si>
+    <t>Tomoki Miyakawa</t>
+  </si>
+  <si>
+    <t>miyakawa@aori.u-tokyo.ac.jp</t>
+  </si>
+  <si>
+    <t>Chen</t>
+  </si>
+  <si>
+    <t>Ying-Wen Chen</t>
+  </si>
+  <si>
+    <t>yingwen@aori.u-tokyo.ac.jp</t>
+  </si>
+  <si>
+    <t>Sugi</t>
+  </si>
+  <si>
+    <t>Masato Sugi</t>
+  </si>
+  <si>
+    <t>msugi@mri-jma.go.jp</t>
   </si>
 </sst>
 </file>
@@ -2347,8 +2470,8 @@
   </sheetPr>
   <dimension ref="A1:IV30"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.28515625" defaultRowHeight="20.100000000000001" customHeight="1"/>
@@ -2613,128 +2736,240 @@
       <c r="G13" s="42"/>
     </row>
     <row r="14" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A14" s="40"/>
-      <c r="B14" s="42"/>
-      <c r="C14" s="42"/>
+      <c r="A14" s="40" t="s">
+        <v>66</v>
+      </c>
+      <c r="B14" s="42" t="s">
+        <v>67</v>
+      </c>
+      <c r="C14" s="42" t="b">
+        <v>0</v>
+      </c>
       <c r="D14" s="42"/>
-      <c r="E14" s="42"/>
+      <c r="E14" s="42" t="s">
+        <v>68</v>
+      </c>
       <c r="F14" s="42"/>
       <c r="G14" s="42"/>
     </row>
     <row r="15" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A15" s="40"/>
-      <c r="B15" s="42"/>
-      <c r="C15" s="42"/>
+      <c r="A15" s="40" t="s">
+        <v>69</v>
+      </c>
+      <c r="B15" s="42" t="s">
+        <v>70</v>
+      </c>
+      <c r="C15" s="42" t="b">
+        <v>0</v>
+      </c>
       <c r="D15" s="42"/>
-      <c r="E15" s="42"/>
+      <c r="E15" s="42" t="s">
+        <v>71</v>
+      </c>
       <c r="F15" s="42"/>
       <c r="G15" s="42"/>
     </row>
     <row r="16" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A16" s="40"/>
-      <c r="B16" s="42"/>
-      <c r="C16" s="42"/>
+      <c r="A16" s="40" t="s">
+        <v>72</v>
+      </c>
+      <c r="B16" s="42" t="s">
+        <v>73</v>
+      </c>
+      <c r="C16" s="42" t="b">
+        <v>0</v>
+      </c>
       <c r="D16" s="42"/>
-      <c r="E16" s="42"/>
+      <c r="E16" s="42" t="s">
+        <v>74</v>
+      </c>
       <c r="F16" s="42"/>
       <c r="G16" s="42"/>
     </row>
     <row r="17" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A17" s="40"/>
-      <c r="B17" s="42"/>
-      <c r="C17" s="42"/>
+      <c r="A17" s="40" t="s">
+        <v>75</v>
+      </c>
+      <c r="B17" s="42" t="s">
+        <v>76</v>
+      </c>
+      <c r="C17" s="42" t="b">
+        <v>0</v>
+      </c>
       <c r="D17" s="42"/>
-      <c r="E17" s="42"/>
+      <c r="E17" s="42" t="s">
+        <v>77</v>
+      </c>
       <c r="F17" s="42"/>
       <c r="G17" s="42"/>
     </row>
     <row r="18" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A18" s="40"/>
-      <c r="B18" s="42"/>
-      <c r="C18" s="42"/>
+      <c r="A18" s="40" t="s">
+        <v>78</v>
+      </c>
+      <c r="B18" s="42" t="s">
+        <v>79</v>
+      </c>
+      <c r="C18" s="42" t="b">
+        <v>0</v>
+      </c>
       <c r="D18" s="42"/>
-      <c r="E18" s="42"/>
+      <c r="E18" s="42" t="s">
+        <v>80</v>
+      </c>
       <c r="F18" s="42"/>
       <c r="G18" s="42"/>
     </row>
     <row r="19" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A19" s="40"/>
-      <c r="B19" s="42"/>
-      <c r="C19" s="42"/>
+      <c r="A19" s="40" t="s">
+        <v>81</v>
+      </c>
+      <c r="B19" s="42" t="s">
+        <v>82</v>
+      </c>
+      <c r="C19" s="42" t="b">
+        <v>0</v>
+      </c>
       <c r="D19" s="42"/>
-      <c r="E19" s="42"/>
+      <c r="E19" s="42" t="s">
+        <v>83</v>
+      </c>
       <c r="F19" s="42"/>
       <c r="G19" s="42"/>
     </row>
     <row r="20" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A20" s="40"/>
-      <c r="B20" s="42"/>
-      <c r="C20" s="42"/>
+      <c r="A20" s="40" t="s">
+        <v>84</v>
+      </c>
+      <c r="B20" s="42" t="s">
+        <v>85</v>
+      </c>
+      <c r="C20" s="42" t="b">
+        <v>0</v>
+      </c>
       <c r="D20" s="42"/>
-      <c r="E20" s="42"/>
+      <c r="E20" s="42" t="s">
+        <v>86</v>
+      </c>
       <c r="F20" s="42"/>
       <c r="G20" s="42"/>
     </row>
     <row r="21" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A21" s="40"/>
-      <c r="B21" s="42"/>
-      <c r="C21" s="42"/>
+      <c r="A21" s="40" t="s">
+        <v>87</v>
+      </c>
+      <c r="B21" s="42" t="s">
+        <v>88</v>
+      </c>
+      <c r="C21" s="42" t="b">
+        <v>0</v>
+      </c>
       <c r="D21" s="42"/>
-      <c r="E21" s="42"/>
+      <c r="E21" s="42" t="s">
+        <v>89</v>
+      </c>
       <c r="F21" s="42"/>
       <c r="G21" s="42"/>
     </row>
     <row r="22" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A22" s="40"/>
-      <c r="B22" s="42"/>
-      <c r="C22" s="42"/>
+      <c r="A22" s="40" t="s">
+        <v>90</v>
+      </c>
+      <c r="B22" s="42" t="s">
+        <v>91</v>
+      </c>
+      <c r="C22" s="42" t="b">
+        <v>0</v>
+      </c>
       <c r="D22" s="42"/>
-      <c r="E22" s="42"/>
+      <c r="E22" s="42" t="s">
+        <v>92</v>
+      </c>
       <c r="F22" s="42"/>
       <c r="G22" s="42"/>
     </row>
     <row r="23" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A23" s="40"/>
-      <c r="B23" s="42"/>
-      <c r="C23" s="42"/>
+      <c r="A23" s="40" t="s">
+        <v>93</v>
+      </c>
+      <c r="B23" s="42" t="s">
+        <v>44</v>
+      </c>
+      <c r="C23" s="42" t="b">
+        <v>0</v>
+      </c>
       <c r="D23" s="42"/>
-      <c r="E23" s="42"/>
+      <c r="E23" s="42" t="s">
+        <v>94</v>
+      </c>
       <c r="F23" s="42"/>
       <c r="G23" s="42"/>
     </row>
     <row r="24" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A24" s="43"/>
-      <c r="B24" s="41"/>
-      <c r="C24" s="41"/>
+      <c r="A24" s="43" t="s">
+        <v>95</v>
+      </c>
+      <c r="B24" s="41" t="s">
+        <v>96</v>
+      </c>
+      <c r="C24" s="41" t="b">
+        <v>0</v>
+      </c>
       <c r="D24" s="41"/>
-      <c r="E24" s="41"/>
+      <c r="E24" s="41" t="s">
+        <v>97</v>
+      </c>
       <c r="F24" s="41"/>
       <c r="G24" s="41"/>
     </row>
     <row r="25" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A25" s="43"/>
-      <c r="B25" s="41"/>
-      <c r="C25" s="41"/>
+      <c r="A25" s="43" t="s">
+        <v>98</v>
+      </c>
+      <c r="B25" s="41" t="s">
+        <v>99</v>
+      </c>
+      <c r="C25" s="41" t="b">
+        <v>0</v>
+      </c>
       <c r="D25" s="41"/>
-      <c r="E25" s="41"/>
+      <c r="E25" s="41" t="s">
+        <v>100</v>
+      </c>
       <c r="F25" s="41"/>
       <c r="G25" s="41"/>
     </row>
     <row r="26" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A26" s="43"/>
-      <c r="B26" s="41"/>
-      <c r="C26" s="41"/>
+      <c r="A26" s="43" t="s">
+        <v>101</v>
+      </c>
+      <c r="B26" s="41" t="s">
+        <v>102</v>
+      </c>
+      <c r="C26" s="41" t="b">
+        <v>0</v>
+      </c>
       <c r="D26" s="41"/>
-      <c r="E26" s="41"/>
+      <c r="E26" s="41" t="s">
+        <v>103</v>
+      </c>
       <c r="F26" s="41"/>
       <c r="G26" s="41"/>
     </row>
     <row r="27" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A27" s="43"/>
-      <c r="B27" s="41"/>
-      <c r="C27" s="41"/>
+      <c r="A27" s="43" t="s">
+        <v>104</v>
+      </c>
+      <c r="B27" s="41" t="s">
+        <v>105</v>
+      </c>
+      <c r="C27" s="41" t="b">
+        <v>0</v>
+      </c>
       <c r="D27" s="41"/>
-      <c r="E27" s="41"/>
+      <c r="E27" s="41" t="s">
+        <v>106</v>
+      </c>
       <c r="F27" s="41"/>
       <c r="G27" s="41"/>
     </row>
@@ -2779,7 +3014,7 @@
     <hyperlink ref="E10" r:id="rId9"/>
   </hyperlinks>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.27777800000000002" footer="0.27777800000000002"/>
-  <pageSetup orientation="portrait"/>
+  <pageSetup orientation="portrait" r:id="rId10"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>

--- a/cmip6/responsible_parties/cmip6_miroc_responsible_parties.xlsx
+++ b/cmip6/responsible_parties/cmip6_miroc_responsible_parties.xlsx
@@ -16,12 +16,15 @@
     <sheet name="Example" sheetId="2" r:id="rId2"/>
     <sheet name="Responsibile Parties" sheetId="3" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Responsibile Parties'!$A$2:$G$35</definedName>
+  </definedNames>
   <calcPr calcId="0" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="141">
   <si>
     <t>ES-DOC CMIP6 Model Responsible Parties</t>
   </si>
@@ -411,6 +414,117 @@
   </si>
   <si>
     <t>msugi@mri-jma.go.jp</t>
+  </si>
+  <si>
+    <t>MIROC6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Japan Agency for Marine-Earth Science and Technology
+Atmosphere and Ocean Research Institude, the University of Tokyo
+National Institute for Environmental Studies
+</t>
+  </si>
+  <si>
+    <t>TATEBE-H</t>
+  </si>
+  <si>
+    <t>Hiroaki Tatebe</t>
+  </si>
+  <si>
+    <t>Japan Agency for Marine-Earth Science and Technology
+3173-25 Showamachi, Kanazawaku, Yokohama, Kanagawa, 236-0001 Japan</t>
+  </si>
+  <si>
+    <t>tatebe@jamstec.go.jp</t>
+  </si>
+  <si>
+    <t>http://www.jamstec.go.jp/adcm/e/</t>
+  </si>
+  <si>
+    <t>http://orcid.org/0000-0002-2265-5847</t>
+  </si>
+  <si>
+    <t>WATANABE-HIRO</t>
+  </si>
+  <si>
+    <t>Masahiro Watanabe</t>
+  </si>
+  <si>
+    <t>Atmosphere and Ocean Research Institude, the University of Tokyo
+5-1-5, Kashiwanoha, Kashiwa-shi, Chiba 277-8568, Japan</t>
+  </si>
+  <si>
+    <t>hiro@aori.u-tokyo.ac.jp</t>
+  </si>
+  <si>
+    <t>http://ccsr.aori.u-tokyo.ac.jp/index-e.html</t>
+  </si>
+  <si>
+    <t>OGURA-T</t>
+  </si>
+  <si>
+    <t>Tomoo Ogura</t>
+  </si>
+  <si>
+    <t>National Institute for Environmental Studies
+16-2 Onogawa, Tsukuba, Ibaraki 305-8506, Japan</t>
+  </si>
+  <si>
+    <t>ogura@nies.go.jp</t>
+  </si>
+  <si>
+    <t>http://www.cger.nies.go.jp/en/</t>
+  </si>
+  <si>
+    <t>KOMURO-Y</t>
+  </si>
+  <si>
+    <t>Yoshiki Komuro</t>
+  </si>
+  <si>
+    <t>Japan Agency for Marine-Earth Science and Technology
+3173-25 Showamachi, Kanazawaku, Yokohama, Kanagawa 236-0001, Japan</t>
+  </si>
+  <si>
+    <t>komuro@jamstec.go.jp</t>
+  </si>
+  <si>
+    <t>http://www.jamstec.go.jp/iace/e/</t>
+  </si>
+  <si>
+    <t>NITTA-T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Research Center for Advanced Science and Technology, University of Tokyo
+4-6-1 Komaba, Meguro-ku, Tokyo 153-8505, JAPAN </t>
+  </si>
+  <si>
+    <t>http://hydro.iis.u-tokyo.ac.jp/</t>
+  </si>
+  <si>
+    <t>TAKEMURA-T</t>
+  </si>
+  <si>
+    <t>Toshihiko Takemura</t>
+  </si>
+  <si>
+    <t>Research Institute for Applied Mechanics, Kyushu University
+6-1 Kasugakouen, Kasuga, Fukuoka 816-8580, Japan</t>
+  </si>
+  <si>
+    <t>toshi@riam.kyushu-u.ac.jp</t>
+  </si>
+  <si>
+    <t>https://www.riam.kyushu-u.ac.jp/climate/indexe.html</t>
+  </si>
+  <si>
+    <t>OGOCHI-K</t>
+  </si>
+  <si>
+    <t>Koji Ogochi</t>
+  </si>
+  <si>
+    <t>ogochi@jamstec.go.jp</t>
   </si>
 </sst>
 </file>
@@ -556,7 +670,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -710,6 +824,49 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="13"/>
+      </left>
+      <right style="thin">
+        <color indexed="13"/>
+      </right>
+      <top style="thin">
+        <color indexed="13"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="13"/>
+      </left>
+      <right style="thin">
+        <color indexed="13"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="13"/>
+      </left>
+      <right style="thin">
+        <color indexed="13"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
@@ -725,7 +882,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -849,9 +1006,6 @@
     <xf numFmtId="0" fontId="11" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="13" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="3" borderId="14" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -861,8 +1015,65 @@
     <xf numFmtId="0" fontId="13" fillId="3" borderId="14" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="13" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -2465,13 +2676,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
+  <sheetPr filterMode="1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:IV30"/>
+  <dimension ref="A1:IV35"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:G35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.28515625" defaultRowHeight="20.100000000000001" customHeight="1"/>
@@ -2518,209 +2729,199 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="25.5">
+    <row r="3" spans="1:7" ht="72" hidden="1">
       <c r="A3" s="37" t="s">
-        <v>23</v>
-      </c>
-      <c r="B3" s="44" t="s">
-        <v>24</v>
+        <v>35</v>
+      </c>
+      <c r="B3" s="48" t="s">
+        <v>36</v>
       </c>
       <c r="C3" s="38" t="b">
-        <v>0</v>
-      </c>
-      <c r="D3" s="44" t="s">
-        <v>25</v>
-      </c>
-      <c r="E3" s="44" t="s">
-        <v>26</v>
-      </c>
-      <c r="F3" s="39" t="s">
-        <v>27</v>
-      </c>
-      <c r="G3" s="39" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="38.25" customHeight="1">
+        <v>1</v>
+      </c>
+      <c r="D3" s="48" t="s">
+        <v>31</v>
+      </c>
+      <c r="E3" s="48"/>
+      <c r="F3" s="63" t="s">
+        <v>37</v>
+      </c>
+      <c r="G3" s="48"/>
+    </row>
+    <row r="4" spans="1:7" ht="12">
       <c r="A4" s="37" t="s">
-        <v>29</v>
+        <v>64</v>
       </c>
       <c r="B4" s="38" t="s">
-        <v>30</v>
+        <v>65</v>
       </c>
       <c r="C4" s="38" t="b">
         <v>0</v>
       </c>
-      <c r="D4" s="38" t="s">
-        <v>31</v>
-      </c>
-      <c r="E4" s="45" t="s">
-        <v>32</v>
-      </c>
-      <c r="F4" s="45" t="s">
-        <v>33</v>
-      </c>
-      <c r="G4" s="45" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="75.75" customHeight="1">
+      <c r="D4" s="38"/>
+      <c r="E4" s="38"/>
+      <c r="F4" s="38"/>
+      <c r="G4" s="38"/>
+    </row>
+    <row r="5" spans="1:7" ht="12">
       <c r="A5" s="40" t="s">
-        <v>35</v>
-      </c>
-      <c r="B5" s="41" t="s">
-        <v>36</v>
+        <v>78</v>
+      </c>
+      <c r="B5" s="42" t="s">
+        <v>79</v>
       </c>
       <c r="C5" s="42" t="b">
-        <v>1</v>
-      </c>
-      <c r="D5" s="41" t="s">
-        <v>31</v>
-      </c>
-      <c r="E5" s="41"/>
-      <c r="F5" s="46" t="s">
-        <v>37</v>
-      </c>
-      <c r="G5" s="41"/>
-    </row>
-    <row r="6" spans="1:7" ht="36">
+        <v>0</v>
+      </c>
+      <c r="D5" s="42"/>
+      <c r="E5" s="42" t="s">
+        <v>80</v>
+      </c>
+      <c r="F5" s="42"/>
+      <c r="G5" s="42"/>
+    </row>
+    <row r="6" spans="1:7" ht="12">
       <c r="A6" s="37" t="s">
-        <v>38</v>
+        <v>66</v>
       </c>
       <c r="B6" s="38" t="s">
-        <v>39</v>
+        <v>67</v>
       </c>
       <c r="C6" s="38" t="b">
         <v>0</v>
       </c>
-      <c r="D6" s="38" t="s">
-        <v>40</v>
-      </c>
-      <c r="E6" s="45" t="s">
-        <v>41</v>
-      </c>
-      <c r="F6" s="39"/>
-      <c r="G6" s="39" t="s">
-        <v>42</v>
-      </c>
+      <c r="D6" s="38"/>
+      <c r="E6" s="38" t="s">
+        <v>68</v>
+      </c>
+      <c r="F6" s="38"/>
+      <c r="G6" s="38"/>
     </row>
     <row r="7" spans="1:7" ht="36">
       <c r="A7" s="40" t="s">
-        <v>43</v>
-      </c>
-      <c r="B7" s="41" t="s">
-        <v>44</v>
+        <v>54</v>
+      </c>
+      <c r="B7" s="42" t="s">
+        <v>55</v>
       </c>
       <c r="C7" s="42" t="b">
         <v>0</v>
       </c>
-      <c r="D7" s="41" t="s">
-        <v>40</v>
-      </c>
-      <c r="E7" s="46" t="s">
-        <v>45</v>
-      </c>
-      <c r="F7" s="41"/>
-      <c r="G7" s="41"/>
-    </row>
-    <row r="8" spans="1:7" ht="48">
-      <c r="A8" s="40" t="s">
-        <v>46</v>
-      </c>
-      <c r="B8" s="42" t="s">
-        <v>47</v>
-      </c>
-      <c r="C8" s="42" t="b">
+      <c r="D7" s="46" t="s">
+        <v>56</v>
+      </c>
+      <c r="E7" s="47" t="s">
+        <v>57</v>
+      </c>
+      <c r="F7" s="42"/>
+      <c r="G7" s="42"/>
+    </row>
+    <row r="8" spans="1:7" ht="60">
+      <c r="A8" s="54" t="s">
+        <v>109</v>
+      </c>
+      <c r="B8" s="55" t="s">
+        <v>110</v>
+      </c>
+      <c r="C8" s="51" t="b">
         <v>0</v>
       </c>
-      <c r="D8" s="47" t="s">
-        <v>48</v>
-      </c>
-      <c r="E8" s="48" t="s">
-        <v>49</v>
-      </c>
-      <c r="F8" s="42"/>
-      <c r="G8" s="49" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="36">
+      <c r="D8" s="55" t="s">
+        <v>111</v>
+      </c>
+      <c r="E8" s="55" t="s">
+        <v>112</v>
+      </c>
+      <c r="F8" s="64" t="s">
+        <v>113</v>
+      </c>
+      <c r="G8" s="67" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="12">
       <c r="A9" s="40" t="s">
-        <v>51</v>
+        <v>75</v>
       </c>
       <c r="B9" s="42" t="s">
-        <v>52</v>
+        <v>76</v>
       </c>
       <c r="C9" s="42" t="b">
         <v>0</v>
       </c>
-      <c r="D9" s="41" t="s">
-        <v>40</v>
-      </c>
-      <c r="E9" s="48" t="s">
-        <v>53</v>
+      <c r="D9" s="42"/>
+      <c r="E9" s="42" t="s">
+        <v>77</v>
       </c>
       <c r="F9" s="42"/>
       <c r="G9" s="42"/>
     </row>
     <row r="10" spans="1:7" ht="36">
       <c r="A10" s="40" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="B10" s="42" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="C10" s="42" t="b">
         <v>0</v>
       </c>
-      <c r="D10" s="47" t="s">
-        <v>56</v>
-      </c>
-      <c r="E10" s="48" t="s">
-        <v>57</v>
-      </c>
-      <c r="F10" s="42"/>
-      <c r="G10" s="42"/>
-    </row>
-    <row r="11" spans="1:7" ht="36">
+      <c r="D10" s="42" t="s">
+        <v>40</v>
+      </c>
+      <c r="E10" s="47" t="s">
+        <v>41</v>
+      </c>
+      <c r="F10" s="65"/>
+      <c r="G10" s="65" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="24">
       <c r="A11" s="40" t="s">
-        <v>58</v>
+        <v>29</v>
       </c>
       <c r="B11" s="42" t="s">
-        <v>59</v>
+        <v>30</v>
       </c>
       <c r="C11" s="42" t="b">
         <v>0</v>
       </c>
       <c r="D11" s="42" t="s">
-        <v>60</v>
-      </c>
-      <c r="E11" s="42" t="s">
-        <v>61</v>
-      </c>
-      <c r="F11" s="42" t="s">
-        <v>62</v>
-      </c>
-      <c r="G11" s="42" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A12" s="40" t="s">
-        <v>64</v>
-      </c>
-      <c r="B12" s="42" t="s">
-        <v>65</v>
-      </c>
-      <c r="C12" s="42" t="b">
+        <v>31</v>
+      </c>
+      <c r="E11" s="47" t="s">
+        <v>32</v>
+      </c>
+      <c r="F11" s="47" t="s">
+        <v>33</v>
+      </c>
+      <c r="G11" s="47" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="60">
+      <c r="A12" s="54" t="s">
+        <v>138</v>
+      </c>
+      <c r="B12" s="55" t="s">
+        <v>139</v>
+      </c>
+      <c r="C12" s="51" t="b">
         <v>0</v>
       </c>
-      <c r="D12" s="42"/>
-      <c r="E12" s="42"/>
-      <c r="F12" s="42"/>
-      <c r="G12" s="42"/>
-    </row>
-    <row r="13" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="D12" s="55" t="s">
+        <v>127</v>
+      </c>
+      <c r="E12" s="55" t="s">
+        <v>140</v>
+      </c>
+      <c r="F12" s="64" t="s">
+        <v>113</v>
+      </c>
+      <c r="G12" s="55"/>
+    </row>
+    <row r="13" spans="1:7" ht="48">
       <c r="A13" s="40" t="s">
         <v>46</v>
       </c>
@@ -2730,288 +2931,447 @@
       <c r="C13" s="42" t="b">
         <v>0</v>
       </c>
-      <c r="D13" s="42"/>
-      <c r="E13" s="42"/>
+      <c r="D13" s="46" t="s">
+        <v>48</v>
+      </c>
+      <c r="E13" s="47" t="s">
+        <v>49</v>
+      </c>
       <c r="F13" s="42"/>
-      <c r="G13" s="42"/>
-    </row>
-    <row r="14" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="G13" s="66" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="12">
       <c r="A14" s="40" t="s">
-        <v>66</v>
+        <v>46</v>
       </c>
       <c r="B14" s="42" t="s">
-        <v>67</v>
+        <v>47</v>
       </c>
       <c r="C14" s="42" t="b">
         <v>0</v>
       </c>
       <c r="D14" s="42"/>
-      <c r="E14" s="42" t="s">
-        <v>68</v>
-      </c>
+      <c r="E14" s="42"/>
       <c r="F14" s="42"/>
       <c r="G14" s="42"/>
     </row>
-    <row r="15" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A15" s="40" t="s">
-        <v>69</v>
-      </c>
-      <c r="B15" s="42" t="s">
-        <v>70</v>
-      </c>
-      <c r="C15" s="42" t="b">
+    <row r="15" spans="1:7" ht="60">
+      <c r="A15" s="54" t="s">
+        <v>115</v>
+      </c>
+      <c r="B15" s="55" t="s">
+        <v>116</v>
+      </c>
+      <c r="C15" s="51" t="b">
         <v>0</v>
       </c>
-      <c r="D15" s="42"/>
-      <c r="E15" s="42" t="s">
-        <v>71</v>
-      </c>
-      <c r="F15" s="42"/>
-      <c r="G15" s="42"/>
-    </row>
-    <row r="16" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="D15" s="55" t="s">
+        <v>117</v>
+      </c>
+      <c r="E15" s="55" t="s">
+        <v>118</v>
+      </c>
+      <c r="F15" s="64" t="s">
+        <v>119</v>
+      </c>
+      <c r="G15" s="64"/>
+    </row>
+    <row r="16" spans="1:7" ht="24">
       <c r="A16" s="40" t="s">
-        <v>72</v>
+        <v>90</v>
       </c>
       <c r="B16" s="42" t="s">
-        <v>73</v>
+        <v>91</v>
       </c>
       <c r="C16" s="42" t="b">
         <v>0</v>
       </c>
       <c r="D16" s="42"/>
       <c r="E16" s="42" t="s">
-        <v>74</v>
+        <v>92</v>
       </c>
       <c r="F16" s="42"/>
       <c r="G16" s="42"/>
     </row>
-    <row r="17" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A17" s="40" t="s">
-        <v>75</v>
-      </c>
-      <c r="B17" s="42" t="s">
-        <v>76</v>
-      </c>
-      <c r="C17" s="42" t="b">
+    <row r="17" spans="1:7" ht="12">
+      <c r="A17" s="43" t="s">
+        <v>104</v>
+      </c>
+      <c r="B17" s="41" t="s">
+        <v>105</v>
+      </c>
+      <c r="C17" s="41" t="b">
         <v>0</v>
       </c>
-      <c r="D17" s="42"/>
-      <c r="E17" s="42" t="s">
-        <v>77</v>
-      </c>
-      <c r="F17" s="42"/>
-      <c r="G17" s="42"/>
-    </row>
-    <row r="18" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="D17" s="41"/>
+      <c r="E17" s="41" t="s">
+        <v>106</v>
+      </c>
+      <c r="F17" s="41"/>
+      <c r="G17" s="41"/>
+    </row>
+    <row r="18" spans="1:7" ht="12">
       <c r="A18" s="40" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B18" s="42" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C18" s="42" t="b">
         <v>0</v>
       </c>
       <c r="D18" s="42"/>
       <c r="E18" s="42" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="F18" s="42"/>
       <c r="G18" s="42"/>
     </row>
-    <row r="19" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A19" s="40" t="s">
-        <v>81</v>
-      </c>
-      <c r="B19" s="42" t="s">
-        <v>82</v>
-      </c>
-      <c r="C19" s="42" t="b">
-        <v>0</v>
-      </c>
-      <c r="D19" s="42"/>
-      <c r="E19" s="42" t="s">
-        <v>83</v>
-      </c>
-      <c r="F19" s="42"/>
-      <c r="G19" s="42"/>
-    </row>
-    <row r="20" spans="1:7" ht="20.100000000000001" customHeight="1">
+    <row r="19" spans="1:7" ht="108" hidden="1">
+      <c r="A19" s="54" t="s">
+        <v>107</v>
+      </c>
+      <c r="B19" s="55" t="s">
+        <v>107</v>
+      </c>
+      <c r="C19" s="51" t="b">
+        <v>1</v>
+      </c>
+      <c r="D19" s="55" t="s">
+        <v>108</v>
+      </c>
+      <c r="E19" s="55"/>
+      <c r="F19" s="64"/>
+      <c r="G19" s="64"/>
+    </row>
+    <row r="20" spans="1:7" ht="36">
       <c r="A20" s="40" t="s">
-        <v>84</v>
+        <v>51</v>
       </c>
       <c r="B20" s="42" t="s">
-        <v>85</v>
+        <v>52</v>
       </c>
       <c r="C20" s="42" t="b">
         <v>0</v>
       </c>
-      <c r="D20" s="42"/>
-      <c r="E20" s="42" t="s">
-        <v>86</v>
+      <c r="D20" s="41" t="s">
+        <v>40</v>
+      </c>
+      <c r="E20" s="47" t="s">
+        <v>53</v>
       </c>
       <c r="F20" s="42"/>
       <c r="G20" s="42"/>
     </row>
-    <row r="21" spans="1:7" ht="20.100000000000001" customHeight="1">
+    <row r="21" spans="1:7" ht="12">
       <c r="A21" s="40" t="s">
-        <v>87</v>
+        <v>72</v>
       </c>
       <c r="B21" s="42" t="s">
-        <v>88</v>
+        <v>73</v>
       </c>
       <c r="C21" s="42" t="b">
         <v>0</v>
       </c>
       <c r="D21" s="42"/>
       <c r="E21" s="42" t="s">
-        <v>89</v>
+        <v>74</v>
       </c>
       <c r="F21" s="42"/>
       <c r="G21" s="42"/>
     </row>
-    <row r="22" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A22" s="40" t="s">
-        <v>90</v>
-      </c>
-      <c r="B22" s="42" t="s">
-        <v>91</v>
-      </c>
-      <c r="C22" s="42" t="b">
+    <row r="22" spans="1:7" ht="12">
+      <c r="A22" s="43" t="s">
+        <v>95</v>
+      </c>
+      <c r="B22" s="41" t="s">
+        <v>96</v>
+      </c>
+      <c r="C22" s="41" t="b">
         <v>0</v>
       </c>
-      <c r="D22" s="42"/>
-      <c r="E22" s="42" t="s">
-        <v>92</v>
-      </c>
-      <c r="F22" s="42"/>
-      <c r="G22" s="42"/>
-    </row>
-    <row r="23" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="D22" s="41"/>
+      <c r="E22" s="41" t="s">
+        <v>97</v>
+      </c>
+      <c r="F22" s="41"/>
+      <c r="G22" s="41"/>
+    </row>
+    <row r="23" spans="1:7" ht="36">
       <c r="A23" s="40" t="s">
-        <v>93</v>
+        <v>58</v>
       </c>
       <c r="B23" s="42" t="s">
-        <v>44</v>
+        <v>59</v>
       </c>
       <c r="C23" s="42" t="b">
         <v>0</v>
       </c>
-      <c r="D23" s="42"/>
+      <c r="D23" s="42" t="s">
+        <v>60</v>
+      </c>
       <c r="E23" s="42" t="s">
-        <v>94</v>
-      </c>
-      <c r="F23" s="42"/>
-      <c r="G23" s="42"/>
-    </row>
-    <row r="24" spans="1:7" ht="20.100000000000001" customHeight="1">
+        <v>61</v>
+      </c>
+      <c r="F23" s="42" t="s">
+        <v>62</v>
+      </c>
+      <c r="G23" s="42" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="24">
       <c r="A24" s="43" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B24" s="41" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="C24" s="41" t="b">
         <v>0</v>
       </c>
       <c r="D24" s="41"/>
       <c r="E24" s="41" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="F24" s="41"/>
       <c r="G24" s="41"/>
     </row>
-    <row r="25" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A25" s="43" t="s">
-        <v>98</v>
-      </c>
-      <c r="B25" s="41" t="s">
-        <v>99</v>
-      </c>
-      <c r="C25" s="41" t="b">
+    <row r="25" spans="1:7" ht="12">
+      <c r="A25" s="40" t="s">
+        <v>69</v>
+      </c>
+      <c r="B25" s="42" t="s">
+        <v>70</v>
+      </c>
+      <c r="C25" s="42" t="b">
         <v>0</v>
       </c>
-      <c r="D25" s="41"/>
-      <c r="E25" s="41" t="s">
-        <v>100</v>
-      </c>
-      <c r="F25" s="41"/>
-      <c r="G25" s="41"/>
-    </row>
-    <row r="26" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A26" s="43" t="s">
-        <v>101</v>
+      <c r="D25" s="42"/>
+      <c r="E25" s="42" t="s">
+        <v>71</v>
+      </c>
+      <c r="F25" s="42"/>
+      <c r="G25" s="42"/>
+    </row>
+    <row r="26" spans="1:7" ht="36">
+      <c r="A26" s="40" t="s">
+        <v>43</v>
       </c>
       <c r="B26" s="41" t="s">
-        <v>102</v>
-      </c>
-      <c r="C26" s="41" t="b">
+        <v>44</v>
+      </c>
+      <c r="C26" s="42" t="b">
         <v>0</v>
       </c>
-      <c r="D26" s="41"/>
-      <c r="E26" s="41" t="s">
-        <v>103</v>
+      <c r="D26" s="41" t="s">
+        <v>40</v>
+      </c>
+      <c r="E26" s="45" t="s">
+        <v>45</v>
       </c>
       <c r="F26" s="41"/>
       <c r="G26" s="41"/>
     </row>
-    <row r="27" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A27" s="43" t="s">
-        <v>104</v>
-      </c>
-      <c r="B27" s="41" t="s">
-        <v>105</v>
-      </c>
-      <c r="C27" s="41" t="b">
+    <row r="27" spans="1:7" ht="24">
+      <c r="A27" s="40" t="s">
+        <v>93</v>
+      </c>
+      <c r="B27" s="42" t="s">
+        <v>44</v>
+      </c>
+      <c r="C27" s="42" t="b">
         <v>0</v>
       </c>
-      <c r="D27" s="41"/>
-      <c r="E27" s="41" t="s">
-        <v>106</v>
-      </c>
-      <c r="F27" s="41"/>
-      <c r="G27" s="41"/>
-    </row>
-    <row r="28" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A28" s="43"/>
-      <c r="B28" s="41"/>
-      <c r="C28" s="41"/>
-      <c r="D28" s="41"/>
-      <c r="E28" s="41"/>
-      <c r="F28" s="41"/>
-      <c r="G28" s="41"/>
-    </row>
-    <row r="29" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A29" s="43"/>
-      <c r="B29" s="41"/>
-      <c r="C29" s="41"/>
-      <c r="D29" s="41"/>
-      <c r="E29" s="41"/>
-      <c r="F29" s="41"/>
-      <c r="G29" s="41"/>
-    </row>
-    <row r="30" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A30" s="43"/>
-      <c r="B30" s="41"/>
-      <c r="C30" s="41"/>
-      <c r="D30" s="41"/>
-      <c r="E30" s="41"/>
-      <c r="F30" s="41"/>
-      <c r="G30" s="41"/>
+      <c r="D27" s="42"/>
+      <c r="E27" s="42" t="s">
+        <v>94</v>
+      </c>
+      <c r="F27" s="42"/>
+      <c r="G27" s="42"/>
+    </row>
+    <row r="28" spans="1:7" ht="60">
+      <c r="A28" s="52" t="s">
+        <v>130</v>
+      </c>
+      <c r="B28" s="53" t="s">
+        <v>44</v>
+      </c>
+      <c r="C28" s="50" t="b">
+        <v>0</v>
+      </c>
+      <c r="D28" s="53" t="s">
+        <v>131</v>
+      </c>
+      <c r="E28" s="59" t="s">
+        <v>94</v>
+      </c>
+      <c r="F28" s="53" t="s">
+        <v>132</v>
+      </c>
+      <c r="G28" s="53"/>
+    </row>
+    <row r="29" spans="1:7" ht="48">
+      <c r="A29" s="52" t="s">
+        <v>120</v>
+      </c>
+      <c r="B29" s="56" t="s">
+        <v>121</v>
+      </c>
+      <c r="C29" s="50" t="b">
+        <v>0</v>
+      </c>
+      <c r="D29" s="56" t="s">
+        <v>122</v>
+      </c>
+      <c r="E29" s="59" t="s">
+        <v>123</v>
+      </c>
+      <c r="F29" s="56" t="s">
+        <v>124</v>
+      </c>
+      <c r="G29" s="56"/>
+    </row>
+    <row r="30" spans="1:7" ht="25.5">
+      <c r="A30" s="37" t="s">
+        <v>23</v>
+      </c>
+      <c r="B30" s="44" t="s">
+        <v>24</v>
+      </c>
+      <c r="C30" s="38" t="b">
+        <v>0</v>
+      </c>
+      <c r="D30" s="44" t="s">
+        <v>25</v>
+      </c>
+      <c r="E30" s="44" t="s">
+        <v>26</v>
+      </c>
+      <c r="F30" s="39" t="s">
+        <v>27</v>
+      </c>
+      <c r="G30" s="39" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="60">
+      <c r="A31" s="54" t="s">
+        <v>133</v>
+      </c>
+      <c r="B31" s="55" t="s">
+        <v>134</v>
+      </c>
+      <c r="C31" s="50" t="b">
+        <v>0</v>
+      </c>
+      <c r="D31" s="57" t="s">
+        <v>135</v>
+      </c>
+      <c r="E31" s="49" t="s">
+        <v>136</v>
+      </c>
+      <c r="F31" s="55" t="s">
+        <v>137</v>
+      </c>
+      <c r="G31" s="55"/>
+    </row>
+    <row r="32" spans="1:7" ht="24">
+      <c r="A32" s="40" t="s">
+        <v>87</v>
+      </c>
+      <c r="B32" s="42" t="s">
+        <v>88</v>
+      </c>
+      <c r="C32" s="38" t="b">
+        <v>0</v>
+      </c>
+      <c r="D32" s="38"/>
+      <c r="E32" s="62" t="s">
+        <v>89</v>
+      </c>
+      <c r="F32" s="42"/>
+      <c r="G32" s="42"/>
+    </row>
+    <row r="33" spans="1:7" ht="24">
+      <c r="A33" s="43" t="s">
+        <v>101</v>
+      </c>
+      <c r="B33" s="41" t="s">
+        <v>102</v>
+      </c>
+      <c r="C33" s="48" t="b">
+        <v>0</v>
+      </c>
+      <c r="D33" s="41"/>
+      <c r="E33" s="60" t="s">
+        <v>103</v>
+      </c>
+      <c r="F33" s="41"/>
+      <c r="G33" s="41"/>
+    </row>
+    <row r="34" spans="1:7" ht="12">
+      <c r="A34" s="40" t="s">
+        <v>84</v>
+      </c>
+      <c r="B34" s="42" t="s">
+        <v>85</v>
+      </c>
+      <c r="C34" s="38" t="b">
+        <v>0</v>
+      </c>
+      <c r="D34" s="58"/>
+      <c r="E34" s="61" t="s">
+        <v>86</v>
+      </c>
+      <c r="F34" s="42"/>
+      <c r="G34" s="42"/>
+    </row>
+    <row r="35" spans="1:7" ht="60">
+      <c r="A35" s="54" t="s">
+        <v>125</v>
+      </c>
+      <c r="B35" s="55" t="s">
+        <v>126</v>
+      </c>
+      <c r="C35" s="50" t="b">
+        <v>0</v>
+      </c>
+      <c r="D35" s="53" t="s">
+        <v>127</v>
+      </c>
+      <c r="E35" s="57" t="s">
+        <v>128</v>
+      </c>
+      <c r="F35" s="53" t="s">
+        <v>129</v>
+      </c>
+      <c r="G35" s="55"/>
     </row>
   </sheetData>
+  <autoFilter ref="A2:G35">
+    <filterColumn colId="2">
+      <filters>
+        <filter val="FALSE"/>
+      </filters>
+    </filterColumn>
+    <sortState ref="A3:G35">
+      <sortCondition ref="B2:B35"/>
+    </sortState>
+  </autoFilter>
   <phoneticPr fontId="12"/>
   <hyperlinks>
-    <hyperlink ref="E4" r:id="rId1"/>
-    <hyperlink ref="F4" r:id="rId2"/>
-    <hyperlink ref="G4" r:id="rId3"/>
-    <hyperlink ref="F5" r:id="rId4"/>
-    <hyperlink ref="E6" r:id="rId5"/>
-    <hyperlink ref="E7" r:id="rId6"/>
-    <hyperlink ref="E8" r:id="rId7"/>
-    <hyperlink ref="E9" r:id="rId8"/>
-    <hyperlink ref="E10" r:id="rId9"/>
+    <hyperlink ref="E11" r:id="rId1"/>
+    <hyperlink ref="F11" r:id="rId2"/>
+    <hyperlink ref="G11" r:id="rId3"/>
+    <hyperlink ref="F3" r:id="rId4"/>
+    <hyperlink ref="E10" r:id="rId5"/>
+    <hyperlink ref="E26" r:id="rId6"/>
+    <hyperlink ref="E13" r:id="rId7"/>
+    <hyperlink ref="E20" r:id="rId8"/>
+    <hyperlink ref="E7" r:id="rId9"/>
   </hyperlinks>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.27777800000000002" footer="0.27777800000000002"/>
   <pageSetup orientation="portrait" r:id="rId10"/>

--- a/cmip6/responsible_parties/cmip6_miroc_responsible_parties.xlsx
+++ b/cmip6/responsible_parties/cmip6_miroc_responsible_parties.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22325"/>
   <workbookPr date1904="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Takahiro\Google ドライブ\ES-DOC\collected\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tkhr_i\OneDrive\仕事\ES-DOC\github\cmip6\responsible_parties\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="3" documentId="11_5D5992E29A7B078457DE840E24EB6EE000D488D5" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{A43035F0-8953-4F0C-8D94-492AC3626EA0}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21705" windowHeight="12975" activeTab="2"/>
+    <workbookView xWindow="2520" yWindow="1900" windowWidth="19410" windowHeight="11500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Frontis" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="200">
   <si>
     <t>ES-DOC CMIP6 Model Responsible Parties</t>
   </si>
@@ -526,11 +527,250 @@
   <si>
     <t>ogochi@jamstec.go.jp</t>
   </si>
+  <si>
+    <t>SEKIGUCHI-M</t>
+    <phoneticPr fontId="12"/>
+  </si>
+  <si>
+    <t>Miho Sekiguchi</t>
+    <phoneticPr fontId="12"/>
+  </si>
+  <si>
+    <t>Tokyo University of Marine Science and Technology
+2-1-6 Etchujima Koto-ku, Tokyo 135-8533, Japan</t>
+    <phoneticPr fontId="12"/>
+  </si>
+  <si>
+    <t>miho@kaiyodai.ac.jp</t>
+    <phoneticPr fontId="12"/>
+  </si>
+  <si>
+    <t>https://tumsatdb.kaiyodai.ac.jp/html/100000606_en.html</t>
+    <phoneticPr fontId="12"/>
+  </si>
+  <si>
+    <t>ABE-M</t>
+    <phoneticPr fontId="12"/>
+  </si>
+  <si>
+    <t>Manabu Abe</t>
+    <phoneticPr fontId="12"/>
+  </si>
+  <si>
+    <t>abemnb@jamstec.go.jp</t>
+    <phoneticPr fontId="12"/>
+  </si>
+  <si>
+    <t>http://www.jamstec.go.jp/souran/html/Manabu_Abe_46cf4-e.html</t>
+    <phoneticPr fontId="12"/>
+  </si>
+  <si>
+    <t>SAITO-F</t>
+    <phoneticPr fontId="12"/>
+  </si>
+  <si>
+    <t>Fuyuki Saito</t>
+    <phoneticPr fontId="12"/>
+  </si>
+  <si>
+    <t>saitofuyuki@jamstec.go.jp</t>
+    <phoneticPr fontId="12"/>
+  </si>
+  <si>
+    <t>http://www.jamstec.go.jp/souran/html/Fuyuki_Saito_13894-e.html</t>
+    <phoneticPr fontId="12"/>
+  </si>
+  <si>
+    <t>CHIKIRA-M</t>
+    <phoneticPr fontId="12"/>
+  </si>
+  <si>
+    <t>Minoru Chikira</t>
+    <phoneticPr fontId="12"/>
+  </si>
+  <si>
+    <t>chikira@aori.u-tokyo.ac.jp</t>
+    <phoneticPr fontId="12"/>
+  </si>
+  <si>
+    <t>https://www.aori.u-tokyo.ac.jp/english/staff/</t>
+    <phoneticPr fontId="12"/>
+  </si>
+  <si>
+    <t>WATANABE-S</t>
+    <phoneticPr fontId="12"/>
+  </si>
+  <si>
+    <t>Shingo Watanabe</t>
+    <phoneticPr fontId="12"/>
+  </si>
+  <si>
+    <t>wnabe@jamstec.go.jp</t>
+    <phoneticPr fontId="12"/>
+  </si>
+  <si>
+    <t>http://www.jamstec.go.jp/souran/html/Shingo_Watanabe_7a12f-e.html</t>
+    <phoneticPr fontId="12"/>
+  </si>
+  <si>
+    <t>MORI-M</t>
+    <phoneticPr fontId="12"/>
+  </si>
+  <si>
+    <t>Masato Mori</t>
+    <phoneticPr fontId="12"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Research Center for Advanced Science and Technology, University of Tokyo
+4-6-1 Komaba, Meguro-ku, Tokyo 153-8904, JAPAN </t>
+    <phoneticPr fontId="12"/>
+  </si>
+  <si>
+    <t>masato@atmos.rcast.u-tokyo.ac.jp</t>
+    <phoneticPr fontId="12"/>
+  </si>
+  <si>
+    <t>http://www.atmos.rcast.u-tokyo.ac.jp/masato/</t>
+    <phoneticPr fontId="12"/>
+  </si>
+  <si>
+    <t>HIROTA-N</t>
+    <phoneticPr fontId="12"/>
+  </si>
+  <si>
+    <t>Nagio Hirota</t>
+    <phoneticPr fontId="12"/>
+  </si>
+  <si>
+    <t>hirota.nagio@nies.go.jp</t>
+    <phoneticPr fontId="12"/>
+  </si>
+  <si>
+    <t>https://www.nies.go.jp/researchers-e/300849.html</t>
+    <phoneticPr fontId="12"/>
+  </si>
+  <si>
+    <t>KAWATANI-Y</t>
+    <phoneticPr fontId="12"/>
+  </si>
+  <si>
+    <t>Yoshio Kawatani</t>
+    <phoneticPr fontId="12"/>
+  </si>
+  <si>
+    <t>yoskawatani@jamstec.go.jp</t>
+    <phoneticPr fontId="12"/>
+  </si>
+  <si>
+    <t>http://www.jamstec.go.jp/souran/html/Yoshio_Kawatani_5cc72-e.html</t>
+    <phoneticPr fontId="12"/>
+  </si>
+  <si>
+    <t>MOCHIZUKI-T</t>
+    <phoneticPr fontId="12"/>
+  </si>
+  <si>
+    <t>Takashi Mochizuki</t>
+    <phoneticPr fontId="12"/>
+  </si>
+  <si>
+    <t>Kyushu University
+744 Motooka, Nishi-ku, Fukuoka, 819-0395, Japan</t>
+    <phoneticPr fontId="12"/>
+  </si>
+  <si>
+    <t>mochizuki.takashi.817@m.kyushu-u.ac.jp</t>
+    <phoneticPr fontId="12"/>
+  </si>
+  <si>
+    <t>http://hyoka.ofc.kyushu-u.ac.jp/search/details/K007230/english.html</t>
+    <phoneticPr fontId="12"/>
+  </si>
+  <si>
+    <t>SUZUKI-T</t>
+    <phoneticPr fontId="12"/>
+  </si>
+  <si>
+    <t>Tatsuo Suzuki</t>
+    <phoneticPr fontId="12"/>
+  </si>
+  <si>
+    <t>tsuzuki@jamstec.go.jp</t>
+    <phoneticPr fontId="12"/>
+  </si>
+  <si>
+    <t>http://www.jamstec.go.jp/souran/html/Tatsuo_Suzuki_e7efa-e.html</t>
+    <phoneticPr fontId="12"/>
+  </si>
+  <si>
+    <t>KUROGI-M</t>
+    <phoneticPr fontId="12"/>
+  </si>
+  <si>
+    <t>Masao Kurogi</t>
+    <phoneticPr fontId="12"/>
+  </si>
+  <si>
+    <t>m_kurogi@jamstec.go.jp</t>
+    <phoneticPr fontId="12"/>
+  </si>
+  <si>
+    <t>http://www.jamstec.go.jp/souran/html/Masao_Kurogi_c3519-e.html</t>
+    <phoneticPr fontId="12"/>
+  </si>
+  <si>
+    <t>KATAOKA-T</t>
+    <phoneticPr fontId="12"/>
+  </si>
+  <si>
+    <t>Takahito Kataoka</t>
+    <phoneticPr fontId="12"/>
+  </si>
+  <si>
+    <t>tkataoka@jamstec.go.jp</t>
+    <phoneticPr fontId="12"/>
+  </si>
+  <si>
+    <t>http://www.jamstec.go.jp/souran/html/Takahito_Kataoka_2bf49-e.html</t>
+    <phoneticPr fontId="12"/>
+  </si>
+  <si>
+    <t>KIMOTO-M</t>
+    <phoneticPr fontId="12"/>
+  </si>
+  <si>
+    <t>Masahide Kimoto</t>
+    <phoneticPr fontId="12"/>
+  </si>
+  <si>
+    <t>kimoto@aori.u-tokyo.ac.jp</t>
+    <phoneticPr fontId="12"/>
+  </si>
+  <si>
+    <t>https://secure.eps.s.u-tokyo.ac.jp/en/member/index.php?_urid=1558&amp;_lang=en</t>
+    <phoneticPr fontId="12"/>
+  </si>
+  <si>
+    <t>NISHIMURA-T</t>
+    <phoneticPr fontId="12"/>
+  </si>
+  <si>
+    <t>Teruyuki Nishimura</t>
+    <phoneticPr fontId="12"/>
+  </si>
+  <si>
+    <t>KANAI-H</t>
+    <phoneticPr fontId="12"/>
+  </si>
+  <si>
+    <t>Hiroaki Kanai</t>
+    <phoneticPr fontId="12"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="17">
     <font>
       <sz val="10"/>
@@ -882,7 +1122,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -1018,9 +1258,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1051,13 +1288,7 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="3" borderId="13" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1072,15 +1303,54 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="14" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="13" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="13" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="13" xfId="2" applyFill="1" applyBorder="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="14" xfId="2" applyBorder="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="16" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="17" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
-    <cellStyle name="ハイパーリンク 2" xfId="3"/>
+    <cellStyle name="ハイパーリンク 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
-    <cellStyle name="標準 2" xfId="2"/>
+    <cellStyle name="標準 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0"/>
@@ -2237,20 +2507,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:IV10"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="8.8984375" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="35.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="180.7109375" style="1" customWidth="1"/>
-    <col min="3" max="5" width="9.140625" style="1" customWidth="1"/>
-    <col min="6" max="256" width="8.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="35.69921875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="180.69921875" style="1" customWidth="1"/>
+    <col min="3" max="5" width="9.09765625" style="1" customWidth="1"/>
+    <col min="6" max="256" width="8.8984375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="34.35" customHeight="1">
+    <row r="1" spans="1:5" ht="34.4" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2302,28 +2572,28 @@
       <c r="D6" s="6"/>
       <c r="E6" s="7"/>
     </row>
-    <row r="7" spans="1:5" ht="14.85" customHeight="1">
+    <row r="7" spans="1:5" ht="14.9" customHeight="1">
       <c r="A7" s="10"/>
       <c r="B7" s="11"/>
       <c r="C7" s="11"/>
       <c r="D7" s="11"/>
       <c r="E7" s="12"/>
     </row>
-    <row r="8" spans="1:5" ht="14.85" customHeight="1">
+    <row r="8" spans="1:5" ht="14.9" customHeight="1">
       <c r="A8" s="10"/>
       <c r="B8" s="11"/>
       <c r="C8" s="11"/>
       <c r="D8" s="11"/>
       <c r="E8" s="12"/>
     </row>
-    <row r="9" spans="1:5" ht="14.85" customHeight="1">
+    <row r="9" spans="1:5" ht="14.9" customHeight="1">
       <c r="A9" s="10"/>
       <c r="B9" s="11"/>
       <c r="C9" s="11"/>
       <c r="D9" s="11"/>
       <c r="E9" s="12"/>
     </row>
-    <row r="10" spans="1:5" ht="14.85" customHeight="1">
+    <row r="10" spans="1:5" ht="14.9" customHeight="1">
       <c r="A10" s="13"/>
       <c r="B10" s="14"/>
       <c r="C10" s="14"/>
@@ -2333,7 +2603,7 @@
   </sheetData>
   <phoneticPr fontId="12"/>
   <hyperlinks>
-    <hyperlink ref="B5" r:id="rId1"/>
+    <hyperlink ref="B5" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
@@ -2344,7 +2614,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -2354,19 +2624,19 @@
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.28515625" defaultRowHeight="20.100000000000001" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="16.296875" defaultRowHeight="20.149999999999999" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="25.85546875" style="16" customWidth="1"/>
-    <col min="2" max="2" width="19.7109375" style="16" customWidth="1"/>
-    <col min="3" max="3" width="21.42578125" style="16" customWidth="1"/>
-    <col min="4" max="4" width="37.85546875" style="16" customWidth="1"/>
+    <col min="1" max="1" width="25.8984375" style="16" customWidth="1"/>
+    <col min="2" max="2" width="19.69921875" style="16" customWidth="1"/>
+    <col min="3" max="3" width="21.3984375" style="16" customWidth="1"/>
+    <col min="4" max="4" width="37.8984375" style="16" customWidth="1"/>
     <col min="5" max="5" width="24" style="16" customWidth="1"/>
-    <col min="6" max="6" width="54.42578125" style="16" customWidth="1"/>
-    <col min="7" max="7" width="36.42578125" style="16" customWidth="1"/>
-    <col min="8" max="256" width="16.28515625" style="16" customWidth="1"/>
+    <col min="6" max="6" width="54.3984375" style="16" customWidth="1"/>
+    <col min="7" max="7" width="36.3984375" style="16" customWidth="1"/>
+    <col min="8" max="256" width="16.296875" style="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="30.95" customHeight="1">
+    <row r="1" spans="1:7" ht="31" customHeight="1">
       <c r="A1" s="17" t="s">
         <v>5</v>
       </c>
@@ -2400,7 +2670,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="21.2" customHeight="1">
+    <row r="3" spans="1:7" ht="21.25" customHeight="1">
       <c r="A3" s="23" t="s">
         <v>12</v>
       </c>
@@ -2423,7 +2693,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="44.1" customHeight="1">
+    <row r="4" spans="1:7" ht="44.15" customHeight="1">
       <c r="A4" s="27" t="s">
         <v>18</v>
       </c>
@@ -2663,8 +2933,8 @@
   </sheetData>
   <phoneticPr fontId="12"/>
   <hyperlinks>
-    <hyperlink ref="G3" r:id="rId1"/>
-    <hyperlink ref="E4" r:id="rId2"/>
+    <hyperlink ref="G3" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="E4" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.27777800000000002" footer="0.27777800000000002"/>
   <pageSetup orientation="portrait"/>
@@ -2675,27 +2945,27 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr filterMode="1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:IV35"/>
+  <dimension ref="A1:IV50"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:G35"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.28515625" defaultRowHeight="20.100000000000001" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="16.296875" defaultRowHeight="20.149999999999999" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="25.85546875" style="36" customWidth="1"/>
-    <col min="2" max="2" width="29.42578125" style="36" customWidth="1"/>
-    <col min="3" max="4" width="29.85546875" style="36" customWidth="1"/>
-    <col min="5" max="5" width="23.140625" style="36" customWidth="1"/>
-    <col min="6" max="7" width="26.42578125" style="36" customWidth="1"/>
-    <col min="8" max="256" width="16.28515625" style="36" customWidth="1"/>
+    <col min="1" max="1" width="25.8984375" style="36" customWidth="1"/>
+    <col min="2" max="2" width="29.3984375" style="36" customWidth="1"/>
+    <col min="3" max="4" width="29.8984375" style="36" customWidth="1"/>
+    <col min="5" max="5" width="23.09765625" style="36" customWidth="1"/>
+    <col min="6" max="7" width="26.3984375" style="36" customWidth="1"/>
+    <col min="8" max="256" width="16.296875" style="36" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="30.95" customHeight="1">
+    <row r="1" spans="1:7" ht="31" customHeight="1">
       <c r="A1" s="17" t="s">
         <v>5</v>
       </c>
@@ -2729,7 +2999,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="72" hidden="1">
+    <row r="3" spans="1:7" ht="20.5" customHeight="1">
       <c r="A3" s="37" t="s">
         <v>35</v>
       </c>
@@ -2743,7 +3013,7 @@
         <v>31</v>
       </c>
       <c r="E3" s="48"/>
-      <c r="F3" s="63" t="s">
+      <c r="F3" s="60" t="s">
         <v>37</v>
       </c>
       <c r="G3" s="48"/>
@@ -2817,564 +3087,4632 @@
       <c r="G7" s="42"/>
     </row>
     <row r="8" spans="1:7" ht="60">
-      <c r="A8" s="54" t="s">
+      <c r="A8" s="53" t="s">
+        <v>150</v>
+      </c>
+      <c r="B8" s="64" t="s">
+        <v>151</v>
+      </c>
+      <c r="C8" s="50" t="b">
+        <v>0</v>
+      </c>
+      <c r="D8" s="64" t="s">
+        <v>127</v>
+      </c>
+      <c r="E8" s="66" t="s">
+        <v>152</v>
+      </c>
+      <c r="F8" s="47" t="s">
+        <v>153</v>
+      </c>
+      <c r="G8" s="77"/>
+    </row>
+    <row r="9" spans="1:7" ht="60">
+      <c r="A9" s="53" t="s">
+        <v>198</v>
+      </c>
+      <c r="B9" s="64" t="s">
+        <v>199</v>
+      </c>
+      <c r="C9" s="50" t="b">
+        <v>0</v>
+      </c>
+      <c r="D9" s="64" t="s">
+        <v>127</v>
+      </c>
+      <c r="E9" s="71"/>
+      <c r="F9" s="64"/>
+      <c r="G9" s="64"/>
+    </row>
+    <row r="10" spans="1:7" ht="60">
+      <c r="A10" s="53" t="s">
         <v>109</v>
       </c>
-      <c r="B8" s="55" t="s">
+      <c r="B10" s="54" t="s">
         <v>110</v>
       </c>
-      <c r="C8" s="51" t="b">
+      <c r="C10" s="50" t="b">
         <v>0</v>
       </c>
-      <c r="D8" s="55" t="s">
+      <c r="D10" s="54" t="s">
         <v>111</v>
       </c>
-      <c r="E8" s="55" t="s">
+      <c r="E10" s="54" t="s">
         <v>112</v>
       </c>
-      <c r="F8" s="64" t="s">
+      <c r="F10" s="61" t="s">
         <v>113</v>
       </c>
-      <c r="G8" s="67" t="s">
+      <c r="G10" s="61" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="12">
-      <c r="A9" s="40" t="s">
+    <row r="11" spans="1:7" ht="12">
+      <c r="A11" s="40" t="s">
         <v>75</v>
       </c>
-      <c r="B9" s="42" t="s">
+      <c r="B11" s="42" t="s">
         <v>76</v>
-      </c>
-      <c r="C9" s="42" t="b">
-        <v>0</v>
-      </c>
-      <c r="D9" s="42"/>
-      <c r="E9" s="42" t="s">
-        <v>77</v>
-      </c>
-      <c r="F9" s="42"/>
-      <c r="G9" s="42"/>
-    </row>
-    <row r="10" spans="1:7" ht="36">
-      <c r="A10" s="40" t="s">
-        <v>38</v>
-      </c>
-      <c r="B10" s="42" t="s">
-        <v>39</v>
-      </c>
-      <c r="C10" s="42" t="b">
-        <v>0</v>
-      </c>
-      <c r="D10" s="42" t="s">
-        <v>40</v>
-      </c>
-      <c r="E10" s="47" t="s">
-        <v>41</v>
-      </c>
-      <c r="F10" s="65"/>
-      <c r="G10" s="65" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="24">
-      <c r="A11" s="40" t="s">
-        <v>29</v>
-      </c>
-      <c r="B11" s="42" t="s">
-        <v>30</v>
       </c>
       <c r="C11" s="42" t="b">
         <v>0</v>
       </c>
-      <c r="D11" s="42" t="s">
-        <v>31</v>
-      </c>
-      <c r="E11" s="47" t="s">
-        <v>32</v>
-      </c>
-      <c r="F11" s="47" t="s">
-        <v>33</v>
-      </c>
-      <c r="G11" s="47" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="60">
-      <c r="A12" s="54" t="s">
-        <v>138</v>
-      </c>
-      <c r="B12" s="55" t="s">
-        <v>139</v>
-      </c>
-      <c r="C12" s="51" t="b">
+      <c r="D11" s="42"/>
+      <c r="E11" s="42" t="s">
+        <v>77</v>
+      </c>
+      <c r="F11" s="42"/>
+      <c r="G11" s="42"/>
+    </row>
+    <row r="12" spans="1:7" ht="36">
+      <c r="A12" s="40" t="s">
+        <v>38</v>
+      </c>
+      <c r="B12" s="42" t="s">
+        <v>39</v>
+      </c>
+      <c r="C12" s="42" t="b">
         <v>0</v>
       </c>
-      <c r="D12" s="55" t="s">
-        <v>127</v>
-      </c>
-      <c r="E12" s="55" t="s">
-        <v>140</v>
-      </c>
-      <c r="F12" s="64" t="s">
-        <v>113</v>
-      </c>
-      <c r="G12" s="55"/>
-    </row>
-    <row r="13" spans="1:7" ht="48">
+      <c r="D12" s="42" t="s">
+        <v>40</v>
+      </c>
+      <c r="E12" s="47" t="s">
+        <v>41</v>
+      </c>
+      <c r="F12" s="62"/>
+      <c r="G12" s="62" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="24">
       <c r="A13" s="40" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="B13" s="42" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="C13" s="42" t="b">
         <v>0</v>
       </c>
-      <c r="D13" s="46" t="s">
+      <c r="D13" s="42" t="s">
+        <v>31</v>
+      </c>
+      <c r="E13" s="47" t="s">
+        <v>32</v>
+      </c>
+      <c r="F13" s="47" t="s">
+        <v>33</v>
+      </c>
+      <c r="G13" s="47" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="60">
+      <c r="A14" s="53" t="s">
+        <v>138</v>
+      </c>
+      <c r="B14" s="54" t="s">
+        <v>139</v>
+      </c>
+      <c r="C14" s="50" t="b">
+        <v>0</v>
+      </c>
+      <c r="D14" s="54" t="s">
+        <v>127</v>
+      </c>
+      <c r="E14" s="54" t="s">
+        <v>140</v>
+      </c>
+      <c r="F14" s="61" t="s">
+        <v>113</v>
+      </c>
+      <c r="G14" s="54"/>
+    </row>
+    <row r="15" spans="1:7" ht="48">
+      <c r="A15" s="40" t="s">
+        <v>46</v>
+      </c>
+      <c r="B15" s="42" t="s">
+        <v>47</v>
+      </c>
+      <c r="C15" s="42" t="b">
+        <v>0</v>
+      </c>
+      <c r="D15" s="46" t="s">
         <v>48</v>
       </c>
-      <c r="E13" s="47" t="s">
+      <c r="E15" s="47" t="s">
         <v>49</v>
       </c>
-      <c r="F13" s="42"/>
-      <c r="G13" s="66" t="s">
+      <c r="F15" s="42"/>
+      <c r="G15" s="63" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="12">
-      <c r="A14" s="40" t="s">
+    <row r="16" spans="1:7" ht="12">
+      <c r="A16" s="40" t="s">
         <v>46</v>
       </c>
-      <c r="B14" s="42" t="s">
+      <c r="B16" s="42" t="s">
         <v>47</v>
-      </c>
-      <c r="C14" s="42" t="b">
-        <v>0</v>
-      </c>
-      <c r="D14" s="42"/>
-      <c r="E14" s="42"/>
-      <c r="F14" s="42"/>
-      <c r="G14" s="42"/>
-    </row>
-    <row r="15" spans="1:7" ht="60">
-      <c r="A15" s="54" t="s">
-        <v>115</v>
-      </c>
-      <c r="B15" s="55" t="s">
-        <v>116</v>
-      </c>
-      <c r="C15" s="51" t="b">
-        <v>0</v>
-      </c>
-      <c r="D15" s="55" t="s">
-        <v>117</v>
-      </c>
-      <c r="E15" s="55" t="s">
-        <v>118</v>
-      </c>
-      <c r="F15" s="64" t="s">
-        <v>119</v>
-      </c>
-      <c r="G15" s="64"/>
-    </row>
-    <row r="16" spans="1:7" ht="24">
-      <c r="A16" s="40" t="s">
-        <v>90</v>
-      </c>
-      <c r="B16" s="42" t="s">
-        <v>91</v>
       </c>
       <c r="C16" s="42" t="b">
         <v>0</v>
       </c>
       <c r="D16" s="42"/>
-      <c r="E16" s="42" t="s">
-        <v>92</v>
-      </c>
+      <c r="E16" s="42"/>
       <c r="F16" s="42"/>
       <c r="G16" s="42"/>
     </row>
-    <row r="17" spans="1:7" ht="12">
-      <c r="A17" s="43" t="s">
-        <v>104</v>
-      </c>
-      <c r="B17" s="41" t="s">
-        <v>105</v>
-      </c>
-      <c r="C17" s="41" t="b">
+    <row r="17" spans="1:7" ht="60">
+      <c r="A17" s="53" t="s">
+        <v>146</v>
+      </c>
+      <c r="B17" s="64" t="s">
+        <v>147</v>
+      </c>
+      <c r="C17" s="50" t="b">
         <v>0</v>
       </c>
-      <c r="D17" s="41"/>
-      <c r="E17" s="41" t="s">
-        <v>106</v>
-      </c>
-      <c r="F17" s="41"/>
-      <c r="G17" s="41"/>
-    </row>
-    <row r="18" spans="1:7" ht="12">
-      <c r="A18" s="40" t="s">
-        <v>81</v>
-      </c>
-      <c r="B18" s="42" t="s">
-        <v>82</v>
-      </c>
-      <c r="C18" s="42" t="b">
+      <c r="D17" s="64" t="s">
+        <v>127</v>
+      </c>
+      <c r="E17" s="66" t="s">
+        <v>148</v>
+      </c>
+      <c r="F17" s="47" t="s">
+        <v>149</v>
+      </c>
+      <c r="G17" s="64"/>
+    </row>
+    <row r="18" spans="1:7" ht="60">
+      <c r="A18" s="53" t="s">
+        <v>192</v>
+      </c>
+      <c r="B18" s="64" t="s">
+        <v>193</v>
+      </c>
+      <c r="C18" s="50" t="b">
         <v>0</v>
       </c>
-      <c r="D18" s="42"/>
-      <c r="E18" s="42" t="s">
-        <v>83</v>
-      </c>
-      <c r="F18" s="42"/>
-      <c r="G18" s="42"/>
+      <c r="D18" s="64" t="s">
+        <v>117</v>
+      </c>
+      <c r="E18" s="66" t="s">
+        <v>194</v>
+      </c>
+      <c r="F18" s="47" t="s">
+        <v>195</v>
+      </c>
+      <c r="G18" s="64"/>
     </row>
     <row r="19" spans="1:7" ht="108" hidden="1">
-      <c r="A19" s="54" t="s">
+      <c r="A19" s="53" t="s">
         <v>107</v>
       </c>
-      <c r="B19" s="55" t="s">
+      <c r="B19" s="54" t="s">
         <v>107</v>
       </c>
-      <c r="C19" s="51" t="b">
+      <c r="C19" s="50" t="b">
         <v>1</v>
       </c>
-      <c r="D19" s="55" t="s">
+      <c r="D19" s="54" t="s">
         <v>108</v>
       </c>
-      <c r="E19" s="55"/>
-      <c r="F19" s="64"/>
-      <c r="G19" s="64"/>
-    </row>
-    <row r="20" spans="1:7" ht="36">
-      <c r="A20" s="40" t="s">
-        <v>51</v>
-      </c>
-      <c r="B20" s="42" t="s">
-        <v>52</v>
-      </c>
-      <c r="C20" s="42" t="b">
+      <c r="E19" s="54"/>
+      <c r="F19" s="61"/>
+      <c r="G19" s="61"/>
+    </row>
+    <row r="20" spans="1:7" ht="60">
+      <c r="A20" s="53" t="s">
+        <v>115</v>
+      </c>
+      <c r="B20" s="54" t="s">
+        <v>116</v>
+      </c>
+      <c r="C20" s="50" t="b">
         <v>0</v>
       </c>
-      <c r="D20" s="41" t="s">
-        <v>40</v>
-      </c>
-      <c r="E20" s="47" t="s">
-        <v>53</v>
-      </c>
-      <c r="F20" s="42"/>
-      <c r="G20" s="42"/>
-    </row>
-    <row r="21" spans="1:7" ht="12">
+      <c r="D20" s="54" t="s">
+        <v>117</v>
+      </c>
+      <c r="E20" s="54" t="s">
+        <v>118</v>
+      </c>
+      <c r="F20" s="61" t="s">
+        <v>119</v>
+      </c>
+      <c r="G20" s="61"/>
+    </row>
+    <row r="21" spans="1:7" ht="24">
       <c r="A21" s="40" t="s">
-        <v>72</v>
+        <v>90</v>
       </c>
       <c r="B21" s="42" t="s">
-        <v>73</v>
+        <v>91</v>
       </c>
       <c r="C21" s="42" t="b">
         <v>0</v>
       </c>
       <c r="D21" s="42"/>
       <c r="E21" s="42" t="s">
-        <v>74</v>
+        <v>92</v>
       </c>
       <c r="F21" s="42"/>
       <c r="G21" s="42"/>
     </row>
-    <row r="22" spans="1:7" ht="12">
-      <c r="A22" s="43" t="s">
-        <v>95</v>
-      </c>
-      <c r="B22" s="41" t="s">
-        <v>96</v>
-      </c>
-      <c r="C22" s="41" t="b">
+    <row r="22" spans="1:7" ht="60">
+      <c r="A22" s="53" t="s">
+        <v>184</v>
+      </c>
+      <c r="B22" s="64" t="s">
+        <v>185</v>
+      </c>
+      <c r="C22" s="50" t="b">
         <v>0</v>
       </c>
-      <c r="D22" s="41"/>
-      <c r="E22" s="41" t="s">
-        <v>97</v>
-      </c>
-      <c r="F22" s="41"/>
-      <c r="G22" s="41"/>
-    </row>
-    <row r="23" spans="1:7" ht="36">
-      <c r="A23" s="40" t="s">
-        <v>58</v>
-      </c>
-      <c r="B23" s="42" t="s">
-        <v>59</v>
-      </c>
-      <c r="C23" s="42" t="b">
+      <c r="D22" s="64" t="s">
+        <v>127</v>
+      </c>
+      <c r="E22" s="66" t="s">
+        <v>186</v>
+      </c>
+      <c r="F22" s="47" t="s">
+        <v>187</v>
+      </c>
+      <c r="G22" s="64"/>
+    </row>
+    <row r="23" spans="1:7" ht="60">
+      <c r="A23" s="53" t="s">
+        <v>162</v>
+      </c>
+      <c r="B23" s="64" t="s">
+        <v>163</v>
+      </c>
+      <c r="C23" s="50" t="b">
         <v>0</v>
       </c>
-      <c r="D23" s="42" t="s">
-        <v>60</v>
-      </c>
-      <c r="E23" s="42" t="s">
-        <v>61</v>
-      </c>
-      <c r="F23" s="42" t="s">
-        <v>62</v>
-      </c>
-      <c r="G23" s="42" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" ht="24">
+      <c r="D23" s="64" t="s">
+        <v>164</v>
+      </c>
+      <c r="E23" s="66" t="s">
+        <v>165</v>
+      </c>
+      <c r="F23" s="47" t="s">
+        <v>166</v>
+      </c>
+      <c r="G23" s="64"/>
+    </row>
+    <row r="24" spans="1:7" ht="12">
       <c r="A24" s="43" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="B24" s="41" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="C24" s="41" t="b">
         <v>0</v>
       </c>
       <c r="D24" s="41"/>
       <c r="E24" s="41" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="F24" s="41"/>
       <c r="G24" s="41"/>
     </row>
     <row r="25" spans="1:7" ht="12">
       <c r="A25" s="40" t="s">
-        <v>69</v>
+        <v>81</v>
       </c>
       <c r="B25" s="42" t="s">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="C25" s="42" t="b">
         <v>0</v>
       </c>
       <c r="D25" s="42"/>
       <c r="E25" s="42" t="s">
-        <v>71</v>
+        <v>83</v>
       </c>
       <c r="F25" s="42"/>
       <c r="G25" s="42"/>
     </row>
-    <row r="26" spans="1:7" ht="36">
-      <c r="A26" s="40" t="s">
-        <v>43</v>
-      </c>
-      <c r="B26" s="41" t="s">
-        <v>44</v>
-      </c>
-      <c r="C26" s="42" t="b">
+    <row r="26" spans="1:7" ht="48">
+      <c r="A26" s="53" t="s">
+        <v>141</v>
+      </c>
+      <c r="B26" s="64" t="s">
+        <v>142</v>
+      </c>
+      <c r="C26" s="50" t="b">
         <v>0</v>
       </c>
-      <c r="D26" s="41" t="s">
+      <c r="D26" s="64" t="s">
+        <v>143</v>
+      </c>
+      <c r="E26" s="66" t="s">
+        <v>144</v>
+      </c>
+      <c r="F26" s="47" t="s">
+        <v>145</v>
+      </c>
+      <c r="G26" s="64"/>
+    </row>
+    <row r="27" spans="1:7" ht="60">
+      <c r="A27" s="53" t="s">
+        <v>154</v>
+      </c>
+      <c r="B27" s="64" t="s">
+        <v>155</v>
+      </c>
+      <c r="C27" s="50" t="b">
+        <v>0</v>
+      </c>
+      <c r="D27" s="64" t="s">
+        <v>117</v>
+      </c>
+      <c r="E27" s="66" t="s">
+        <v>156</v>
+      </c>
+      <c r="F27" s="47" t="s">
+        <v>157</v>
+      </c>
+      <c r="G27" s="64"/>
+    </row>
+    <row r="28" spans="1:7" ht="48">
+      <c r="A28" s="51" t="s">
+        <v>167</v>
+      </c>
+      <c r="B28" s="65" t="s">
+        <v>168</v>
+      </c>
+      <c r="C28" s="49" t="b">
+        <v>0</v>
+      </c>
+      <c r="D28" s="70" t="s">
+        <v>122</v>
+      </c>
+      <c r="E28" s="74" t="s">
+        <v>169</v>
+      </c>
+      <c r="F28" s="67" t="s">
+        <v>170</v>
+      </c>
+      <c r="G28" s="65"/>
+    </row>
+    <row r="29" spans="1:7" ht="36">
+      <c r="A29" s="37" t="s">
+        <v>51</v>
+      </c>
+      <c r="B29" s="38" t="s">
+        <v>52</v>
+      </c>
+      <c r="C29" s="38" t="b">
+        <v>0</v>
+      </c>
+      <c r="D29" s="48" t="s">
         <v>40</v>
       </c>
-      <c r="E26" s="45" t="s">
-        <v>45</v>
-      </c>
-      <c r="F26" s="41"/>
-      <c r="G26" s="41"/>
-    </row>
-    <row r="27" spans="1:7" ht="24">
-      <c r="A27" s="40" t="s">
-        <v>93</v>
-      </c>
-      <c r="B27" s="42" t="s">
-        <v>44</v>
-      </c>
-      <c r="C27" s="42" t="b">
+      <c r="E29" s="67" t="s">
+        <v>53</v>
+      </c>
+      <c r="F29" s="38"/>
+      <c r="G29" s="38"/>
+    </row>
+    <row r="30" spans="1:7" ht="60">
+      <c r="A30" s="51" t="s">
+        <v>158</v>
+      </c>
+      <c r="B30" s="65" t="s">
+        <v>159</v>
+      </c>
+      <c r="C30" s="49" t="b">
         <v>0</v>
       </c>
-      <c r="D27" s="42"/>
-      <c r="E27" s="42" t="s">
-        <v>94</v>
-      </c>
-      <c r="F27" s="42"/>
-      <c r="G27" s="42"/>
-    </row>
-    <row r="28" spans="1:7" ht="60">
-      <c r="A28" s="52" t="s">
-        <v>130</v>
-      </c>
-      <c r="B28" s="53" t="s">
-        <v>44</v>
-      </c>
-      <c r="C28" s="50" t="b">
+      <c r="D30" s="65" t="s">
+        <v>127</v>
+      </c>
+      <c r="E30" s="74" t="s">
+        <v>160</v>
+      </c>
+      <c r="F30" s="67" t="s">
+        <v>161</v>
+      </c>
+      <c r="G30" s="65"/>
+    </row>
+    <row r="31" spans="1:7" ht="60">
+      <c r="A31" s="53" t="s">
+        <v>188</v>
+      </c>
+      <c r="B31" s="64" t="s">
+        <v>189</v>
+      </c>
+      <c r="C31" s="49" t="b">
         <v>0</v>
       </c>
-      <c r="D28" s="53" t="s">
-        <v>131</v>
-      </c>
-      <c r="E28" s="59" t="s">
-        <v>94</v>
-      </c>
-      <c r="F28" s="53" t="s">
-        <v>132</v>
-      </c>
-      <c r="G28" s="53"/>
-    </row>
-    <row r="29" spans="1:7" ht="48">
-      <c r="A29" s="52" t="s">
-        <v>120</v>
-      </c>
-      <c r="B29" s="56" t="s">
-        <v>121</v>
-      </c>
-      <c r="C29" s="50" t="b">
+      <c r="D31" s="64" t="s">
+        <v>127</v>
+      </c>
+      <c r="E31" s="75" t="s">
+        <v>190</v>
+      </c>
+      <c r="F31" s="47" t="s">
+        <v>191</v>
+      </c>
+      <c r="G31" s="64"/>
+    </row>
+    <row r="32" spans="1:7" ht="36">
+      <c r="A32" s="53" t="s">
+        <v>175</v>
+      </c>
+      <c r="B32" s="64" t="s">
+        <v>176</v>
+      </c>
+      <c r="C32" s="49" t="b">
         <v>0</v>
       </c>
-      <c r="D29" s="56" t="s">
-        <v>122</v>
-      </c>
-      <c r="E29" s="59" t="s">
-        <v>123</v>
-      </c>
-      <c r="F29" s="56" t="s">
-        <v>124</v>
-      </c>
-      <c r="G29" s="56"/>
-    </row>
-    <row r="30" spans="1:7" ht="25.5">
-      <c r="A30" s="37" t="s">
-        <v>23</v>
-      </c>
-      <c r="B30" s="44" t="s">
-        <v>24</v>
-      </c>
-      <c r="C30" s="38" t="b">
+      <c r="D32" s="65" t="s">
+        <v>177</v>
+      </c>
+      <c r="E32" s="73" t="s">
+        <v>178</v>
+      </c>
+      <c r="F32" s="47" t="s">
+        <v>179</v>
+      </c>
+      <c r="G32" s="64"/>
+    </row>
+    <row r="33" spans="1:256" ht="60">
+      <c r="A33" s="53" t="s">
+        <v>180</v>
+      </c>
+      <c r="B33" s="64" t="s">
+        <v>181</v>
+      </c>
+      <c r="C33" s="49" t="b">
         <v>0</v>
       </c>
-      <c r="D30" s="44" t="s">
-        <v>25</v>
-      </c>
-      <c r="E30" s="44" t="s">
-        <v>26</v>
-      </c>
-      <c r="F30" s="39" t="s">
-        <v>27</v>
-      </c>
-      <c r="G30" s="39" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" ht="60">
-      <c r="A31" s="54" t="s">
-        <v>133</v>
-      </c>
-      <c r="B31" s="55" t="s">
-        <v>134</v>
-      </c>
-      <c r="C31" s="50" t="b">
-        <v>0</v>
-      </c>
-      <c r="D31" s="57" t="s">
-        <v>135</v>
-      </c>
-      <c r="E31" s="49" t="s">
-        <v>136</v>
-      </c>
-      <c r="F31" s="55" t="s">
-        <v>137</v>
-      </c>
-      <c r="G31" s="55"/>
-    </row>
-    <row r="32" spans="1:7" ht="24">
-      <c r="A32" s="40" t="s">
-        <v>87</v>
-      </c>
-      <c r="B32" s="42" t="s">
-        <v>88</v>
-      </c>
-      <c r="C32" s="38" t="b">
-        <v>0</v>
-      </c>
-      <c r="D32" s="38"/>
-      <c r="E32" s="62" t="s">
-        <v>89</v>
-      </c>
-      <c r="F32" s="42"/>
-      <c r="G32" s="42"/>
-    </row>
-    <row r="33" spans="1:7" ht="24">
-      <c r="A33" s="43" t="s">
-        <v>101</v>
-      </c>
-      <c r="B33" s="41" t="s">
-        <v>102</v>
-      </c>
-      <c r="C33" s="48" t="b">
-        <v>0</v>
-      </c>
-      <c r="D33" s="41"/>
-      <c r="E33" s="60" t="s">
-        <v>103</v>
-      </c>
-      <c r="F33" s="41"/>
-      <c r="G33" s="41"/>
-    </row>
-    <row r="34" spans="1:7" ht="12">
+      <c r="D33" s="64" t="s">
+        <v>127</v>
+      </c>
+      <c r="E33" s="76" t="s">
+        <v>182</v>
+      </c>
+      <c r="F33" s="47" t="s">
+        <v>183</v>
+      </c>
+      <c r="G33" s="64"/>
+    </row>
+    <row r="34" spans="1:256" ht="12">
       <c r="A34" s="40" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="B34" s="42" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="C34" s="38" t="b">
         <v>0</v>
       </c>
-      <c r="D34" s="58"/>
-      <c r="E34" s="61" t="s">
-        <v>86</v>
+      <c r="D34" s="57"/>
+      <c r="E34" s="59" t="s">
+        <v>74</v>
       </c>
       <c r="F34" s="42"/>
       <c r="G34" s="42"/>
     </row>
-    <row r="35" spans="1:7" ht="60">
-      <c r="A35" s="54" t="s">
+    <row r="35" spans="1:256" ht="60">
+      <c r="A35" s="53" t="s">
+        <v>196</v>
+      </c>
+      <c r="B35" s="64" t="s">
+        <v>197</v>
+      </c>
+      <c r="C35" s="49" t="b">
+        <v>0</v>
+      </c>
+      <c r="D35" s="65" t="s">
+        <v>127</v>
+      </c>
+      <c r="E35" s="71"/>
+      <c r="F35" s="65"/>
+      <c r="G35" s="64"/>
+    </row>
+    <row r="36" spans="1:256" s="69" customFormat="1" ht="12">
+      <c r="A36" s="43" t="s">
+        <v>95</v>
+      </c>
+      <c r="B36" s="41" t="s">
+        <v>96</v>
+      </c>
+      <c r="C36" s="48" t="b">
+        <v>0</v>
+      </c>
+      <c r="D36" s="48"/>
+      <c r="E36" s="41" t="s">
+        <v>97</v>
+      </c>
+      <c r="F36" s="48"/>
+      <c r="G36" s="41"/>
+      <c r="H36" s="68"/>
+      <c r="I36" s="68"/>
+      <c r="J36" s="68"/>
+      <c r="K36" s="68"/>
+      <c r="L36" s="68"/>
+      <c r="M36" s="68"/>
+      <c r="N36" s="68"/>
+      <c r="O36" s="68"/>
+      <c r="P36" s="68"/>
+      <c r="Q36" s="68"/>
+      <c r="R36" s="68"/>
+      <c r="S36" s="68"/>
+      <c r="T36" s="68"/>
+      <c r="U36" s="68"/>
+      <c r="V36" s="68"/>
+      <c r="W36" s="68"/>
+      <c r="X36" s="68"/>
+      <c r="Y36" s="68"/>
+      <c r="Z36" s="68"/>
+      <c r="AA36" s="68"/>
+      <c r="AB36" s="68"/>
+      <c r="AC36" s="68"/>
+      <c r="AD36" s="68"/>
+      <c r="AE36" s="68"/>
+      <c r="AF36" s="68"/>
+      <c r="AG36" s="68"/>
+      <c r="AH36" s="68"/>
+      <c r="AI36" s="68"/>
+      <c r="AJ36" s="68"/>
+      <c r="AK36" s="68"/>
+      <c r="AL36" s="68"/>
+      <c r="AM36" s="68"/>
+      <c r="AN36" s="68"/>
+      <c r="AO36" s="68"/>
+      <c r="AP36" s="68"/>
+      <c r="AQ36" s="68"/>
+      <c r="AR36" s="68"/>
+      <c r="AS36" s="68"/>
+      <c r="AT36" s="68"/>
+      <c r="AU36" s="68"/>
+      <c r="AV36" s="68"/>
+      <c r="AW36" s="68"/>
+      <c r="AX36" s="68"/>
+      <c r="AY36" s="68"/>
+      <c r="AZ36" s="68"/>
+      <c r="BA36" s="68"/>
+      <c r="BB36" s="68"/>
+      <c r="BC36" s="68"/>
+      <c r="BD36" s="68"/>
+      <c r="BE36" s="68"/>
+      <c r="BF36" s="68"/>
+      <c r="BG36" s="68"/>
+      <c r="BH36" s="68"/>
+      <c r="BI36" s="68"/>
+      <c r="BJ36" s="68"/>
+      <c r="BK36" s="68"/>
+      <c r="BL36" s="68"/>
+      <c r="BM36" s="68"/>
+      <c r="BN36" s="68"/>
+      <c r="BO36" s="68"/>
+      <c r="BP36" s="68"/>
+      <c r="BQ36" s="68"/>
+      <c r="BR36" s="68"/>
+      <c r="BS36" s="68"/>
+      <c r="BT36" s="68"/>
+      <c r="BU36" s="68"/>
+      <c r="BV36" s="68"/>
+      <c r="BW36" s="68"/>
+      <c r="BX36" s="68"/>
+      <c r="BY36" s="68"/>
+      <c r="BZ36" s="68"/>
+      <c r="CA36" s="68"/>
+      <c r="CB36" s="68"/>
+      <c r="CC36" s="68"/>
+      <c r="CD36" s="68"/>
+      <c r="CE36" s="68"/>
+      <c r="CF36" s="68"/>
+      <c r="CG36" s="68"/>
+      <c r="CH36" s="68"/>
+      <c r="CI36" s="68"/>
+      <c r="CJ36" s="68"/>
+      <c r="CK36" s="68"/>
+      <c r="CL36" s="68"/>
+      <c r="CM36" s="68"/>
+      <c r="CN36" s="68"/>
+      <c r="CO36" s="68"/>
+      <c r="CP36" s="68"/>
+      <c r="CQ36" s="68"/>
+      <c r="CR36" s="68"/>
+      <c r="CS36" s="68"/>
+      <c r="CT36" s="68"/>
+      <c r="CU36" s="68"/>
+      <c r="CV36" s="68"/>
+      <c r="CW36" s="68"/>
+      <c r="CX36" s="68"/>
+      <c r="CY36" s="68"/>
+      <c r="CZ36" s="68"/>
+      <c r="DA36" s="68"/>
+      <c r="DB36" s="68"/>
+      <c r="DC36" s="68"/>
+      <c r="DD36" s="68"/>
+      <c r="DE36" s="68"/>
+      <c r="DF36" s="68"/>
+      <c r="DG36" s="68"/>
+      <c r="DH36" s="68"/>
+      <c r="DI36" s="68"/>
+      <c r="DJ36" s="68"/>
+      <c r="DK36" s="68"/>
+      <c r="DL36" s="68"/>
+      <c r="DM36" s="68"/>
+      <c r="DN36" s="68"/>
+      <c r="DO36" s="68"/>
+      <c r="DP36" s="68"/>
+      <c r="DQ36" s="68"/>
+      <c r="DR36" s="68"/>
+      <c r="DS36" s="68"/>
+      <c r="DT36" s="68"/>
+      <c r="DU36" s="68"/>
+      <c r="DV36" s="68"/>
+      <c r="DW36" s="68"/>
+      <c r="DX36" s="68"/>
+      <c r="DY36" s="68"/>
+      <c r="DZ36" s="68"/>
+      <c r="EA36" s="68"/>
+      <c r="EB36" s="68"/>
+      <c r="EC36" s="68"/>
+      <c r="ED36" s="68"/>
+      <c r="EE36" s="68"/>
+      <c r="EF36" s="68"/>
+      <c r="EG36" s="68"/>
+      <c r="EH36" s="68"/>
+      <c r="EI36" s="68"/>
+      <c r="EJ36" s="68"/>
+      <c r="EK36" s="68"/>
+      <c r="EL36" s="68"/>
+      <c r="EM36" s="68"/>
+      <c r="EN36" s="68"/>
+      <c r="EO36" s="68"/>
+      <c r="EP36" s="68"/>
+      <c r="EQ36" s="68"/>
+      <c r="ER36" s="68"/>
+      <c r="ES36" s="68"/>
+      <c r="ET36" s="68"/>
+      <c r="EU36" s="68"/>
+      <c r="EV36" s="68"/>
+      <c r="EW36" s="68"/>
+      <c r="EX36" s="68"/>
+      <c r="EY36" s="68"/>
+      <c r="EZ36" s="68"/>
+      <c r="FA36" s="68"/>
+      <c r="FB36" s="68"/>
+      <c r="FC36" s="68"/>
+      <c r="FD36" s="68"/>
+      <c r="FE36" s="68"/>
+      <c r="FF36" s="68"/>
+      <c r="FG36" s="68"/>
+      <c r="FH36" s="68"/>
+      <c r="FI36" s="68"/>
+      <c r="FJ36" s="68"/>
+      <c r="FK36" s="68"/>
+      <c r="FL36" s="68"/>
+      <c r="FM36" s="68"/>
+      <c r="FN36" s="68"/>
+      <c r="FO36" s="68"/>
+      <c r="FP36" s="68"/>
+      <c r="FQ36" s="68"/>
+      <c r="FR36" s="68"/>
+      <c r="FS36" s="68"/>
+      <c r="FT36" s="68"/>
+      <c r="FU36" s="68"/>
+      <c r="FV36" s="68"/>
+      <c r="FW36" s="68"/>
+      <c r="FX36" s="68"/>
+      <c r="FY36" s="68"/>
+      <c r="FZ36" s="68"/>
+      <c r="GA36" s="68"/>
+      <c r="GB36" s="68"/>
+      <c r="GC36" s="68"/>
+      <c r="GD36" s="68"/>
+      <c r="GE36" s="68"/>
+      <c r="GF36" s="68"/>
+      <c r="GG36" s="68"/>
+      <c r="GH36" s="68"/>
+      <c r="GI36" s="68"/>
+      <c r="GJ36" s="68"/>
+      <c r="GK36" s="68"/>
+      <c r="GL36" s="68"/>
+      <c r="GM36" s="68"/>
+      <c r="GN36" s="68"/>
+      <c r="GO36" s="68"/>
+      <c r="GP36" s="68"/>
+      <c r="GQ36" s="68"/>
+      <c r="GR36" s="68"/>
+      <c r="GS36" s="68"/>
+      <c r="GT36" s="68"/>
+      <c r="GU36" s="68"/>
+      <c r="GV36" s="68"/>
+      <c r="GW36" s="68"/>
+      <c r="GX36" s="68"/>
+      <c r="GY36" s="68"/>
+      <c r="GZ36" s="68"/>
+      <c r="HA36" s="68"/>
+      <c r="HB36" s="68"/>
+      <c r="HC36" s="68"/>
+      <c r="HD36" s="68"/>
+      <c r="HE36" s="68"/>
+      <c r="HF36" s="68"/>
+      <c r="HG36" s="68"/>
+      <c r="HH36" s="68"/>
+      <c r="HI36" s="68"/>
+      <c r="HJ36" s="68"/>
+      <c r="HK36" s="68"/>
+      <c r="HL36" s="68"/>
+      <c r="HM36" s="68"/>
+      <c r="HN36" s="68"/>
+      <c r="HO36" s="68"/>
+      <c r="HP36" s="68"/>
+      <c r="HQ36" s="68"/>
+      <c r="HR36" s="68"/>
+      <c r="HS36" s="68"/>
+      <c r="HT36" s="68"/>
+      <c r="HU36" s="68"/>
+      <c r="HV36" s="68"/>
+      <c r="HW36" s="68"/>
+      <c r="HX36" s="68"/>
+      <c r="HY36" s="68"/>
+      <c r="HZ36" s="68"/>
+      <c r="IA36" s="68"/>
+      <c r="IB36" s="68"/>
+      <c r="IC36" s="68"/>
+      <c r="ID36" s="68"/>
+      <c r="IE36" s="68"/>
+      <c r="IF36" s="68"/>
+      <c r="IG36" s="68"/>
+      <c r="IH36" s="68"/>
+      <c r="II36" s="68"/>
+      <c r="IJ36" s="68"/>
+      <c r="IK36" s="68"/>
+      <c r="IL36" s="68"/>
+      <c r="IM36" s="68"/>
+      <c r="IN36" s="68"/>
+      <c r="IO36" s="68"/>
+      <c r="IP36" s="68"/>
+      <c r="IQ36" s="68"/>
+      <c r="IR36" s="68"/>
+      <c r="IS36" s="68"/>
+      <c r="IT36" s="68"/>
+      <c r="IU36" s="68"/>
+      <c r="IV36" s="68"/>
+    </row>
+    <row r="37" spans="1:256" s="69" customFormat="1" ht="36">
+      <c r="A37" s="40" t="s">
+        <v>58</v>
+      </c>
+      <c r="B37" s="42" t="s">
+        <v>59</v>
+      </c>
+      <c r="C37" s="38" t="b">
+        <v>0</v>
+      </c>
+      <c r="D37" s="38" t="s">
+        <v>60</v>
+      </c>
+      <c r="E37" s="42" t="s">
+        <v>61</v>
+      </c>
+      <c r="F37" s="38" t="s">
+        <v>62</v>
+      </c>
+      <c r="G37" s="42" t="s">
+        <v>63</v>
+      </c>
+      <c r="H37" s="68"/>
+      <c r="I37" s="68"/>
+      <c r="J37" s="68"/>
+      <c r="K37" s="68"/>
+      <c r="L37" s="68"/>
+      <c r="M37" s="68"/>
+      <c r="N37" s="68"/>
+      <c r="O37" s="68"/>
+      <c r="P37" s="68"/>
+      <c r="Q37" s="68"/>
+      <c r="R37" s="68"/>
+      <c r="S37" s="68"/>
+      <c r="T37" s="68"/>
+      <c r="U37" s="68"/>
+      <c r="V37" s="68"/>
+      <c r="W37" s="68"/>
+      <c r="X37" s="68"/>
+      <c r="Y37" s="68"/>
+      <c r="Z37" s="68"/>
+      <c r="AA37" s="68"/>
+      <c r="AB37" s="68"/>
+      <c r="AC37" s="68"/>
+      <c r="AD37" s="68"/>
+      <c r="AE37" s="68"/>
+      <c r="AF37" s="68"/>
+      <c r="AG37" s="68"/>
+      <c r="AH37" s="68"/>
+      <c r="AI37" s="68"/>
+      <c r="AJ37" s="68"/>
+      <c r="AK37" s="68"/>
+      <c r="AL37" s="68"/>
+      <c r="AM37" s="68"/>
+      <c r="AN37" s="68"/>
+      <c r="AO37" s="68"/>
+      <c r="AP37" s="68"/>
+      <c r="AQ37" s="68"/>
+      <c r="AR37" s="68"/>
+      <c r="AS37" s="68"/>
+      <c r="AT37" s="68"/>
+      <c r="AU37" s="68"/>
+      <c r="AV37" s="68"/>
+      <c r="AW37" s="68"/>
+      <c r="AX37" s="68"/>
+      <c r="AY37" s="68"/>
+      <c r="AZ37" s="68"/>
+      <c r="BA37" s="68"/>
+      <c r="BB37" s="68"/>
+      <c r="BC37" s="68"/>
+      <c r="BD37" s="68"/>
+      <c r="BE37" s="68"/>
+      <c r="BF37" s="68"/>
+      <c r="BG37" s="68"/>
+      <c r="BH37" s="68"/>
+      <c r="BI37" s="68"/>
+      <c r="BJ37" s="68"/>
+      <c r="BK37" s="68"/>
+      <c r="BL37" s="68"/>
+      <c r="BM37" s="68"/>
+      <c r="BN37" s="68"/>
+      <c r="BO37" s="68"/>
+      <c r="BP37" s="68"/>
+      <c r="BQ37" s="68"/>
+      <c r="BR37" s="68"/>
+      <c r="BS37" s="68"/>
+      <c r="BT37" s="68"/>
+      <c r="BU37" s="68"/>
+      <c r="BV37" s="68"/>
+      <c r="BW37" s="68"/>
+      <c r="BX37" s="68"/>
+      <c r="BY37" s="68"/>
+      <c r="BZ37" s="68"/>
+      <c r="CA37" s="68"/>
+      <c r="CB37" s="68"/>
+      <c r="CC37" s="68"/>
+      <c r="CD37" s="68"/>
+      <c r="CE37" s="68"/>
+      <c r="CF37" s="68"/>
+      <c r="CG37" s="68"/>
+      <c r="CH37" s="68"/>
+      <c r="CI37" s="68"/>
+      <c r="CJ37" s="68"/>
+      <c r="CK37" s="68"/>
+      <c r="CL37" s="68"/>
+      <c r="CM37" s="68"/>
+      <c r="CN37" s="68"/>
+      <c r="CO37" s="68"/>
+      <c r="CP37" s="68"/>
+      <c r="CQ37" s="68"/>
+      <c r="CR37" s="68"/>
+      <c r="CS37" s="68"/>
+      <c r="CT37" s="68"/>
+      <c r="CU37" s="68"/>
+      <c r="CV37" s="68"/>
+      <c r="CW37" s="68"/>
+      <c r="CX37" s="68"/>
+      <c r="CY37" s="68"/>
+      <c r="CZ37" s="68"/>
+      <c r="DA37" s="68"/>
+      <c r="DB37" s="68"/>
+      <c r="DC37" s="68"/>
+      <c r="DD37" s="68"/>
+      <c r="DE37" s="68"/>
+      <c r="DF37" s="68"/>
+      <c r="DG37" s="68"/>
+      <c r="DH37" s="68"/>
+      <c r="DI37" s="68"/>
+      <c r="DJ37" s="68"/>
+      <c r="DK37" s="68"/>
+      <c r="DL37" s="68"/>
+      <c r="DM37" s="68"/>
+      <c r="DN37" s="68"/>
+      <c r="DO37" s="68"/>
+      <c r="DP37" s="68"/>
+      <c r="DQ37" s="68"/>
+      <c r="DR37" s="68"/>
+      <c r="DS37" s="68"/>
+      <c r="DT37" s="68"/>
+      <c r="DU37" s="68"/>
+      <c r="DV37" s="68"/>
+      <c r="DW37" s="68"/>
+      <c r="DX37" s="68"/>
+      <c r="DY37" s="68"/>
+      <c r="DZ37" s="68"/>
+      <c r="EA37" s="68"/>
+      <c r="EB37" s="68"/>
+      <c r="EC37" s="68"/>
+      <c r="ED37" s="68"/>
+      <c r="EE37" s="68"/>
+      <c r="EF37" s="68"/>
+      <c r="EG37" s="68"/>
+      <c r="EH37" s="68"/>
+      <c r="EI37" s="68"/>
+      <c r="EJ37" s="68"/>
+      <c r="EK37" s="68"/>
+      <c r="EL37" s="68"/>
+      <c r="EM37" s="68"/>
+      <c r="EN37" s="68"/>
+      <c r="EO37" s="68"/>
+      <c r="EP37" s="68"/>
+      <c r="EQ37" s="68"/>
+      <c r="ER37" s="68"/>
+      <c r="ES37" s="68"/>
+      <c r="ET37" s="68"/>
+      <c r="EU37" s="68"/>
+      <c r="EV37" s="68"/>
+      <c r="EW37" s="68"/>
+      <c r="EX37" s="68"/>
+      <c r="EY37" s="68"/>
+      <c r="EZ37" s="68"/>
+      <c r="FA37" s="68"/>
+      <c r="FB37" s="68"/>
+      <c r="FC37" s="68"/>
+      <c r="FD37" s="68"/>
+      <c r="FE37" s="68"/>
+      <c r="FF37" s="68"/>
+      <c r="FG37" s="68"/>
+      <c r="FH37" s="68"/>
+      <c r="FI37" s="68"/>
+      <c r="FJ37" s="68"/>
+      <c r="FK37" s="68"/>
+      <c r="FL37" s="68"/>
+      <c r="FM37" s="68"/>
+      <c r="FN37" s="68"/>
+      <c r="FO37" s="68"/>
+      <c r="FP37" s="68"/>
+      <c r="FQ37" s="68"/>
+      <c r="FR37" s="68"/>
+      <c r="FS37" s="68"/>
+      <c r="FT37" s="68"/>
+      <c r="FU37" s="68"/>
+      <c r="FV37" s="68"/>
+      <c r="FW37" s="68"/>
+      <c r="FX37" s="68"/>
+      <c r="FY37" s="68"/>
+      <c r="FZ37" s="68"/>
+      <c r="GA37" s="68"/>
+      <c r="GB37" s="68"/>
+      <c r="GC37" s="68"/>
+      <c r="GD37" s="68"/>
+      <c r="GE37" s="68"/>
+      <c r="GF37" s="68"/>
+      <c r="GG37" s="68"/>
+      <c r="GH37" s="68"/>
+      <c r="GI37" s="68"/>
+      <c r="GJ37" s="68"/>
+      <c r="GK37" s="68"/>
+      <c r="GL37" s="68"/>
+      <c r="GM37" s="68"/>
+      <c r="GN37" s="68"/>
+      <c r="GO37" s="68"/>
+      <c r="GP37" s="68"/>
+      <c r="GQ37" s="68"/>
+      <c r="GR37" s="68"/>
+      <c r="GS37" s="68"/>
+      <c r="GT37" s="68"/>
+      <c r="GU37" s="68"/>
+      <c r="GV37" s="68"/>
+      <c r="GW37" s="68"/>
+      <c r="GX37" s="68"/>
+      <c r="GY37" s="68"/>
+      <c r="GZ37" s="68"/>
+      <c r="HA37" s="68"/>
+      <c r="HB37" s="68"/>
+      <c r="HC37" s="68"/>
+      <c r="HD37" s="68"/>
+      <c r="HE37" s="68"/>
+      <c r="HF37" s="68"/>
+      <c r="HG37" s="68"/>
+      <c r="HH37" s="68"/>
+      <c r="HI37" s="68"/>
+      <c r="HJ37" s="68"/>
+      <c r="HK37" s="68"/>
+      <c r="HL37" s="68"/>
+      <c r="HM37" s="68"/>
+      <c r="HN37" s="68"/>
+      <c r="HO37" s="68"/>
+      <c r="HP37" s="68"/>
+      <c r="HQ37" s="68"/>
+      <c r="HR37" s="68"/>
+      <c r="HS37" s="68"/>
+      <c r="HT37" s="68"/>
+      <c r="HU37" s="68"/>
+      <c r="HV37" s="68"/>
+      <c r="HW37" s="68"/>
+      <c r="HX37" s="68"/>
+      <c r="HY37" s="68"/>
+      <c r="HZ37" s="68"/>
+      <c r="IA37" s="68"/>
+      <c r="IB37" s="68"/>
+      <c r="IC37" s="68"/>
+      <c r="ID37" s="68"/>
+      <c r="IE37" s="68"/>
+      <c r="IF37" s="68"/>
+      <c r="IG37" s="68"/>
+      <c r="IH37" s="68"/>
+      <c r="II37" s="68"/>
+      <c r="IJ37" s="68"/>
+      <c r="IK37" s="68"/>
+      <c r="IL37" s="68"/>
+      <c r="IM37" s="68"/>
+      <c r="IN37" s="68"/>
+      <c r="IO37" s="68"/>
+      <c r="IP37" s="68"/>
+      <c r="IQ37" s="68"/>
+      <c r="IR37" s="68"/>
+      <c r="IS37" s="68"/>
+      <c r="IT37" s="68"/>
+      <c r="IU37" s="68"/>
+      <c r="IV37" s="68"/>
+    </row>
+    <row r="38" spans="1:256" s="69" customFormat="1" ht="24">
+      <c r="A38" s="43" t="s">
+        <v>98</v>
+      </c>
+      <c r="B38" s="41" t="s">
+        <v>99</v>
+      </c>
+      <c r="C38" s="48" t="b">
+        <v>0</v>
+      </c>
+      <c r="D38" s="48"/>
+      <c r="E38" s="41" t="s">
+        <v>100</v>
+      </c>
+      <c r="F38" s="48"/>
+      <c r="G38" s="41"/>
+      <c r="H38" s="68"/>
+      <c r="I38" s="68"/>
+      <c r="J38" s="68"/>
+      <c r="K38" s="68"/>
+      <c r="L38" s="68"/>
+      <c r="M38" s="68"/>
+      <c r="N38" s="68"/>
+      <c r="O38" s="68"/>
+      <c r="P38" s="68"/>
+      <c r="Q38" s="68"/>
+      <c r="R38" s="68"/>
+      <c r="S38" s="68"/>
+      <c r="T38" s="68"/>
+      <c r="U38" s="68"/>
+      <c r="V38" s="68"/>
+      <c r="W38" s="68"/>
+      <c r="X38" s="68"/>
+      <c r="Y38" s="68"/>
+      <c r="Z38" s="68"/>
+      <c r="AA38" s="68"/>
+      <c r="AB38" s="68"/>
+      <c r="AC38" s="68"/>
+      <c r="AD38" s="68"/>
+      <c r="AE38" s="68"/>
+      <c r="AF38" s="68"/>
+      <c r="AG38" s="68"/>
+      <c r="AH38" s="68"/>
+      <c r="AI38" s="68"/>
+      <c r="AJ38" s="68"/>
+      <c r="AK38" s="68"/>
+      <c r="AL38" s="68"/>
+      <c r="AM38" s="68"/>
+      <c r="AN38" s="68"/>
+      <c r="AO38" s="68"/>
+      <c r="AP38" s="68"/>
+      <c r="AQ38" s="68"/>
+      <c r="AR38" s="68"/>
+      <c r="AS38" s="68"/>
+      <c r="AT38" s="68"/>
+      <c r="AU38" s="68"/>
+      <c r="AV38" s="68"/>
+      <c r="AW38" s="68"/>
+      <c r="AX38" s="68"/>
+      <c r="AY38" s="68"/>
+      <c r="AZ38" s="68"/>
+      <c r="BA38" s="68"/>
+      <c r="BB38" s="68"/>
+      <c r="BC38" s="68"/>
+      <c r="BD38" s="68"/>
+      <c r="BE38" s="68"/>
+      <c r="BF38" s="68"/>
+      <c r="BG38" s="68"/>
+      <c r="BH38" s="68"/>
+      <c r="BI38" s="68"/>
+      <c r="BJ38" s="68"/>
+      <c r="BK38" s="68"/>
+      <c r="BL38" s="68"/>
+      <c r="BM38" s="68"/>
+      <c r="BN38" s="68"/>
+      <c r="BO38" s="68"/>
+      <c r="BP38" s="68"/>
+      <c r="BQ38" s="68"/>
+      <c r="BR38" s="68"/>
+      <c r="BS38" s="68"/>
+      <c r="BT38" s="68"/>
+      <c r="BU38" s="68"/>
+      <c r="BV38" s="68"/>
+      <c r="BW38" s="68"/>
+      <c r="BX38" s="68"/>
+      <c r="BY38" s="68"/>
+      <c r="BZ38" s="68"/>
+      <c r="CA38" s="68"/>
+      <c r="CB38" s="68"/>
+      <c r="CC38" s="68"/>
+      <c r="CD38" s="68"/>
+      <c r="CE38" s="68"/>
+      <c r="CF38" s="68"/>
+      <c r="CG38" s="68"/>
+      <c r="CH38" s="68"/>
+      <c r="CI38" s="68"/>
+      <c r="CJ38" s="68"/>
+      <c r="CK38" s="68"/>
+      <c r="CL38" s="68"/>
+      <c r="CM38" s="68"/>
+      <c r="CN38" s="68"/>
+      <c r="CO38" s="68"/>
+      <c r="CP38" s="68"/>
+      <c r="CQ38" s="68"/>
+      <c r="CR38" s="68"/>
+      <c r="CS38" s="68"/>
+      <c r="CT38" s="68"/>
+      <c r="CU38" s="68"/>
+      <c r="CV38" s="68"/>
+      <c r="CW38" s="68"/>
+      <c r="CX38" s="68"/>
+      <c r="CY38" s="68"/>
+      <c r="CZ38" s="68"/>
+      <c r="DA38" s="68"/>
+      <c r="DB38" s="68"/>
+      <c r="DC38" s="68"/>
+      <c r="DD38" s="68"/>
+      <c r="DE38" s="68"/>
+      <c r="DF38" s="68"/>
+      <c r="DG38" s="68"/>
+      <c r="DH38" s="68"/>
+      <c r="DI38" s="68"/>
+      <c r="DJ38" s="68"/>
+      <c r="DK38" s="68"/>
+      <c r="DL38" s="68"/>
+      <c r="DM38" s="68"/>
+      <c r="DN38" s="68"/>
+      <c r="DO38" s="68"/>
+      <c r="DP38" s="68"/>
+      <c r="DQ38" s="68"/>
+      <c r="DR38" s="68"/>
+      <c r="DS38" s="68"/>
+      <c r="DT38" s="68"/>
+      <c r="DU38" s="68"/>
+      <c r="DV38" s="68"/>
+      <c r="DW38" s="68"/>
+      <c r="DX38" s="68"/>
+      <c r="DY38" s="68"/>
+      <c r="DZ38" s="68"/>
+      <c r="EA38" s="68"/>
+      <c r="EB38" s="68"/>
+      <c r="EC38" s="68"/>
+      <c r="ED38" s="68"/>
+      <c r="EE38" s="68"/>
+      <c r="EF38" s="68"/>
+      <c r="EG38" s="68"/>
+      <c r="EH38" s="68"/>
+      <c r="EI38" s="68"/>
+      <c r="EJ38" s="68"/>
+      <c r="EK38" s="68"/>
+      <c r="EL38" s="68"/>
+      <c r="EM38" s="68"/>
+      <c r="EN38" s="68"/>
+      <c r="EO38" s="68"/>
+      <c r="EP38" s="68"/>
+      <c r="EQ38" s="68"/>
+      <c r="ER38" s="68"/>
+      <c r="ES38" s="68"/>
+      <c r="ET38" s="68"/>
+      <c r="EU38" s="68"/>
+      <c r="EV38" s="68"/>
+      <c r="EW38" s="68"/>
+      <c r="EX38" s="68"/>
+      <c r="EY38" s="68"/>
+      <c r="EZ38" s="68"/>
+      <c r="FA38" s="68"/>
+      <c r="FB38" s="68"/>
+      <c r="FC38" s="68"/>
+      <c r="FD38" s="68"/>
+      <c r="FE38" s="68"/>
+      <c r="FF38" s="68"/>
+      <c r="FG38" s="68"/>
+      <c r="FH38" s="68"/>
+      <c r="FI38" s="68"/>
+      <c r="FJ38" s="68"/>
+      <c r="FK38" s="68"/>
+      <c r="FL38" s="68"/>
+      <c r="FM38" s="68"/>
+      <c r="FN38" s="68"/>
+      <c r="FO38" s="68"/>
+      <c r="FP38" s="68"/>
+      <c r="FQ38" s="68"/>
+      <c r="FR38" s="68"/>
+      <c r="FS38" s="68"/>
+      <c r="FT38" s="68"/>
+      <c r="FU38" s="68"/>
+      <c r="FV38" s="68"/>
+      <c r="FW38" s="68"/>
+      <c r="FX38" s="68"/>
+      <c r="FY38" s="68"/>
+      <c r="FZ38" s="68"/>
+      <c r="GA38" s="68"/>
+      <c r="GB38" s="68"/>
+      <c r="GC38" s="68"/>
+      <c r="GD38" s="68"/>
+      <c r="GE38" s="68"/>
+      <c r="GF38" s="68"/>
+      <c r="GG38" s="68"/>
+      <c r="GH38" s="68"/>
+      <c r="GI38" s="68"/>
+      <c r="GJ38" s="68"/>
+      <c r="GK38" s="68"/>
+      <c r="GL38" s="68"/>
+      <c r="GM38" s="68"/>
+      <c r="GN38" s="68"/>
+      <c r="GO38" s="68"/>
+      <c r="GP38" s="68"/>
+      <c r="GQ38" s="68"/>
+      <c r="GR38" s="68"/>
+      <c r="GS38" s="68"/>
+      <c r="GT38" s="68"/>
+      <c r="GU38" s="68"/>
+      <c r="GV38" s="68"/>
+      <c r="GW38" s="68"/>
+      <c r="GX38" s="68"/>
+      <c r="GY38" s="68"/>
+      <c r="GZ38" s="68"/>
+      <c r="HA38" s="68"/>
+      <c r="HB38" s="68"/>
+      <c r="HC38" s="68"/>
+      <c r="HD38" s="68"/>
+      <c r="HE38" s="68"/>
+      <c r="HF38" s="68"/>
+      <c r="HG38" s="68"/>
+      <c r="HH38" s="68"/>
+      <c r="HI38" s="68"/>
+      <c r="HJ38" s="68"/>
+      <c r="HK38" s="68"/>
+      <c r="HL38" s="68"/>
+      <c r="HM38" s="68"/>
+      <c r="HN38" s="68"/>
+      <c r="HO38" s="68"/>
+      <c r="HP38" s="68"/>
+      <c r="HQ38" s="68"/>
+      <c r="HR38" s="68"/>
+      <c r="HS38" s="68"/>
+      <c r="HT38" s="68"/>
+      <c r="HU38" s="68"/>
+      <c r="HV38" s="68"/>
+      <c r="HW38" s="68"/>
+      <c r="HX38" s="68"/>
+      <c r="HY38" s="68"/>
+      <c r="HZ38" s="68"/>
+      <c r="IA38" s="68"/>
+      <c r="IB38" s="68"/>
+      <c r="IC38" s="68"/>
+      <c r="ID38" s="68"/>
+      <c r="IE38" s="68"/>
+      <c r="IF38" s="68"/>
+      <c r="IG38" s="68"/>
+      <c r="IH38" s="68"/>
+      <c r="II38" s="68"/>
+      <c r="IJ38" s="68"/>
+      <c r="IK38" s="68"/>
+      <c r="IL38" s="68"/>
+      <c r="IM38" s="68"/>
+      <c r="IN38" s="68"/>
+      <c r="IO38" s="68"/>
+      <c r="IP38" s="68"/>
+      <c r="IQ38" s="68"/>
+      <c r="IR38" s="68"/>
+      <c r="IS38" s="68"/>
+      <c r="IT38" s="68"/>
+      <c r="IU38" s="68"/>
+      <c r="IV38" s="68"/>
+    </row>
+    <row r="39" spans="1:256" s="69" customFormat="1" ht="12">
+      <c r="A39" s="40" t="s">
+        <v>69</v>
+      </c>
+      <c r="B39" s="42" t="s">
+        <v>70</v>
+      </c>
+      <c r="C39" s="38" t="b">
+        <v>0</v>
+      </c>
+      <c r="D39" s="42"/>
+      <c r="E39" s="42" t="s">
+        <v>71</v>
+      </c>
+      <c r="F39" s="38"/>
+      <c r="G39" s="42"/>
+      <c r="H39" s="68"/>
+      <c r="I39" s="68"/>
+      <c r="J39" s="68"/>
+      <c r="K39" s="68"/>
+      <c r="L39" s="68"/>
+      <c r="M39" s="68"/>
+      <c r="N39" s="68"/>
+      <c r="O39" s="68"/>
+      <c r="P39" s="68"/>
+      <c r="Q39" s="68"/>
+      <c r="R39" s="68"/>
+      <c r="S39" s="68"/>
+      <c r="T39" s="68"/>
+      <c r="U39" s="68"/>
+      <c r="V39" s="68"/>
+      <c r="W39" s="68"/>
+      <c r="X39" s="68"/>
+      <c r="Y39" s="68"/>
+      <c r="Z39" s="68"/>
+      <c r="AA39" s="68"/>
+      <c r="AB39" s="68"/>
+      <c r="AC39" s="68"/>
+      <c r="AD39" s="68"/>
+      <c r="AE39" s="68"/>
+      <c r="AF39" s="68"/>
+      <c r="AG39" s="68"/>
+      <c r="AH39" s="68"/>
+      <c r="AI39" s="68"/>
+      <c r="AJ39" s="68"/>
+      <c r="AK39" s="68"/>
+      <c r="AL39" s="68"/>
+      <c r="AM39" s="68"/>
+      <c r="AN39" s="68"/>
+      <c r="AO39" s="68"/>
+      <c r="AP39" s="68"/>
+      <c r="AQ39" s="68"/>
+      <c r="AR39" s="68"/>
+      <c r="AS39" s="68"/>
+      <c r="AT39" s="68"/>
+      <c r="AU39" s="68"/>
+      <c r="AV39" s="68"/>
+      <c r="AW39" s="68"/>
+      <c r="AX39" s="68"/>
+      <c r="AY39" s="68"/>
+      <c r="AZ39" s="68"/>
+      <c r="BA39" s="68"/>
+      <c r="BB39" s="68"/>
+      <c r="BC39" s="68"/>
+      <c r="BD39" s="68"/>
+      <c r="BE39" s="68"/>
+      <c r="BF39" s="68"/>
+      <c r="BG39" s="68"/>
+      <c r="BH39" s="68"/>
+      <c r="BI39" s="68"/>
+      <c r="BJ39" s="68"/>
+      <c r="BK39" s="68"/>
+      <c r="BL39" s="68"/>
+      <c r="BM39" s="68"/>
+      <c r="BN39" s="68"/>
+      <c r="BO39" s="68"/>
+      <c r="BP39" s="68"/>
+      <c r="BQ39" s="68"/>
+      <c r="BR39" s="68"/>
+      <c r="BS39" s="68"/>
+      <c r="BT39" s="68"/>
+      <c r="BU39" s="68"/>
+      <c r="BV39" s="68"/>
+      <c r="BW39" s="68"/>
+      <c r="BX39" s="68"/>
+      <c r="BY39" s="68"/>
+      <c r="BZ39" s="68"/>
+      <c r="CA39" s="68"/>
+      <c r="CB39" s="68"/>
+      <c r="CC39" s="68"/>
+      <c r="CD39" s="68"/>
+      <c r="CE39" s="68"/>
+      <c r="CF39" s="68"/>
+      <c r="CG39" s="68"/>
+      <c r="CH39" s="68"/>
+      <c r="CI39" s="68"/>
+      <c r="CJ39" s="68"/>
+      <c r="CK39" s="68"/>
+      <c r="CL39" s="68"/>
+      <c r="CM39" s="68"/>
+      <c r="CN39" s="68"/>
+      <c r="CO39" s="68"/>
+      <c r="CP39" s="68"/>
+      <c r="CQ39" s="68"/>
+      <c r="CR39" s="68"/>
+      <c r="CS39" s="68"/>
+      <c r="CT39" s="68"/>
+      <c r="CU39" s="68"/>
+      <c r="CV39" s="68"/>
+      <c r="CW39" s="68"/>
+      <c r="CX39" s="68"/>
+      <c r="CY39" s="68"/>
+      <c r="CZ39" s="68"/>
+      <c r="DA39" s="68"/>
+      <c r="DB39" s="68"/>
+      <c r="DC39" s="68"/>
+      <c r="DD39" s="68"/>
+      <c r="DE39" s="68"/>
+      <c r="DF39" s="68"/>
+      <c r="DG39" s="68"/>
+      <c r="DH39" s="68"/>
+      <c r="DI39" s="68"/>
+      <c r="DJ39" s="68"/>
+      <c r="DK39" s="68"/>
+      <c r="DL39" s="68"/>
+      <c r="DM39" s="68"/>
+      <c r="DN39" s="68"/>
+      <c r="DO39" s="68"/>
+      <c r="DP39" s="68"/>
+      <c r="DQ39" s="68"/>
+      <c r="DR39" s="68"/>
+      <c r="DS39" s="68"/>
+      <c r="DT39" s="68"/>
+      <c r="DU39" s="68"/>
+      <c r="DV39" s="68"/>
+      <c r="DW39" s="68"/>
+      <c r="DX39" s="68"/>
+      <c r="DY39" s="68"/>
+      <c r="DZ39" s="68"/>
+      <c r="EA39" s="68"/>
+      <c r="EB39" s="68"/>
+      <c r="EC39" s="68"/>
+      <c r="ED39" s="68"/>
+      <c r="EE39" s="68"/>
+      <c r="EF39" s="68"/>
+      <c r="EG39" s="68"/>
+      <c r="EH39" s="68"/>
+      <c r="EI39" s="68"/>
+      <c r="EJ39" s="68"/>
+      <c r="EK39" s="68"/>
+      <c r="EL39" s="68"/>
+      <c r="EM39" s="68"/>
+      <c r="EN39" s="68"/>
+      <c r="EO39" s="68"/>
+      <c r="EP39" s="68"/>
+      <c r="EQ39" s="68"/>
+      <c r="ER39" s="68"/>
+      <c r="ES39" s="68"/>
+      <c r="ET39" s="68"/>
+      <c r="EU39" s="68"/>
+      <c r="EV39" s="68"/>
+      <c r="EW39" s="68"/>
+      <c r="EX39" s="68"/>
+      <c r="EY39" s="68"/>
+      <c r="EZ39" s="68"/>
+      <c r="FA39" s="68"/>
+      <c r="FB39" s="68"/>
+      <c r="FC39" s="68"/>
+      <c r="FD39" s="68"/>
+      <c r="FE39" s="68"/>
+      <c r="FF39" s="68"/>
+      <c r="FG39" s="68"/>
+      <c r="FH39" s="68"/>
+      <c r="FI39" s="68"/>
+      <c r="FJ39" s="68"/>
+      <c r="FK39" s="68"/>
+      <c r="FL39" s="68"/>
+      <c r="FM39" s="68"/>
+      <c r="FN39" s="68"/>
+      <c r="FO39" s="68"/>
+      <c r="FP39" s="68"/>
+      <c r="FQ39" s="68"/>
+      <c r="FR39" s="68"/>
+      <c r="FS39" s="68"/>
+      <c r="FT39" s="68"/>
+      <c r="FU39" s="68"/>
+      <c r="FV39" s="68"/>
+      <c r="FW39" s="68"/>
+      <c r="FX39" s="68"/>
+      <c r="FY39" s="68"/>
+      <c r="FZ39" s="68"/>
+      <c r="GA39" s="68"/>
+      <c r="GB39" s="68"/>
+      <c r="GC39" s="68"/>
+      <c r="GD39" s="68"/>
+      <c r="GE39" s="68"/>
+      <c r="GF39" s="68"/>
+      <c r="GG39" s="68"/>
+      <c r="GH39" s="68"/>
+      <c r="GI39" s="68"/>
+      <c r="GJ39" s="68"/>
+      <c r="GK39" s="68"/>
+      <c r="GL39" s="68"/>
+      <c r="GM39" s="68"/>
+      <c r="GN39" s="68"/>
+      <c r="GO39" s="68"/>
+      <c r="GP39" s="68"/>
+      <c r="GQ39" s="68"/>
+      <c r="GR39" s="68"/>
+      <c r="GS39" s="68"/>
+      <c r="GT39" s="68"/>
+      <c r="GU39" s="68"/>
+      <c r="GV39" s="68"/>
+      <c r="GW39" s="68"/>
+      <c r="GX39" s="68"/>
+      <c r="GY39" s="68"/>
+      <c r="GZ39" s="68"/>
+      <c r="HA39" s="68"/>
+      <c r="HB39" s="68"/>
+      <c r="HC39" s="68"/>
+      <c r="HD39" s="68"/>
+      <c r="HE39" s="68"/>
+      <c r="HF39" s="68"/>
+      <c r="HG39" s="68"/>
+      <c r="HH39" s="68"/>
+      <c r="HI39" s="68"/>
+      <c r="HJ39" s="68"/>
+      <c r="HK39" s="68"/>
+      <c r="HL39" s="68"/>
+      <c r="HM39" s="68"/>
+      <c r="HN39" s="68"/>
+      <c r="HO39" s="68"/>
+      <c r="HP39" s="68"/>
+      <c r="HQ39" s="68"/>
+      <c r="HR39" s="68"/>
+      <c r="HS39" s="68"/>
+      <c r="HT39" s="68"/>
+      <c r="HU39" s="68"/>
+      <c r="HV39" s="68"/>
+      <c r="HW39" s="68"/>
+      <c r="HX39" s="68"/>
+      <c r="HY39" s="68"/>
+      <c r="HZ39" s="68"/>
+      <c r="IA39" s="68"/>
+      <c r="IB39" s="68"/>
+      <c r="IC39" s="68"/>
+      <c r="ID39" s="68"/>
+      <c r="IE39" s="68"/>
+      <c r="IF39" s="68"/>
+      <c r="IG39" s="68"/>
+      <c r="IH39" s="68"/>
+      <c r="II39" s="68"/>
+      <c r="IJ39" s="68"/>
+      <c r="IK39" s="68"/>
+      <c r="IL39" s="68"/>
+      <c r="IM39" s="68"/>
+      <c r="IN39" s="68"/>
+      <c r="IO39" s="68"/>
+      <c r="IP39" s="68"/>
+      <c r="IQ39" s="68"/>
+      <c r="IR39" s="68"/>
+      <c r="IS39" s="68"/>
+      <c r="IT39" s="68"/>
+      <c r="IU39" s="68"/>
+      <c r="IV39" s="68"/>
+    </row>
+    <row r="40" spans="1:256" s="69" customFormat="1" ht="36">
+      <c r="A40" s="40" t="s">
+        <v>43</v>
+      </c>
+      <c r="B40" s="41" t="s">
+        <v>44</v>
+      </c>
+      <c r="C40" s="38" t="b">
+        <v>0</v>
+      </c>
+      <c r="D40" s="48" t="s">
+        <v>40</v>
+      </c>
+      <c r="E40" s="45" t="s">
+        <v>45</v>
+      </c>
+      <c r="F40" s="48"/>
+      <c r="G40" s="41"/>
+      <c r="H40" s="68"/>
+      <c r="I40" s="68"/>
+      <c r="J40" s="68"/>
+      <c r="K40" s="68"/>
+      <c r="L40" s="68"/>
+      <c r="M40" s="68"/>
+      <c r="N40" s="68"/>
+      <c r="O40" s="68"/>
+      <c r="P40" s="68"/>
+      <c r="Q40" s="68"/>
+      <c r="R40" s="68"/>
+      <c r="S40" s="68"/>
+      <c r="T40" s="68"/>
+      <c r="U40" s="68"/>
+      <c r="V40" s="68"/>
+      <c r="W40" s="68"/>
+      <c r="X40" s="68"/>
+      <c r="Y40" s="68"/>
+      <c r="Z40" s="68"/>
+      <c r="AA40" s="68"/>
+      <c r="AB40" s="68"/>
+      <c r="AC40" s="68"/>
+      <c r="AD40" s="68"/>
+      <c r="AE40" s="68"/>
+      <c r="AF40" s="68"/>
+      <c r="AG40" s="68"/>
+      <c r="AH40" s="68"/>
+      <c r="AI40" s="68"/>
+      <c r="AJ40" s="68"/>
+      <c r="AK40" s="68"/>
+      <c r="AL40" s="68"/>
+      <c r="AM40" s="68"/>
+      <c r="AN40" s="68"/>
+      <c r="AO40" s="68"/>
+      <c r="AP40" s="68"/>
+      <c r="AQ40" s="68"/>
+      <c r="AR40" s="68"/>
+      <c r="AS40" s="68"/>
+      <c r="AT40" s="68"/>
+      <c r="AU40" s="68"/>
+      <c r="AV40" s="68"/>
+      <c r="AW40" s="68"/>
+      <c r="AX40" s="68"/>
+      <c r="AY40" s="68"/>
+      <c r="AZ40" s="68"/>
+      <c r="BA40" s="68"/>
+      <c r="BB40" s="68"/>
+      <c r="BC40" s="68"/>
+      <c r="BD40" s="68"/>
+      <c r="BE40" s="68"/>
+      <c r="BF40" s="68"/>
+      <c r="BG40" s="68"/>
+      <c r="BH40" s="68"/>
+      <c r="BI40" s="68"/>
+      <c r="BJ40" s="68"/>
+      <c r="BK40" s="68"/>
+      <c r="BL40" s="68"/>
+      <c r="BM40" s="68"/>
+      <c r="BN40" s="68"/>
+      <c r="BO40" s="68"/>
+      <c r="BP40" s="68"/>
+      <c r="BQ40" s="68"/>
+      <c r="BR40" s="68"/>
+      <c r="BS40" s="68"/>
+      <c r="BT40" s="68"/>
+      <c r="BU40" s="68"/>
+      <c r="BV40" s="68"/>
+      <c r="BW40" s="68"/>
+      <c r="BX40" s="68"/>
+      <c r="BY40" s="68"/>
+      <c r="BZ40" s="68"/>
+      <c r="CA40" s="68"/>
+      <c r="CB40" s="68"/>
+      <c r="CC40" s="68"/>
+      <c r="CD40" s="68"/>
+      <c r="CE40" s="68"/>
+      <c r="CF40" s="68"/>
+      <c r="CG40" s="68"/>
+      <c r="CH40" s="68"/>
+      <c r="CI40" s="68"/>
+      <c r="CJ40" s="68"/>
+      <c r="CK40" s="68"/>
+      <c r="CL40" s="68"/>
+      <c r="CM40" s="68"/>
+      <c r="CN40" s="68"/>
+      <c r="CO40" s="68"/>
+      <c r="CP40" s="68"/>
+      <c r="CQ40" s="68"/>
+      <c r="CR40" s="68"/>
+      <c r="CS40" s="68"/>
+      <c r="CT40" s="68"/>
+      <c r="CU40" s="68"/>
+      <c r="CV40" s="68"/>
+      <c r="CW40" s="68"/>
+      <c r="CX40" s="68"/>
+      <c r="CY40" s="68"/>
+      <c r="CZ40" s="68"/>
+      <c r="DA40" s="68"/>
+      <c r="DB40" s="68"/>
+      <c r="DC40" s="68"/>
+      <c r="DD40" s="68"/>
+      <c r="DE40" s="68"/>
+      <c r="DF40" s="68"/>
+      <c r="DG40" s="68"/>
+      <c r="DH40" s="68"/>
+      <c r="DI40" s="68"/>
+      <c r="DJ40" s="68"/>
+      <c r="DK40" s="68"/>
+      <c r="DL40" s="68"/>
+      <c r="DM40" s="68"/>
+      <c r="DN40" s="68"/>
+      <c r="DO40" s="68"/>
+      <c r="DP40" s="68"/>
+      <c r="DQ40" s="68"/>
+      <c r="DR40" s="68"/>
+      <c r="DS40" s="68"/>
+      <c r="DT40" s="68"/>
+      <c r="DU40" s="68"/>
+      <c r="DV40" s="68"/>
+      <c r="DW40" s="68"/>
+      <c r="DX40" s="68"/>
+      <c r="DY40" s="68"/>
+      <c r="DZ40" s="68"/>
+      <c r="EA40" s="68"/>
+      <c r="EB40" s="68"/>
+      <c r="EC40" s="68"/>
+      <c r="ED40" s="68"/>
+      <c r="EE40" s="68"/>
+      <c r="EF40" s="68"/>
+      <c r="EG40" s="68"/>
+      <c r="EH40" s="68"/>
+      <c r="EI40" s="68"/>
+      <c r="EJ40" s="68"/>
+      <c r="EK40" s="68"/>
+      <c r="EL40" s="68"/>
+      <c r="EM40" s="68"/>
+      <c r="EN40" s="68"/>
+      <c r="EO40" s="68"/>
+      <c r="EP40" s="68"/>
+      <c r="EQ40" s="68"/>
+      <c r="ER40" s="68"/>
+      <c r="ES40" s="68"/>
+      <c r="ET40" s="68"/>
+      <c r="EU40" s="68"/>
+      <c r="EV40" s="68"/>
+      <c r="EW40" s="68"/>
+      <c r="EX40" s="68"/>
+      <c r="EY40" s="68"/>
+      <c r="EZ40" s="68"/>
+      <c r="FA40" s="68"/>
+      <c r="FB40" s="68"/>
+      <c r="FC40" s="68"/>
+      <c r="FD40" s="68"/>
+      <c r="FE40" s="68"/>
+      <c r="FF40" s="68"/>
+      <c r="FG40" s="68"/>
+      <c r="FH40" s="68"/>
+      <c r="FI40" s="68"/>
+      <c r="FJ40" s="68"/>
+      <c r="FK40" s="68"/>
+      <c r="FL40" s="68"/>
+      <c r="FM40" s="68"/>
+      <c r="FN40" s="68"/>
+      <c r="FO40" s="68"/>
+      <c r="FP40" s="68"/>
+      <c r="FQ40" s="68"/>
+      <c r="FR40" s="68"/>
+      <c r="FS40" s="68"/>
+      <c r="FT40" s="68"/>
+      <c r="FU40" s="68"/>
+      <c r="FV40" s="68"/>
+      <c r="FW40" s="68"/>
+      <c r="FX40" s="68"/>
+      <c r="FY40" s="68"/>
+      <c r="FZ40" s="68"/>
+      <c r="GA40" s="68"/>
+      <c r="GB40" s="68"/>
+      <c r="GC40" s="68"/>
+      <c r="GD40" s="68"/>
+      <c r="GE40" s="68"/>
+      <c r="GF40" s="68"/>
+      <c r="GG40" s="68"/>
+      <c r="GH40" s="68"/>
+      <c r="GI40" s="68"/>
+      <c r="GJ40" s="68"/>
+      <c r="GK40" s="68"/>
+      <c r="GL40" s="68"/>
+      <c r="GM40" s="68"/>
+      <c r="GN40" s="68"/>
+      <c r="GO40" s="68"/>
+      <c r="GP40" s="68"/>
+      <c r="GQ40" s="68"/>
+      <c r="GR40" s="68"/>
+      <c r="GS40" s="68"/>
+      <c r="GT40" s="68"/>
+      <c r="GU40" s="68"/>
+      <c r="GV40" s="68"/>
+      <c r="GW40" s="68"/>
+      <c r="GX40" s="68"/>
+      <c r="GY40" s="68"/>
+      <c r="GZ40" s="68"/>
+      <c r="HA40" s="68"/>
+      <c r="HB40" s="68"/>
+      <c r="HC40" s="68"/>
+      <c r="HD40" s="68"/>
+      <c r="HE40" s="68"/>
+      <c r="HF40" s="68"/>
+      <c r="HG40" s="68"/>
+      <c r="HH40" s="68"/>
+      <c r="HI40" s="68"/>
+      <c r="HJ40" s="68"/>
+      <c r="HK40" s="68"/>
+      <c r="HL40" s="68"/>
+      <c r="HM40" s="68"/>
+      <c r="HN40" s="68"/>
+      <c r="HO40" s="68"/>
+      <c r="HP40" s="68"/>
+      <c r="HQ40" s="68"/>
+      <c r="HR40" s="68"/>
+      <c r="HS40" s="68"/>
+      <c r="HT40" s="68"/>
+      <c r="HU40" s="68"/>
+      <c r="HV40" s="68"/>
+      <c r="HW40" s="68"/>
+      <c r="HX40" s="68"/>
+      <c r="HY40" s="68"/>
+      <c r="HZ40" s="68"/>
+      <c r="IA40" s="68"/>
+      <c r="IB40" s="68"/>
+      <c r="IC40" s="68"/>
+      <c r="ID40" s="68"/>
+      <c r="IE40" s="68"/>
+      <c r="IF40" s="68"/>
+      <c r="IG40" s="68"/>
+      <c r="IH40" s="68"/>
+      <c r="II40" s="68"/>
+      <c r="IJ40" s="68"/>
+      <c r="IK40" s="68"/>
+      <c r="IL40" s="68"/>
+      <c r="IM40" s="68"/>
+      <c r="IN40" s="68"/>
+      <c r="IO40" s="68"/>
+      <c r="IP40" s="68"/>
+      <c r="IQ40" s="68"/>
+      <c r="IR40" s="68"/>
+      <c r="IS40" s="68"/>
+      <c r="IT40" s="68"/>
+      <c r="IU40" s="68"/>
+      <c r="IV40" s="68"/>
+    </row>
+    <row r="41" spans="1:256" s="69" customFormat="1" ht="24">
+      <c r="A41" s="40" t="s">
+        <v>93</v>
+      </c>
+      <c r="B41" s="42" t="s">
+        <v>44</v>
+      </c>
+      <c r="C41" s="38" t="b">
+        <v>0</v>
+      </c>
+      <c r="D41" s="38"/>
+      <c r="E41" s="42" t="s">
+        <v>94</v>
+      </c>
+      <c r="F41" s="38"/>
+      <c r="G41" s="42"/>
+      <c r="H41" s="68"/>
+      <c r="I41" s="68"/>
+      <c r="J41" s="68"/>
+      <c r="K41" s="68"/>
+      <c r="L41" s="68"/>
+      <c r="M41" s="68"/>
+      <c r="N41" s="68"/>
+      <c r="O41" s="68"/>
+      <c r="P41" s="68"/>
+      <c r="Q41" s="68"/>
+      <c r="R41" s="68"/>
+      <c r="S41" s="68"/>
+      <c r="T41" s="68"/>
+      <c r="U41" s="68"/>
+      <c r="V41" s="68"/>
+      <c r="W41" s="68"/>
+      <c r="X41" s="68"/>
+      <c r="Y41" s="68"/>
+      <c r="Z41" s="68"/>
+      <c r="AA41" s="68"/>
+      <c r="AB41" s="68"/>
+      <c r="AC41" s="68"/>
+      <c r="AD41" s="68"/>
+      <c r="AE41" s="68"/>
+      <c r="AF41" s="68"/>
+      <c r="AG41" s="68"/>
+      <c r="AH41" s="68"/>
+      <c r="AI41" s="68"/>
+      <c r="AJ41" s="68"/>
+      <c r="AK41" s="68"/>
+      <c r="AL41" s="68"/>
+      <c r="AM41" s="68"/>
+      <c r="AN41" s="68"/>
+      <c r="AO41" s="68"/>
+      <c r="AP41" s="68"/>
+      <c r="AQ41" s="68"/>
+      <c r="AR41" s="68"/>
+      <c r="AS41" s="68"/>
+      <c r="AT41" s="68"/>
+      <c r="AU41" s="68"/>
+      <c r="AV41" s="68"/>
+      <c r="AW41" s="68"/>
+      <c r="AX41" s="68"/>
+      <c r="AY41" s="68"/>
+      <c r="AZ41" s="68"/>
+      <c r="BA41" s="68"/>
+      <c r="BB41" s="68"/>
+      <c r="BC41" s="68"/>
+      <c r="BD41" s="68"/>
+      <c r="BE41" s="68"/>
+      <c r="BF41" s="68"/>
+      <c r="BG41" s="68"/>
+      <c r="BH41" s="68"/>
+      <c r="BI41" s="68"/>
+      <c r="BJ41" s="68"/>
+      <c r="BK41" s="68"/>
+      <c r="BL41" s="68"/>
+      <c r="BM41" s="68"/>
+      <c r="BN41" s="68"/>
+      <c r="BO41" s="68"/>
+      <c r="BP41" s="68"/>
+      <c r="BQ41" s="68"/>
+      <c r="BR41" s="68"/>
+      <c r="BS41" s="68"/>
+      <c r="BT41" s="68"/>
+      <c r="BU41" s="68"/>
+      <c r="BV41" s="68"/>
+      <c r="BW41" s="68"/>
+      <c r="BX41" s="68"/>
+      <c r="BY41" s="68"/>
+      <c r="BZ41" s="68"/>
+      <c r="CA41" s="68"/>
+      <c r="CB41" s="68"/>
+      <c r="CC41" s="68"/>
+      <c r="CD41" s="68"/>
+      <c r="CE41" s="68"/>
+      <c r="CF41" s="68"/>
+      <c r="CG41" s="68"/>
+      <c r="CH41" s="68"/>
+      <c r="CI41" s="68"/>
+      <c r="CJ41" s="68"/>
+      <c r="CK41" s="68"/>
+      <c r="CL41" s="68"/>
+      <c r="CM41" s="68"/>
+      <c r="CN41" s="68"/>
+      <c r="CO41" s="68"/>
+      <c r="CP41" s="68"/>
+      <c r="CQ41" s="68"/>
+      <c r="CR41" s="68"/>
+      <c r="CS41" s="68"/>
+      <c r="CT41" s="68"/>
+      <c r="CU41" s="68"/>
+      <c r="CV41" s="68"/>
+      <c r="CW41" s="68"/>
+      <c r="CX41" s="68"/>
+      <c r="CY41" s="68"/>
+      <c r="CZ41" s="68"/>
+      <c r="DA41" s="68"/>
+      <c r="DB41" s="68"/>
+      <c r="DC41" s="68"/>
+      <c r="DD41" s="68"/>
+      <c r="DE41" s="68"/>
+      <c r="DF41" s="68"/>
+      <c r="DG41" s="68"/>
+      <c r="DH41" s="68"/>
+      <c r="DI41" s="68"/>
+      <c r="DJ41" s="68"/>
+      <c r="DK41" s="68"/>
+      <c r="DL41" s="68"/>
+      <c r="DM41" s="68"/>
+      <c r="DN41" s="68"/>
+      <c r="DO41" s="68"/>
+      <c r="DP41" s="68"/>
+      <c r="DQ41" s="68"/>
+      <c r="DR41" s="68"/>
+      <c r="DS41" s="68"/>
+      <c r="DT41" s="68"/>
+      <c r="DU41" s="68"/>
+      <c r="DV41" s="68"/>
+      <c r="DW41" s="68"/>
+      <c r="DX41" s="68"/>
+      <c r="DY41" s="68"/>
+      <c r="DZ41" s="68"/>
+      <c r="EA41" s="68"/>
+      <c r="EB41" s="68"/>
+      <c r="EC41" s="68"/>
+      <c r="ED41" s="68"/>
+      <c r="EE41" s="68"/>
+      <c r="EF41" s="68"/>
+      <c r="EG41" s="68"/>
+      <c r="EH41" s="68"/>
+      <c r="EI41" s="68"/>
+      <c r="EJ41" s="68"/>
+      <c r="EK41" s="68"/>
+      <c r="EL41" s="68"/>
+      <c r="EM41" s="68"/>
+      <c r="EN41" s="68"/>
+      <c r="EO41" s="68"/>
+      <c r="EP41" s="68"/>
+      <c r="EQ41" s="68"/>
+      <c r="ER41" s="68"/>
+      <c r="ES41" s="68"/>
+      <c r="ET41" s="68"/>
+      <c r="EU41" s="68"/>
+      <c r="EV41" s="68"/>
+      <c r="EW41" s="68"/>
+      <c r="EX41" s="68"/>
+      <c r="EY41" s="68"/>
+      <c r="EZ41" s="68"/>
+      <c r="FA41" s="68"/>
+      <c r="FB41" s="68"/>
+      <c r="FC41" s="68"/>
+      <c r="FD41" s="68"/>
+      <c r="FE41" s="68"/>
+      <c r="FF41" s="68"/>
+      <c r="FG41" s="68"/>
+      <c r="FH41" s="68"/>
+      <c r="FI41" s="68"/>
+      <c r="FJ41" s="68"/>
+      <c r="FK41" s="68"/>
+      <c r="FL41" s="68"/>
+      <c r="FM41" s="68"/>
+      <c r="FN41" s="68"/>
+      <c r="FO41" s="68"/>
+      <c r="FP41" s="68"/>
+      <c r="FQ41" s="68"/>
+      <c r="FR41" s="68"/>
+      <c r="FS41" s="68"/>
+      <c r="FT41" s="68"/>
+      <c r="FU41" s="68"/>
+      <c r="FV41" s="68"/>
+      <c r="FW41" s="68"/>
+      <c r="FX41" s="68"/>
+      <c r="FY41" s="68"/>
+      <c r="FZ41" s="68"/>
+      <c r="GA41" s="68"/>
+      <c r="GB41" s="68"/>
+      <c r="GC41" s="68"/>
+      <c r="GD41" s="68"/>
+      <c r="GE41" s="68"/>
+      <c r="GF41" s="68"/>
+      <c r="GG41" s="68"/>
+      <c r="GH41" s="68"/>
+      <c r="GI41" s="68"/>
+      <c r="GJ41" s="68"/>
+      <c r="GK41" s="68"/>
+      <c r="GL41" s="68"/>
+      <c r="GM41" s="68"/>
+      <c r="GN41" s="68"/>
+      <c r="GO41" s="68"/>
+      <c r="GP41" s="68"/>
+      <c r="GQ41" s="68"/>
+      <c r="GR41" s="68"/>
+      <c r="GS41" s="68"/>
+      <c r="GT41" s="68"/>
+      <c r="GU41" s="68"/>
+      <c r="GV41" s="68"/>
+      <c r="GW41" s="68"/>
+      <c r="GX41" s="68"/>
+      <c r="GY41" s="68"/>
+      <c r="GZ41" s="68"/>
+      <c r="HA41" s="68"/>
+      <c r="HB41" s="68"/>
+      <c r="HC41" s="68"/>
+      <c r="HD41" s="68"/>
+      <c r="HE41" s="68"/>
+      <c r="HF41" s="68"/>
+      <c r="HG41" s="68"/>
+      <c r="HH41" s="68"/>
+      <c r="HI41" s="68"/>
+      <c r="HJ41" s="68"/>
+      <c r="HK41" s="68"/>
+      <c r="HL41" s="68"/>
+      <c r="HM41" s="68"/>
+      <c r="HN41" s="68"/>
+      <c r="HO41" s="68"/>
+      <c r="HP41" s="68"/>
+      <c r="HQ41" s="68"/>
+      <c r="HR41" s="68"/>
+      <c r="HS41" s="68"/>
+      <c r="HT41" s="68"/>
+      <c r="HU41" s="68"/>
+      <c r="HV41" s="68"/>
+      <c r="HW41" s="68"/>
+      <c r="HX41" s="68"/>
+      <c r="HY41" s="68"/>
+      <c r="HZ41" s="68"/>
+      <c r="IA41" s="68"/>
+      <c r="IB41" s="68"/>
+      <c r="IC41" s="68"/>
+      <c r="ID41" s="68"/>
+      <c r="IE41" s="68"/>
+      <c r="IF41" s="68"/>
+      <c r="IG41" s="68"/>
+      <c r="IH41" s="68"/>
+      <c r="II41" s="68"/>
+      <c r="IJ41" s="68"/>
+      <c r="IK41" s="68"/>
+      <c r="IL41" s="68"/>
+      <c r="IM41" s="68"/>
+      <c r="IN41" s="68"/>
+      <c r="IO41" s="68"/>
+      <c r="IP41" s="68"/>
+      <c r="IQ41" s="68"/>
+      <c r="IR41" s="68"/>
+      <c r="IS41" s="68"/>
+      <c r="IT41" s="68"/>
+      <c r="IU41" s="68"/>
+      <c r="IV41" s="68"/>
+    </row>
+    <row r="42" spans="1:256" s="69" customFormat="1" ht="60">
+      <c r="A42" s="53" t="s">
+        <v>130</v>
+      </c>
+      <c r="B42" s="54" t="s">
+        <v>44</v>
+      </c>
+      <c r="C42" s="49" t="b">
+        <v>0</v>
+      </c>
+      <c r="D42" s="52" t="s">
+        <v>131</v>
+      </c>
+      <c r="E42" s="56" t="s">
+        <v>94</v>
+      </c>
+      <c r="F42" s="52" t="s">
+        <v>132</v>
+      </c>
+      <c r="G42" s="54"/>
+      <c r="H42" s="68"/>
+      <c r="I42" s="68"/>
+      <c r="J42" s="68"/>
+      <c r="K42" s="68"/>
+      <c r="L42" s="68"/>
+      <c r="M42" s="68"/>
+      <c r="N42" s="68"/>
+      <c r="O42" s="68"/>
+      <c r="P42" s="68"/>
+      <c r="Q42" s="68"/>
+      <c r="R42" s="68"/>
+      <c r="S42" s="68"/>
+      <c r="T42" s="68"/>
+      <c r="U42" s="68"/>
+      <c r="V42" s="68"/>
+      <c r="W42" s="68"/>
+      <c r="X42" s="68"/>
+      <c r="Y42" s="68"/>
+      <c r="Z42" s="68"/>
+      <c r="AA42" s="68"/>
+      <c r="AB42" s="68"/>
+      <c r="AC42" s="68"/>
+      <c r="AD42" s="68"/>
+      <c r="AE42" s="68"/>
+      <c r="AF42" s="68"/>
+      <c r="AG42" s="68"/>
+      <c r="AH42" s="68"/>
+      <c r="AI42" s="68"/>
+      <c r="AJ42" s="68"/>
+      <c r="AK42" s="68"/>
+      <c r="AL42" s="68"/>
+      <c r="AM42" s="68"/>
+      <c r="AN42" s="68"/>
+      <c r="AO42" s="68"/>
+      <c r="AP42" s="68"/>
+      <c r="AQ42" s="68"/>
+      <c r="AR42" s="68"/>
+      <c r="AS42" s="68"/>
+      <c r="AT42" s="68"/>
+      <c r="AU42" s="68"/>
+      <c r="AV42" s="68"/>
+      <c r="AW42" s="68"/>
+      <c r="AX42" s="68"/>
+      <c r="AY42" s="68"/>
+      <c r="AZ42" s="68"/>
+      <c r="BA42" s="68"/>
+      <c r="BB42" s="68"/>
+      <c r="BC42" s="68"/>
+      <c r="BD42" s="68"/>
+      <c r="BE42" s="68"/>
+      <c r="BF42" s="68"/>
+      <c r="BG42" s="68"/>
+      <c r="BH42" s="68"/>
+      <c r="BI42" s="68"/>
+      <c r="BJ42" s="68"/>
+      <c r="BK42" s="68"/>
+      <c r="BL42" s="68"/>
+      <c r="BM42" s="68"/>
+      <c r="BN42" s="68"/>
+      <c r="BO42" s="68"/>
+      <c r="BP42" s="68"/>
+      <c r="BQ42" s="68"/>
+      <c r="BR42" s="68"/>
+      <c r="BS42" s="68"/>
+      <c r="BT42" s="68"/>
+      <c r="BU42" s="68"/>
+      <c r="BV42" s="68"/>
+      <c r="BW42" s="68"/>
+      <c r="BX42" s="68"/>
+      <c r="BY42" s="68"/>
+      <c r="BZ42" s="68"/>
+      <c r="CA42" s="68"/>
+      <c r="CB42" s="68"/>
+      <c r="CC42" s="68"/>
+      <c r="CD42" s="68"/>
+      <c r="CE42" s="68"/>
+      <c r="CF42" s="68"/>
+      <c r="CG42" s="68"/>
+      <c r="CH42" s="68"/>
+      <c r="CI42" s="68"/>
+      <c r="CJ42" s="68"/>
+      <c r="CK42" s="68"/>
+      <c r="CL42" s="68"/>
+      <c r="CM42" s="68"/>
+      <c r="CN42" s="68"/>
+      <c r="CO42" s="68"/>
+      <c r="CP42" s="68"/>
+      <c r="CQ42" s="68"/>
+      <c r="CR42" s="68"/>
+      <c r="CS42" s="68"/>
+      <c r="CT42" s="68"/>
+      <c r="CU42" s="68"/>
+      <c r="CV42" s="68"/>
+      <c r="CW42" s="68"/>
+      <c r="CX42" s="68"/>
+      <c r="CY42" s="68"/>
+      <c r="CZ42" s="68"/>
+      <c r="DA42" s="68"/>
+      <c r="DB42" s="68"/>
+      <c r="DC42" s="68"/>
+      <c r="DD42" s="68"/>
+      <c r="DE42" s="68"/>
+      <c r="DF42" s="68"/>
+      <c r="DG42" s="68"/>
+      <c r="DH42" s="68"/>
+      <c r="DI42" s="68"/>
+      <c r="DJ42" s="68"/>
+      <c r="DK42" s="68"/>
+      <c r="DL42" s="68"/>
+      <c r="DM42" s="68"/>
+      <c r="DN42" s="68"/>
+      <c r="DO42" s="68"/>
+      <c r="DP42" s="68"/>
+      <c r="DQ42" s="68"/>
+      <c r="DR42" s="68"/>
+      <c r="DS42" s="68"/>
+      <c r="DT42" s="68"/>
+      <c r="DU42" s="68"/>
+      <c r="DV42" s="68"/>
+      <c r="DW42" s="68"/>
+      <c r="DX42" s="68"/>
+      <c r="DY42" s="68"/>
+      <c r="DZ42" s="68"/>
+      <c r="EA42" s="68"/>
+      <c r="EB42" s="68"/>
+      <c r="EC42" s="68"/>
+      <c r="ED42" s="68"/>
+      <c r="EE42" s="68"/>
+      <c r="EF42" s="68"/>
+      <c r="EG42" s="68"/>
+      <c r="EH42" s="68"/>
+      <c r="EI42" s="68"/>
+      <c r="EJ42" s="68"/>
+      <c r="EK42" s="68"/>
+      <c r="EL42" s="68"/>
+      <c r="EM42" s="68"/>
+      <c r="EN42" s="68"/>
+      <c r="EO42" s="68"/>
+      <c r="EP42" s="68"/>
+      <c r="EQ42" s="68"/>
+      <c r="ER42" s="68"/>
+      <c r="ES42" s="68"/>
+      <c r="ET42" s="68"/>
+      <c r="EU42" s="68"/>
+      <c r="EV42" s="68"/>
+      <c r="EW42" s="68"/>
+      <c r="EX42" s="68"/>
+      <c r="EY42" s="68"/>
+      <c r="EZ42" s="68"/>
+      <c r="FA42" s="68"/>
+      <c r="FB42" s="68"/>
+      <c r="FC42" s="68"/>
+      <c r="FD42" s="68"/>
+      <c r="FE42" s="68"/>
+      <c r="FF42" s="68"/>
+      <c r="FG42" s="68"/>
+      <c r="FH42" s="68"/>
+      <c r="FI42" s="68"/>
+      <c r="FJ42" s="68"/>
+      <c r="FK42" s="68"/>
+      <c r="FL42" s="68"/>
+      <c r="FM42" s="68"/>
+      <c r="FN42" s="68"/>
+      <c r="FO42" s="68"/>
+      <c r="FP42" s="68"/>
+      <c r="FQ42" s="68"/>
+      <c r="FR42" s="68"/>
+      <c r="FS42" s="68"/>
+      <c r="FT42" s="68"/>
+      <c r="FU42" s="68"/>
+      <c r="FV42" s="68"/>
+      <c r="FW42" s="68"/>
+      <c r="FX42" s="68"/>
+      <c r="FY42" s="68"/>
+      <c r="FZ42" s="68"/>
+      <c r="GA42" s="68"/>
+      <c r="GB42" s="68"/>
+      <c r="GC42" s="68"/>
+      <c r="GD42" s="68"/>
+      <c r="GE42" s="68"/>
+      <c r="GF42" s="68"/>
+      <c r="GG42" s="68"/>
+      <c r="GH42" s="68"/>
+      <c r="GI42" s="68"/>
+      <c r="GJ42" s="68"/>
+      <c r="GK42" s="68"/>
+      <c r="GL42" s="68"/>
+      <c r="GM42" s="68"/>
+      <c r="GN42" s="68"/>
+      <c r="GO42" s="68"/>
+      <c r="GP42" s="68"/>
+      <c r="GQ42" s="68"/>
+      <c r="GR42" s="68"/>
+      <c r="GS42" s="68"/>
+      <c r="GT42" s="68"/>
+      <c r="GU42" s="68"/>
+      <c r="GV42" s="68"/>
+      <c r="GW42" s="68"/>
+      <c r="GX42" s="68"/>
+      <c r="GY42" s="68"/>
+      <c r="GZ42" s="68"/>
+      <c r="HA42" s="68"/>
+      <c r="HB42" s="68"/>
+      <c r="HC42" s="68"/>
+      <c r="HD42" s="68"/>
+      <c r="HE42" s="68"/>
+      <c r="HF42" s="68"/>
+      <c r="HG42" s="68"/>
+      <c r="HH42" s="68"/>
+      <c r="HI42" s="68"/>
+      <c r="HJ42" s="68"/>
+      <c r="HK42" s="68"/>
+      <c r="HL42" s="68"/>
+      <c r="HM42" s="68"/>
+      <c r="HN42" s="68"/>
+      <c r="HO42" s="68"/>
+      <c r="HP42" s="68"/>
+      <c r="HQ42" s="68"/>
+      <c r="HR42" s="68"/>
+      <c r="HS42" s="68"/>
+      <c r="HT42" s="68"/>
+      <c r="HU42" s="68"/>
+      <c r="HV42" s="68"/>
+      <c r="HW42" s="68"/>
+      <c r="HX42" s="68"/>
+      <c r="HY42" s="68"/>
+      <c r="HZ42" s="68"/>
+      <c r="IA42" s="68"/>
+      <c r="IB42" s="68"/>
+      <c r="IC42" s="68"/>
+      <c r="ID42" s="68"/>
+      <c r="IE42" s="68"/>
+      <c r="IF42" s="68"/>
+      <c r="IG42" s="68"/>
+      <c r="IH42" s="68"/>
+      <c r="II42" s="68"/>
+      <c r="IJ42" s="68"/>
+      <c r="IK42" s="68"/>
+      <c r="IL42" s="68"/>
+      <c r="IM42" s="68"/>
+      <c r="IN42" s="68"/>
+      <c r="IO42" s="68"/>
+      <c r="IP42" s="68"/>
+      <c r="IQ42" s="68"/>
+      <c r="IR42" s="68"/>
+      <c r="IS42" s="68"/>
+      <c r="IT42" s="68"/>
+      <c r="IU42" s="68"/>
+      <c r="IV42" s="68"/>
+    </row>
+    <row r="43" spans="1:256" s="69" customFormat="1" ht="48">
+      <c r="A43" s="53" t="s">
+        <v>120</v>
+      </c>
+      <c r="B43" s="72" t="s">
+        <v>121</v>
+      </c>
+      <c r="C43" s="49" t="b">
+        <v>0</v>
+      </c>
+      <c r="D43" s="55" t="s">
+        <v>122</v>
+      </c>
+      <c r="E43" s="56" t="s">
+        <v>123</v>
+      </c>
+      <c r="F43" s="55" t="s">
+        <v>124</v>
+      </c>
+      <c r="G43" s="72"/>
+      <c r="H43" s="68"/>
+      <c r="I43" s="68"/>
+      <c r="J43" s="68"/>
+      <c r="K43" s="68"/>
+      <c r="L43" s="68"/>
+      <c r="M43" s="68"/>
+      <c r="N43" s="68"/>
+      <c r="O43" s="68"/>
+      <c r="P43" s="68"/>
+      <c r="Q43" s="68"/>
+      <c r="R43" s="68"/>
+      <c r="S43" s="68"/>
+      <c r="T43" s="68"/>
+      <c r="U43" s="68"/>
+      <c r="V43" s="68"/>
+      <c r="W43" s="68"/>
+      <c r="X43" s="68"/>
+      <c r="Y43" s="68"/>
+      <c r="Z43" s="68"/>
+      <c r="AA43" s="68"/>
+      <c r="AB43" s="68"/>
+      <c r="AC43" s="68"/>
+      <c r="AD43" s="68"/>
+      <c r="AE43" s="68"/>
+      <c r="AF43" s="68"/>
+      <c r="AG43" s="68"/>
+      <c r="AH43" s="68"/>
+      <c r="AI43" s="68"/>
+      <c r="AJ43" s="68"/>
+      <c r="AK43" s="68"/>
+      <c r="AL43" s="68"/>
+      <c r="AM43" s="68"/>
+      <c r="AN43" s="68"/>
+      <c r="AO43" s="68"/>
+      <c r="AP43" s="68"/>
+      <c r="AQ43" s="68"/>
+      <c r="AR43" s="68"/>
+      <c r="AS43" s="68"/>
+      <c r="AT43" s="68"/>
+      <c r="AU43" s="68"/>
+      <c r="AV43" s="68"/>
+      <c r="AW43" s="68"/>
+      <c r="AX43" s="68"/>
+      <c r="AY43" s="68"/>
+      <c r="AZ43" s="68"/>
+      <c r="BA43" s="68"/>
+      <c r="BB43" s="68"/>
+      <c r="BC43" s="68"/>
+      <c r="BD43" s="68"/>
+      <c r="BE43" s="68"/>
+      <c r="BF43" s="68"/>
+      <c r="BG43" s="68"/>
+      <c r="BH43" s="68"/>
+      <c r="BI43" s="68"/>
+      <c r="BJ43" s="68"/>
+      <c r="BK43" s="68"/>
+      <c r="BL43" s="68"/>
+      <c r="BM43" s="68"/>
+      <c r="BN43" s="68"/>
+      <c r="BO43" s="68"/>
+      <c r="BP43" s="68"/>
+      <c r="BQ43" s="68"/>
+      <c r="BR43" s="68"/>
+      <c r="BS43" s="68"/>
+      <c r="BT43" s="68"/>
+      <c r="BU43" s="68"/>
+      <c r="BV43" s="68"/>
+      <c r="BW43" s="68"/>
+      <c r="BX43" s="68"/>
+      <c r="BY43" s="68"/>
+      <c r="BZ43" s="68"/>
+      <c r="CA43" s="68"/>
+      <c r="CB43" s="68"/>
+      <c r="CC43" s="68"/>
+      <c r="CD43" s="68"/>
+      <c r="CE43" s="68"/>
+      <c r="CF43" s="68"/>
+      <c r="CG43" s="68"/>
+      <c r="CH43" s="68"/>
+      <c r="CI43" s="68"/>
+      <c r="CJ43" s="68"/>
+      <c r="CK43" s="68"/>
+      <c r="CL43" s="68"/>
+      <c r="CM43" s="68"/>
+      <c r="CN43" s="68"/>
+      <c r="CO43" s="68"/>
+      <c r="CP43" s="68"/>
+      <c r="CQ43" s="68"/>
+      <c r="CR43" s="68"/>
+      <c r="CS43" s="68"/>
+      <c r="CT43" s="68"/>
+      <c r="CU43" s="68"/>
+      <c r="CV43" s="68"/>
+      <c r="CW43" s="68"/>
+      <c r="CX43" s="68"/>
+      <c r="CY43" s="68"/>
+      <c r="CZ43" s="68"/>
+      <c r="DA43" s="68"/>
+      <c r="DB43" s="68"/>
+      <c r="DC43" s="68"/>
+      <c r="DD43" s="68"/>
+      <c r="DE43" s="68"/>
+      <c r="DF43" s="68"/>
+      <c r="DG43" s="68"/>
+      <c r="DH43" s="68"/>
+      <c r="DI43" s="68"/>
+      <c r="DJ43" s="68"/>
+      <c r="DK43" s="68"/>
+      <c r="DL43" s="68"/>
+      <c r="DM43" s="68"/>
+      <c r="DN43" s="68"/>
+      <c r="DO43" s="68"/>
+      <c r="DP43" s="68"/>
+      <c r="DQ43" s="68"/>
+      <c r="DR43" s="68"/>
+      <c r="DS43" s="68"/>
+      <c r="DT43" s="68"/>
+      <c r="DU43" s="68"/>
+      <c r="DV43" s="68"/>
+      <c r="DW43" s="68"/>
+      <c r="DX43" s="68"/>
+      <c r="DY43" s="68"/>
+      <c r="DZ43" s="68"/>
+      <c r="EA43" s="68"/>
+      <c r="EB43" s="68"/>
+      <c r="EC43" s="68"/>
+      <c r="ED43" s="68"/>
+      <c r="EE43" s="68"/>
+      <c r="EF43" s="68"/>
+      <c r="EG43" s="68"/>
+      <c r="EH43" s="68"/>
+      <c r="EI43" s="68"/>
+      <c r="EJ43" s="68"/>
+      <c r="EK43" s="68"/>
+      <c r="EL43" s="68"/>
+      <c r="EM43" s="68"/>
+      <c r="EN43" s="68"/>
+      <c r="EO43" s="68"/>
+      <c r="EP43" s="68"/>
+      <c r="EQ43" s="68"/>
+      <c r="ER43" s="68"/>
+      <c r="ES43" s="68"/>
+      <c r="ET43" s="68"/>
+      <c r="EU43" s="68"/>
+      <c r="EV43" s="68"/>
+      <c r="EW43" s="68"/>
+      <c r="EX43" s="68"/>
+      <c r="EY43" s="68"/>
+      <c r="EZ43" s="68"/>
+      <c r="FA43" s="68"/>
+      <c r="FB43" s="68"/>
+      <c r="FC43" s="68"/>
+      <c r="FD43" s="68"/>
+      <c r="FE43" s="68"/>
+      <c r="FF43" s="68"/>
+      <c r="FG43" s="68"/>
+      <c r="FH43" s="68"/>
+      <c r="FI43" s="68"/>
+      <c r="FJ43" s="68"/>
+      <c r="FK43" s="68"/>
+      <c r="FL43" s="68"/>
+      <c r="FM43" s="68"/>
+      <c r="FN43" s="68"/>
+      <c r="FO43" s="68"/>
+      <c r="FP43" s="68"/>
+      <c r="FQ43" s="68"/>
+      <c r="FR43" s="68"/>
+      <c r="FS43" s="68"/>
+      <c r="FT43" s="68"/>
+      <c r="FU43" s="68"/>
+      <c r="FV43" s="68"/>
+      <c r="FW43" s="68"/>
+      <c r="FX43" s="68"/>
+      <c r="FY43" s="68"/>
+      <c r="FZ43" s="68"/>
+      <c r="GA43" s="68"/>
+      <c r="GB43" s="68"/>
+      <c r="GC43" s="68"/>
+      <c r="GD43" s="68"/>
+      <c r="GE43" s="68"/>
+      <c r="GF43" s="68"/>
+      <c r="GG43" s="68"/>
+      <c r="GH43" s="68"/>
+      <c r="GI43" s="68"/>
+      <c r="GJ43" s="68"/>
+      <c r="GK43" s="68"/>
+      <c r="GL43" s="68"/>
+      <c r="GM43" s="68"/>
+      <c r="GN43" s="68"/>
+      <c r="GO43" s="68"/>
+      <c r="GP43" s="68"/>
+      <c r="GQ43" s="68"/>
+      <c r="GR43" s="68"/>
+      <c r="GS43" s="68"/>
+      <c r="GT43" s="68"/>
+      <c r="GU43" s="68"/>
+      <c r="GV43" s="68"/>
+      <c r="GW43" s="68"/>
+      <c r="GX43" s="68"/>
+      <c r="GY43" s="68"/>
+      <c r="GZ43" s="68"/>
+      <c r="HA43" s="68"/>
+      <c r="HB43" s="68"/>
+      <c r="HC43" s="68"/>
+      <c r="HD43" s="68"/>
+      <c r="HE43" s="68"/>
+      <c r="HF43" s="68"/>
+      <c r="HG43" s="68"/>
+      <c r="HH43" s="68"/>
+      <c r="HI43" s="68"/>
+      <c r="HJ43" s="68"/>
+      <c r="HK43" s="68"/>
+      <c r="HL43" s="68"/>
+      <c r="HM43" s="68"/>
+      <c r="HN43" s="68"/>
+      <c r="HO43" s="68"/>
+      <c r="HP43" s="68"/>
+      <c r="HQ43" s="68"/>
+      <c r="HR43" s="68"/>
+      <c r="HS43" s="68"/>
+      <c r="HT43" s="68"/>
+      <c r="HU43" s="68"/>
+      <c r="HV43" s="68"/>
+      <c r="HW43" s="68"/>
+      <c r="HX43" s="68"/>
+      <c r="HY43" s="68"/>
+      <c r="HZ43" s="68"/>
+      <c r="IA43" s="68"/>
+      <c r="IB43" s="68"/>
+      <c r="IC43" s="68"/>
+      <c r="ID43" s="68"/>
+      <c r="IE43" s="68"/>
+      <c r="IF43" s="68"/>
+      <c r="IG43" s="68"/>
+      <c r="IH43" s="68"/>
+      <c r="II43" s="68"/>
+      <c r="IJ43" s="68"/>
+      <c r="IK43" s="68"/>
+      <c r="IL43" s="68"/>
+      <c r="IM43" s="68"/>
+      <c r="IN43" s="68"/>
+      <c r="IO43" s="68"/>
+      <c r="IP43" s="68"/>
+      <c r="IQ43" s="68"/>
+      <c r="IR43" s="68"/>
+      <c r="IS43" s="68"/>
+      <c r="IT43" s="68"/>
+      <c r="IU43" s="68"/>
+      <c r="IV43" s="68"/>
+    </row>
+    <row r="44" spans="1:256" s="69" customFormat="1" ht="26">
+      <c r="A44" s="40" t="s">
+        <v>23</v>
+      </c>
+      <c r="B44" s="46" t="s">
+        <v>24</v>
+      </c>
+      <c r="C44" s="38" t="b">
+        <v>0</v>
+      </c>
+      <c r="D44" s="44" t="s">
+        <v>25</v>
+      </c>
+      <c r="E44" s="46" t="s">
+        <v>26</v>
+      </c>
+      <c r="F44" s="39" t="s">
+        <v>27</v>
+      </c>
+      <c r="G44" s="62" t="s">
+        <v>28</v>
+      </c>
+      <c r="H44" s="68"/>
+      <c r="I44" s="68"/>
+      <c r="J44" s="68"/>
+      <c r="K44" s="68"/>
+      <c r="L44" s="68"/>
+      <c r="M44" s="68"/>
+      <c r="N44" s="68"/>
+      <c r="O44" s="68"/>
+      <c r="P44" s="68"/>
+      <c r="Q44" s="68"/>
+      <c r="R44" s="68"/>
+      <c r="S44" s="68"/>
+      <c r="T44" s="68"/>
+      <c r="U44" s="68"/>
+      <c r="V44" s="68"/>
+      <c r="W44" s="68"/>
+      <c r="X44" s="68"/>
+      <c r="Y44" s="68"/>
+      <c r="Z44" s="68"/>
+      <c r="AA44" s="68"/>
+      <c r="AB44" s="68"/>
+      <c r="AC44" s="68"/>
+      <c r="AD44" s="68"/>
+      <c r="AE44" s="68"/>
+      <c r="AF44" s="68"/>
+      <c r="AG44" s="68"/>
+      <c r="AH44" s="68"/>
+      <c r="AI44" s="68"/>
+      <c r="AJ44" s="68"/>
+      <c r="AK44" s="68"/>
+      <c r="AL44" s="68"/>
+      <c r="AM44" s="68"/>
+      <c r="AN44" s="68"/>
+      <c r="AO44" s="68"/>
+      <c r="AP44" s="68"/>
+      <c r="AQ44" s="68"/>
+      <c r="AR44" s="68"/>
+      <c r="AS44" s="68"/>
+      <c r="AT44" s="68"/>
+      <c r="AU44" s="68"/>
+      <c r="AV44" s="68"/>
+      <c r="AW44" s="68"/>
+      <c r="AX44" s="68"/>
+      <c r="AY44" s="68"/>
+      <c r="AZ44" s="68"/>
+      <c r="BA44" s="68"/>
+      <c r="BB44" s="68"/>
+      <c r="BC44" s="68"/>
+      <c r="BD44" s="68"/>
+      <c r="BE44" s="68"/>
+      <c r="BF44" s="68"/>
+      <c r="BG44" s="68"/>
+      <c r="BH44" s="68"/>
+      <c r="BI44" s="68"/>
+      <c r="BJ44" s="68"/>
+      <c r="BK44" s="68"/>
+      <c r="BL44" s="68"/>
+      <c r="BM44" s="68"/>
+      <c r="BN44" s="68"/>
+      <c r="BO44" s="68"/>
+      <c r="BP44" s="68"/>
+      <c r="BQ44" s="68"/>
+      <c r="BR44" s="68"/>
+      <c r="BS44" s="68"/>
+      <c r="BT44" s="68"/>
+      <c r="BU44" s="68"/>
+      <c r="BV44" s="68"/>
+      <c r="BW44" s="68"/>
+      <c r="BX44" s="68"/>
+      <c r="BY44" s="68"/>
+      <c r="BZ44" s="68"/>
+      <c r="CA44" s="68"/>
+      <c r="CB44" s="68"/>
+      <c r="CC44" s="68"/>
+      <c r="CD44" s="68"/>
+      <c r="CE44" s="68"/>
+      <c r="CF44" s="68"/>
+      <c r="CG44" s="68"/>
+      <c r="CH44" s="68"/>
+      <c r="CI44" s="68"/>
+      <c r="CJ44" s="68"/>
+      <c r="CK44" s="68"/>
+      <c r="CL44" s="68"/>
+      <c r="CM44" s="68"/>
+      <c r="CN44" s="68"/>
+      <c r="CO44" s="68"/>
+      <c r="CP44" s="68"/>
+      <c r="CQ44" s="68"/>
+      <c r="CR44" s="68"/>
+      <c r="CS44" s="68"/>
+      <c r="CT44" s="68"/>
+      <c r="CU44" s="68"/>
+      <c r="CV44" s="68"/>
+      <c r="CW44" s="68"/>
+      <c r="CX44" s="68"/>
+      <c r="CY44" s="68"/>
+      <c r="CZ44" s="68"/>
+      <c r="DA44" s="68"/>
+      <c r="DB44" s="68"/>
+      <c r="DC44" s="68"/>
+      <c r="DD44" s="68"/>
+      <c r="DE44" s="68"/>
+      <c r="DF44" s="68"/>
+      <c r="DG44" s="68"/>
+      <c r="DH44" s="68"/>
+      <c r="DI44" s="68"/>
+      <c r="DJ44" s="68"/>
+      <c r="DK44" s="68"/>
+      <c r="DL44" s="68"/>
+      <c r="DM44" s="68"/>
+      <c r="DN44" s="68"/>
+      <c r="DO44" s="68"/>
+      <c r="DP44" s="68"/>
+      <c r="DQ44" s="68"/>
+      <c r="DR44" s="68"/>
+      <c r="DS44" s="68"/>
+      <c r="DT44" s="68"/>
+      <c r="DU44" s="68"/>
+      <c r="DV44" s="68"/>
+      <c r="DW44" s="68"/>
+      <c r="DX44" s="68"/>
+      <c r="DY44" s="68"/>
+      <c r="DZ44" s="68"/>
+      <c r="EA44" s="68"/>
+      <c r="EB44" s="68"/>
+      <c r="EC44" s="68"/>
+      <c r="ED44" s="68"/>
+      <c r="EE44" s="68"/>
+      <c r="EF44" s="68"/>
+      <c r="EG44" s="68"/>
+      <c r="EH44" s="68"/>
+      <c r="EI44" s="68"/>
+      <c r="EJ44" s="68"/>
+      <c r="EK44" s="68"/>
+      <c r="EL44" s="68"/>
+      <c r="EM44" s="68"/>
+      <c r="EN44" s="68"/>
+      <c r="EO44" s="68"/>
+      <c r="EP44" s="68"/>
+      <c r="EQ44" s="68"/>
+      <c r="ER44" s="68"/>
+      <c r="ES44" s="68"/>
+      <c r="ET44" s="68"/>
+      <c r="EU44" s="68"/>
+      <c r="EV44" s="68"/>
+      <c r="EW44" s="68"/>
+      <c r="EX44" s="68"/>
+      <c r="EY44" s="68"/>
+      <c r="EZ44" s="68"/>
+      <c r="FA44" s="68"/>
+      <c r="FB44" s="68"/>
+      <c r="FC44" s="68"/>
+      <c r="FD44" s="68"/>
+      <c r="FE44" s="68"/>
+      <c r="FF44" s="68"/>
+      <c r="FG44" s="68"/>
+      <c r="FH44" s="68"/>
+      <c r="FI44" s="68"/>
+      <c r="FJ44" s="68"/>
+      <c r="FK44" s="68"/>
+      <c r="FL44" s="68"/>
+      <c r="FM44" s="68"/>
+      <c r="FN44" s="68"/>
+      <c r="FO44" s="68"/>
+      <c r="FP44" s="68"/>
+      <c r="FQ44" s="68"/>
+      <c r="FR44" s="68"/>
+      <c r="FS44" s="68"/>
+      <c r="FT44" s="68"/>
+      <c r="FU44" s="68"/>
+      <c r="FV44" s="68"/>
+      <c r="FW44" s="68"/>
+      <c r="FX44" s="68"/>
+      <c r="FY44" s="68"/>
+      <c r="FZ44" s="68"/>
+      <c r="GA44" s="68"/>
+      <c r="GB44" s="68"/>
+      <c r="GC44" s="68"/>
+      <c r="GD44" s="68"/>
+      <c r="GE44" s="68"/>
+      <c r="GF44" s="68"/>
+      <c r="GG44" s="68"/>
+      <c r="GH44" s="68"/>
+      <c r="GI44" s="68"/>
+      <c r="GJ44" s="68"/>
+      <c r="GK44" s="68"/>
+      <c r="GL44" s="68"/>
+      <c r="GM44" s="68"/>
+      <c r="GN44" s="68"/>
+      <c r="GO44" s="68"/>
+      <c r="GP44" s="68"/>
+      <c r="GQ44" s="68"/>
+      <c r="GR44" s="68"/>
+      <c r="GS44" s="68"/>
+      <c r="GT44" s="68"/>
+      <c r="GU44" s="68"/>
+      <c r="GV44" s="68"/>
+      <c r="GW44" s="68"/>
+      <c r="GX44" s="68"/>
+      <c r="GY44" s="68"/>
+      <c r="GZ44" s="68"/>
+      <c r="HA44" s="68"/>
+      <c r="HB44" s="68"/>
+      <c r="HC44" s="68"/>
+      <c r="HD44" s="68"/>
+      <c r="HE44" s="68"/>
+      <c r="HF44" s="68"/>
+      <c r="HG44" s="68"/>
+      <c r="HH44" s="68"/>
+      <c r="HI44" s="68"/>
+      <c r="HJ44" s="68"/>
+      <c r="HK44" s="68"/>
+      <c r="HL44" s="68"/>
+      <c r="HM44" s="68"/>
+      <c r="HN44" s="68"/>
+      <c r="HO44" s="68"/>
+      <c r="HP44" s="68"/>
+      <c r="HQ44" s="68"/>
+      <c r="HR44" s="68"/>
+      <c r="HS44" s="68"/>
+      <c r="HT44" s="68"/>
+      <c r="HU44" s="68"/>
+      <c r="HV44" s="68"/>
+      <c r="HW44" s="68"/>
+      <c r="HX44" s="68"/>
+      <c r="HY44" s="68"/>
+      <c r="HZ44" s="68"/>
+      <c r="IA44" s="68"/>
+      <c r="IB44" s="68"/>
+      <c r="IC44" s="68"/>
+      <c r="ID44" s="68"/>
+      <c r="IE44" s="68"/>
+      <c r="IF44" s="68"/>
+      <c r="IG44" s="68"/>
+      <c r="IH44" s="68"/>
+      <c r="II44" s="68"/>
+      <c r="IJ44" s="68"/>
+      <c r="IK44" s="68"/>
+      <c r="IL44" s="68"/>
+      <c r="IM44" s="68"/>
+      <c r="IN44" s="68"/>
+      <c r="IO44" s="68"/>
+      <c r="IP44" s="68"/>
+      <c r="IQ44" s="68"/>
+      <c r="IR44" s="68"/>
+      <c r="IS44" s="68"/>
+      <c r="IT44" s="68"/>
+      <c r="IU44" s="68"/>
+      <c r="IV44" s="68"/>
+    </row>
+    <row r="45" spans="1:256" s="69" customFormat="1" ht="60">
+      <c r="A45" s="53" t="s">
+        <v>133</v>
+      </c>
+      <c r="B45" s="54" t="s">
+        <v>134</v>
+      </c>
+      <c r="C45" s="49" t="b">
+        <v>0</v>
+      </c>
+      <c r="D45" s="58" t="s">
+        <v>135</v>
+      </c>
+      <c r="E45" s="56" t="s">
+        <v>136</v>
+      </c>
+      <c r="F45" s="52" t="s">
+        <v>137</v>
+      </c>
+      <c r="G45" s="54"/>
+      <c r="H45" s="68"/>
+      <c r="I45" s="68"/>
+      <c r="J45" s="68"/>
+      <c r="K45" s="68"/>
+      <c r="L45" s="68"/>
+      <c r="M45" s="68"/>
+      <c r="N45" s="68"/>
+      <c r="O45" s="68"/>
+      <c r="P45" s="68"/>
+      <c r="Q45" s="68"/>
+      <c r="R45" s="68"/>
+      <c r="S45" s="68"/>
+      <c r="T45" s="68"/>
+      <c r="U45" s="68"/>
+      <c r="V45" s="68"/>
+      <c r="W45" s="68"/>
+      <c r="X45" s="68"/>
+      <c r="Y45" s="68"/>
+      <c r="Z45" s="68"/>
+      <c r="AA45" s="68"/>
+      <c r="AB45" s="68"/>
+      <c r="AC45" s="68"/>
+      <c r="AD45" s="68"/>
+      <c r="AE45" s="68"/>
+      <c r="AF45" s="68"/>
+      <c r="AG45" s="68"/>
+      <c r="AH45" s="68"/>
+      <c r="AI45" s="68"/>
+      <c r="AJ45" s="68"/>
+      <c r="AK45" s="68"/>
+      <c r="AL45" s="68"/>
+      <c r="AM45" s="68"/>
+      <c r="AN45" s="68"/>
+      <c r="AO45" s="68"/>
+      <c r="AP45" s="68"/>
+      <c r="AQ45" s="68"/>
+      <c r="AR45" s="68"/>
+      <c r="AS45" s="68"/>
+      <c r="AT45" s="68"/>
+      <c r="AU45" s="68"/>
+      <c r="AV45" s="68"/>
+      <c r="AW45" s="68"/>
+      <c r="AX45" s="68"/>
+      <c r="AY45" s="68"/>
+      <c r="AZ45" s="68"/>
+      <c r="BA45" s="68"/>
+      <c r="BB45" s="68"/>
+      <c r="BC45" s="68"/>
+      <c r="BD45" s="68"/>
+      <c r="BE45" s="68"/>
+      <c r="BF45" s="68"/>
+      <c r="BG45" s="68"/>
+      <c r="BH45" s="68"/>
+      <c r="BI45" s="68"/>
+      <c r="BJ45" s="68"/>
+      <c r="BK45" s="68"/>
+      <c r="BL45" s="68"/>
+      <c r="BM45" s="68"/>
+      <c r="BN45" s="68"/>
+      <c r="BO45" s="68"/>
+      <c r="BP45" s="68"/>
+      <c r="BQ45" s="68"/>
+      <c r="BR45" s="68"/>
+      <c r="BS45" s="68"/>
+      <c r="BT45" s="68"/>
+      <c r="BU45" s="68"/>
+      <c r="BV45" s="68"/>
+      <c r="BW45" s="68"/>
+      <c r="BX45" s="68"/>
+      <c r="BY45" s="68"/>
+      <c r="BZ45" s="68"/>
+      <c r="CA45" s="68"/>
+      <c r="CB45" s="68"/>
+      <c r="CC45" s="68"/>
+      <c r="CD45" s="68"/>
+      <c r="CE45" s="68"/>
+      <c r="CF45" s="68"/>
+      <c r="CG45" s="68"/>
+      <c r="CH45" s="68"/>
+      <c r="CI45" s="68"/>
+      <c r="CJ45" s="68"/>
+      <c r="CK45" s="68"/>
+      <c r="CL45" s="68"/>
+      <c r="CM45" s="68"/>
+      <c r="CN45" s="68"/>
+      <c r="CO45" s="68"/>
+      <c r="CP45" s="68"/>
+      <c r="CQ45" s="68"/>
+      <c r="CR45" s="68"/>
+      <c r="CS45" s="68"/>
+      <c r="CT45" s="68"/>
+      <c r="CU45" s="68"/>
+      <c r="CV45" s="68"/>
+      <c r="CW45" s="68"/>
+      <c r="CX45" s="68"/>
+      <c r="CY45" s="68"/>
+      <c r="CZ45" s="68"/>
+      <c r="DA45" s="68"/>
+      <c r="DB45" s="68"/>
+      <c r="DC45" s="68"/>
+      <c r="DD45" s="68"/>
+      <c r="DE45" s="68"/>
+      <c r="DF45" s="68"/>
+      <c r="DG45" s="68"/>
+      <c r="DH45" s="68"/>
+      <c r="DI45" s="68"/>
+      <c r="DJ45" s="68"/>
+      <c r="DK45" s="68"/>
+      <c r="DL45" s="68"/>
+      <c r="DM45" s="68"/>
+      <c r="DN45" s="68"/>
+      <c r="DO45" s="68"/>
+      <c r="DP45" s="68"/>
+      <c r="DQ45" s="68"/>
+      <c r="DR45" s="68"/>
+      <c r="DS45" s="68"/>
+      <c r="DT45" s="68"/>
+      <c r="DU45" s="68"/>
+      <c r="DV45" s="68"/>
+      <c r="DW45" s="68"/>
+      <c r="DX45" s="68"/>
+      <c r="DY45" s="68"/>
+      <c r="DZ45" s="68"/>
+      <c r="EA45" s="68"/>
+      <c r="EB45" s="68"/>
+      <c r="EC45" s="68"/>
+      <c r="ED45" s="68"/>
+      <c r="EE45" s="68"/>
+      <c r="EF45" s="68"/>
+      <c r="EG45" s="68"/>
+      <c r="EH45" s="68"/>
+      <c r="EI45" s="68"/>
+      <c r="EJ45" s="68"/>
+      <c r="EK45" s="68"/>
+      <c r="EL45" s="68"/>
+      <c r="EM45" s="68"/>
+      <c r="EN45" s="68"/>
+      <c r="EO45" s="68"/>
+      <c r="EP45" s="68"/>
+      <c r="EQ45" s="68"/>
+      <c r="ER45" s="68"/>
+      <c r="ES45" s="68"/>
+      <c r="ET45" s="68"/>
+      <c r="EU45" s="68"/>
+      <c r="EV45" s="68"/>
+      <c r="EW45" s="68"/>
+      <c r="EX45" s="68"/>
+      <c r="EY45" s="68"/>
+      <c r="EZ45" s="68"/>
+      <c r="FA45" s="68"/>
+      <c r="FB45" s="68"/>
+      <c r="FC45" s="68"/>
+      <c r="FD45" s="68"/>
+      <c r="FE45" s="68"/>
+      <c r="FF45" s="68"/>
+      <c r="FG45" s="68"/>
+      <c r="FH45" s="68"/>
+      <c r="FI45" s="68"/>
+      <c r="FJ45" s="68"/>
+      <c r="FK45" s="68"/>
+      <c r="FL45" s="68"/>
+      <c r="FM45" s="68"/>
+      <c r="FN45" s="68"/>
+      <c r="FO45" s="68"/>
+      <c r="FP45" s="68"/>
+      <c r="FQ45" s="68"/>
+      <c r="FR45" s="68"/>
+      <c r="FS45" s="68"/>
+      <c r="FT45" s="68"/>
+      <c r="FU45" s="68"/>
+      <c r="FV45" s="68"/>
+      <c r="FW45" s="68"/>
+      <c r="FX45" s="68"/>
+      <c r="FY45" s="68"/>
+      <c r="FZ45" s="68"/>
+      <c r="GA45" s="68"/>
+      <c r="GB45" s="68"/>
+      <c r="GC45" s="68"/>
+      <c r="GD45" s="68"/>
+      <c r="GE45" s="68"/>
+      <c r="GF45" s="68"/>
+      <c r="GG45" s="68"/>
+      <c r="GH45" s="68"/>
+      <c r="GI45" s="68"/>
+      <c r="GJ45" s="68"/>
+      <c r="GK45" s="68"/>
+      <c r="GL45" s="68"/>
+      <c r="GM45" s="68"/>
+      <c r="GN45" s="68"/>
+      <c r="GO45" s="68"/>
+      <c r="GP45" s="68"/>
+      <c r="GQ45" s="68"/>
+      <c r="GR45" s="68"/>
+      <c r="GS45" s="68"/>
+      <c r="GT45" s="68"/>
+      <c r="GU45" s="68"/>
+      <c r="GV45" s="68"/>
+      <c r="GW45" s="68"/>
+      <c r="GX45" s="68"/>
+      <c r="GY45" s="68"/>
+      <c r="GZ45" s="68"/>
+      <c r="HA45" s="68"/>
+      <c r="HB45" s="68"/>
+      <c r="HC45" s="68"/>
+      <c r="HD45" s="68"/>
+      <c r="HE45" s="68"/>
+      <c r="HF45" s="68"/>
+      <c r="HG45" s="68"/>
+      <c r="HH45" s="68"/>
+      <c r="HI45" s="68"/>
+      <c r="HJ45" s="68"/>
+      <c r="HK45" s="68"/>
+      <c r="HL45" s="68"/>
+      <c r="HM45" s="68"/>
+      <c r="HN45" s="68"/>
+      <c r="HO45" s="68"/>
+      <c r="HP45" s="68"/>
+      <c r="HQ45" s="68"/>
+      <c r="HR45" s="68"/>
+      <c r="HS45" s="68"/>
+      <c r="HT45" s="68"/>
+      <c r="HU45" s="68"/>
+      <c r="HV45" s="68"/>
+      <c r="HW45" s="68"/>
+      <c r="HX45" s="68"/>
+      <c r="HY45" s="68"/>
+      <c r="HZ45" s="68"/>
+      <c r="IA45" s="68"/>
+      <c r="IB45" s="68"/>
+      <c r="IC45" s="68"/>
+      <c r="ID45" s="68"/>
+      <c r="IE45" s="68"/>
+      <c r="IF45" s="68"/>
+      <c r="IG45" s="68"/>
+      <c r="IH45" s="68"/>
+      <c r="II45" s="68"/>
+      <c r="IJ45" s="68"/>
+      <c r="IK45" s="68"/>
+      <c r="IL45" s="68"/>
+      <c r="IM45" s="68"/>
+      <c r="IN45" s="68"/>
+      <c r="IO45" s="68"/>
+      <c r="IP45" s="68"/>
+      <c r="IQ45" s="68"/>
+      <c r="IR45" s="68"/>
+      <c r="IS45" s="68"/>
+      <c r="IT45" s="68"/>
+      <c r="IU45" s="68"/>
+      <c r="IV45" s="68"/>
+    </row>
+    <row r="46" spans="1:256" s="69" customFormat="1" ht="24">
+      <c r="A46" s="40" t="s">
+        <v>87</v>
+      </c>
+      <c r="B46" s="42" t="s">
+        <v>88</v>
+      </c>
+      <c r="C46" s="38" t="b">
+        <v>0</v>
+      </c>
+      <c r="D46" s="38"/>
+      <c r="E46" s="42" t="s">
+        <v>89</v>
+      </c>
+      <c r="F46" s="38"/>
+      <c r="G46" s="42"/>
+      <c r="H46" s="68"/>
+      <c r="I46" s="68"/>
+      <c r="J46" s="68"/>
+      <c r="K46" s="68"/>
+      <c r="L46" s="68"/>
+      <c r="M46" s="68"/>
+      <c r="N46" s="68"/>
+      <c r="O46" s="68"/>
+      <c r="P46" s="68"/>
+      <c r="Q46" s="68"/>
+      <c r="R46" s="68"/>
+      <c r="S46" s="68"/>
+      <c r="T46" s="68"/>
+      <c r="U46" s="68"/>
+      <c r="V46" s="68"/>
+      <c r="W46" s="68"/>
+      <c r="X46" s="68"/>
+      <c r="Y46" s="68"/>
+      <c r="Z46" s="68"/>
+      <c r="AA46" s="68"/>
+      <c r="AB46" s="68"/>
+      <c r="AC46" s="68"/>
+      <c r="AD46" s="68"/>
+      <c r="AE46" s="68"/>
+      <c r="AF46" s="68"/>
+      <c r="AG46" s="68"/>
+      <c r="AH46" s="68"/>
+      <c r="AI46" s="68"/>
+      <c r="AJ46" s="68"/>
+      <c r="AK46" s="68"/>
+      <c r="AL46" s="68"/>
+      <c r="AM46" s="68"/>
+      <c r="AN46" s="68"/>
+      <c r="AO46" s="68"/>
+      <c r="AP46" s="68"/>
+      <c r="AQ46" s="68"/>
+      <c r="AR46" s="68"/>
+      <c r="AS46" s="68"/>
+      <c r="AT46" s="68"/>
+      <c r="AU46" s="68"/>
+      <c r="AV46" s="68"/>
+      <c r="AW46" s="68"/>
+      <c r="AX46" s="68"/>
+      <c r="AY46" s="68"/>
+      <c r="AZ46" s="68"/>
+      <c r="BA46" s="68"/>
+      <c r="BB46" s="68"/>
+      <c r="BC46" s="68"/>
+      <c r="BD46" s="68"/>
+      <c r="BE46" s="68"/>
+      <c r="BF46" s="68"/>
+      <c r="BG46" s="68"/>
+      <c r="BH46" s="68"/>
+      <c r="BI46" s="68"/>
+      <c r="BJ46" s="68"/>
+      <c r="BK46" s="68"/>
+      <c r="BL46" s="68"/>
+      <c r="BM46" s="68"/>
+      <c r="BN46" s="68"/>
+      <c r="BO46" s="68"/>
+      <c r="BP46" s="68"/>
+      <c r="BQ46" s="68"/>
+      <c r="BR46" s="68"/>
+      <c r="BS46" s="68"/>
+      <c r="BT46" s="68"/>
+      <c r="BU46" s="68"/>
+      <c r="BV46" s="68"/>
+      <c r="BW46" s="68"/>
+      <c r="BX46" s="68"/>
+      <c r="BY46" s="68"/>
+      <c r="BZ46" s="68"/>
+      <c r="CA46" s="68"/>
+      <c r="CB46" s="68"/>
+      <c r="CC46" s="68"/>
+      <c r="CD46" s="68"/>
+      <c r="CE46" s="68"/>
+      <c r="CF46" s="68"/>
+      <c r="CG46" s="68"/>
+      <c r="CH46" s="68"/>
+      <c r="CI46" s="68"/>
+      <c r="CJ46" s="68"/>
+      <c r="CK46" s="68"/>
+      <c r="CL46" s="68"/>
+      <c r="CM46" s="68"/>
+      <c r="CN46" s="68"/>
+      <c r="CO46" s="68"/>
+      <c r="CP46" s="68"/>
+      <c r="CQ46" s="68"/>
+      <c r="CR46" s="68"/>
+      <c r="CS46" s="68"/>
+      <c r="CT46" s="68"/>
+      <c r="CU46" s="68"/>
+      <c r="CV46" s="68"/>
+      <c r="CW46" s="68"/>
+      <c r="CX46" s="68"/>
+      <c r="CY46" s="68"/>
+      <c r="CZ46" s="68"/>
+      <c r="DA46" s="68"/>
+      <c r="DB46" s="68"/>
+      <c r="DC46" s="68"/>
+      <c r="DD46" s="68"/>
+      <c r="DE46" s="68"/>
+      <c r="DF46" s="68"/>
+      <c r="DG46" s="68"/>
+      <c r="DH46" s="68"/>
+      <c r="DI46" s="68"/>
+      <c r="DJ46" s="68"/>
+      <c r="DK46" s="68"/>
+      <c r="DL46" s="68"/>
+      <c r="DM46" s="68"/>
+      <c r="DN46" s="68"/>
+      <c r="DO46" s="68"/>
+      <c r="DP46" s="68"/>
+      <c r="DQ46" s="68"/>
+      <c r="DR46" s="68"/>
+      <c r="DS46" s="68"/>
+      <c r="DT46" s="68"/>
+      <c r="DU46" s="68"/>
+      <c r="DV46" s="68"/>
+      <c r="DW46" s="68"/>
+      <c r="DX46" s="68"/>
+      <c r="DY46" s="68"/>
+      <c r="DZ46" s="68"/>
+      <c r="EA46" s="68"/>
+      <c r="EB46" s="68"/>
+      <c r="EC46" s="68"/>
+      <c r="ED46" s="68"/>
+      <c r="EE46" s="68"/>
+      <c r="EF46" s="68"/>
+      <c r="EG46" s="68"/>
+      <c r="EH46" s="68"/>
+      <c r="EI46" s="68"/>
+      <c r="EJ46" s="68"/>
+      <c r="EK46" s="68"/>
+      <c r="EL46" s="68"/>
+      <c r="EM46" s="68"/>
+      <c r="EN46" s="68"/>
+      <c r="EO46" s="68"/>
+      <c r="EP46" s="68"/>
+      <c r="EQ46" s="68"/>
+      <c r="ER46" s="68"/>
+      <c r="ES46" s="68"/>
+      <c r="ET46" s="68"/>
+      <c r="EU46" s="68"/>
+      <c r="EV46" s="68"/>
+      <c r="EW46" s="68"/>
+      <c r="EX46" s="68"/>
+      <c r="EY46" s="68"/>
+      <c r="EZ46" s="68"/>
+      <c r="FA46" s="68"/>
+      <c r="FB46" s="68"/>
+      <c r="FC46" s="68"/>
+      <c r="FD46" s="68"/>
+      <c r="FE46" s="68"/>
+      <c r="FF46" s="68"/>
+      <c r="FG46" s="68"/>
+      <c r="FH46" s="68"/>
+      <c r="FI46" s="68"/>
+      <c r="FJ46" s="68"/>
+      <c r="FK46" s="68"/>
+      <c r="FL46" s="68"/>
+      <c r="FM46" s="68"/>
+      <c r="FN46" s="68"/>
+      <c r="FO46" s="68"/>
+      <c r="FP46" s="68"/>
+      <c r="FQ46" s="68"/>
+      <c r="FR46" s="68"/>
+      <c r="FS46" s="68"/>
+      <c r="FT46" s="68"/>
+      <c r="FU46" s="68"/>
+      <c r="FV46" s="68"/>
+      <c r="FW46" s="68"/>
+      <c r="FX46" s="68"/>
+      <c r="FY46" s="68"/>
+      <c r="FZ46" s="68"/>
+      <c r="GA46" s="68"/>
+      <c r="GB46" s="68"/>
+      <c r="GC46" s="68"/>
+      <c r="GD46" s="68"/>
+      <c r="GE46" s="68"/>
+      <c r="GF46" s="68"/>
+      <c r="GG46" s="68"/>
+      <c r="GH46" s="68"/>
+      <c r="GI46" s="68"/>
+      <c r="GJ46" s="68"/>
+      <c r="GK46" s="68"/>
+      <c r="GL46" s="68"/>
+      <c r="GM46" s="68"/>
+      <c r="GN46" s="68"/>
+      <c r="GO46" s="68"/>
+      <c r="GP46" s="68"/>
+      <c r="GQ46" s="68"/>
+      <c r="GR46" s="68"/>
+      <c r="GS46" s="68"/>
+      <c r="GT46" s="68"/>
+      <c r="GU46" s="68"/>
+      <c r="GV46" s="68"/>
+      <c r="GW46" s="68"/>
+      <c r="GX46" s="68"/>
+      <c r="GY46" s="68"/>
+      <c r="GZ46" s="68"/>
+      <c r="HA46" s="68"/>
+      <c r="HB46" s="68"/>
+      <c r="HC46" s="68"/>
+      <c r="HD46" s="68"/>
+      <c r="HE46" s="68"/>
+      <c r="HF46" s="68"/>
+      <c r="HG46" s="68"/>
+      <c r="HH46" s="68"/>
+      <c r="HI46" s="68"/>
+      <c r="HJ46" s="68"/>
+      <c r="HK46" s="68"/>
+      <c r="HL46" s="68"/>
+      <c r="HM46" s="68"/>
+      <c r="HN46" s="68"/>
+      <c r="HO46" s="68"/>
+      <c r="HP46" s="68"/>
+      <c r="HQ46" s="68"/>
+      <c r="HR46" s="68"/>
+      <c r="HS46" s="68"/>
+      <c r="HT46" s="68"/>
+      <c r="HU46" s="68"/>
+      <c r="HV46" s="68"/>
+      <c r="HW46" s="68"/>
+      <c r="HX46" s="68"/>
+      <c r="HY46" s="68"/>
+      <c r="HZ46" s="68"/>
+      <c r="IA46" s="68"/>
+      <c r="IB46" s="68"/>
+      <c r="IC46" s="68"/>
+      <c r="ID46" s="68"/>
+      <c r="IE46" s="68"/>
+      <c r="IF46" s="68"/>
+      <c r="IG46" s="68"/>
+      <c r="IH46" s="68"/>
+      <c r="II46" s="68"/>
+      <c r="IJ46" s="68"/>
+      <c r="IK46" s="68"/>
+      <c r="IL46" s="68"/>
+      <c r="IM46" s="68"/>
+      <c r="IN46" s="68"/>
+      <c r="IO46" s="68"/>
+      <c r="IP46" s="68"/>
+      <c r="IQ46" s="68"/>
+      <c r="IR46" s="68"/>
+      <c r="IS46" s="68"/>
+      <c r="IT46" s="68"/>
+      <c r="IU46" s="68"/>
+      <c r="IV46" s="68"/>
+    </row>
+    <row r="47" spans="1:256" s="69" customFormat="1" ht="24">
+      <c r="A47" s="43" t="s">
+        <v>101</v>
+      </c>
+      <c r="B47" s="41" t="s">
+        <v>102</v>
+      </c>
+      <c r="C47" s="48" t="b">
+        <v>0</v>
+      </c>
+      <c r="D47" s="48"/>
+      <c r="E47" s="41" t="s">
+        <v>103</v>
+      </c>
+      <c r="F47" s="48"/>
+      <c r="G47" s="41"/>
+      <c r="H47" s="68"/>
+      <c r="I47" s="68"/>
+      <c r="J47" s="68"/>
+      <c r="K47" s="68"/>
+      <c r="L47" s="68"/>
+      <c r="M47" s="68"/>
+      <c r="N47" s="68"/>
+      <c r="O47" s="68"/>
+      <c r="P47" s="68"/>
+      <c r="Q47" s="68"/>
+      <c r="R47" s="68"/>
+      <c r="S47" s="68"/>
+      <c r="T47" s="68"/>
+      <c r="U47" s="68"/>
+      <c r="V47" s="68"/>
+      <c r="W47" s="68"/>
+      <c r="X47" s="68"/>
+      <c r="Y47" s="68"/>
+      <c r="Z47" s="68"/>
+      <c r="AA47" s="68"/>
+      <c r="AB47" s="68"/>
+      <c r="AC47" s="68"/>
+      <c r="AD47" s="68"/>
+      <c r="AE47" s="68"/>
+      <c r="AF47" s="68"/>
+      <c r="AG47" s="68"/>
+      <c r="AH47" s="68"/>
+      <c r="AI47" s="68"/>
+      <c r="AJ47" s="68"/>
+      <c r="AK47" s="68"/>
+      <c r="AL47" s="68"/>
+      <c r="AM47" s="68"/>
+      <c r="AN47" s="68"/>
+      <c r="AO47" s="68"/>
+      <c r="AP47" s="68"/>
+      <c r="AQ47" s="68"/>
+      <c r="AR47" s="68"/>
+      <c r="AS47" s="68"/>
+      <c r="AT47" s="68"/>
+      <c r="AU47" s="68"/>
+      <c r="AV47" s="68"/>
+      <c r="AW47" s="68"/>
+      <c r="AX47" s="68"/>
+      <c r="AY47" s="68"/>
+      <c r="AZ47" s="68"/>
+      <c r="BA47" s="68"/>
+      <c r="BB47" s="68"/>
+      <c r="BC47" s="68"/>
+      <c r="BD47" s="68"/>
+      <c r="BE47" s="68"/>
+      <c r="BF47" s="68"/>
+      <c r="BG47" s="68"/>
+      <c r="BH47" s="68"/>
+      <c r="BI47" s="68"/>
+      <c r="BJ47" s="68"/>
+      <c r="BK47" s="68"/>
+      <c r="BL47" s="68"/>
+      <c r="BM47" s="68"/>
+      <c r="BN47" s="68"/>
+      <c r="BO47" s="68"/>
+      <c r="BP47" s="68"/>
+      <c r="BQ47" s="68"/>
+      <c r="BR47" s="68"/>
+      <c r="BS47" s="68"/>
+      <c r="BT47" s="68"/>
+      <c r="BU47" s="68"/>
+      <c r="BV47" s="68"/>
+      <c r="BW47" s="68"/>
+      <c r="BX47" s="68"/>
+      <c r="BY47" s="68"/>
+      <c r="BZ47" s="68"/>
+      <c r="CA47" s="68"/>
+      <c r="CB47" s="68"/>
+      <c r="CC47" s="68"/>
+      <c r="CD47" s="68"/>
+      <c r="CE47" s="68"/>
+      <c r="CF47" s="68"/>
+      <c r="CG47" s="68"/>
+      <c r="CH47" s="68"/>
+      <c r="CI47" s="68"/>
+      <c r="CJ47" s="68"/>
+      <c r="CK47" s="68"/>
+      <c r="CL47" s="68"/>
+      <c r="CM47" s="68"/>
+      <c r="CN47" s="68"/>
+      <c r="CO47" s="68"/>
+      <c r="CP47" s="68"/>
+      <c r="CQ47" s="68"/>
+      <c r="CR47" s="68"/>
+      <c r="CS47" s="68"/>
+      <c r="CT47" s="68"/>
+      <c r="CU47" s="68"/>
+      <c r="CV47" s="68"/>
+      <c r="CW47" s="68"/>
+      <c r="CX47" s="68"/>
+      <c r="CY47" s="68"/>
+      <c r="CZ47" s="68"/>
+      <c r="DA47" s="68"/>
+      <c r="DB47" s="68"/>
+      <c r="DC47" s="68"/>
+      <c r="DD47" s="68"/>
+      <c r="DE47" s="68"/>
+      <c r="DF47" s="68"/>
+      <c r="DG47" s="68"/>
+      <c r="DH47" s="68"/>
+      <c r="DI47" s="68"/>
+      <c r="DJ47" s="68"/>
+      <c r="DK47" s="68"/>
+      <c r="DL47" s="68"/>
+      <c r="DM47" s="68"/>
+      <c r="DN47" s="68"/>
+      <c r="DO47" s="68"/>
+      <c r="DP47" s="68"/>
+      <c r="DQ47" s="68"/>
+      <c r="DR47" s="68"/>
+      <c r="DS47" s="68"/>
+      <c r="DT47" s="68"/>
+      <c r="DU47" s="68"/>
+      <c r="DV47" s="68"/>
+      <c r="DW47" s="68"/>
+      <c r="DX47" s="68"/>
+      <c r="DY47" s="68"/>
+      <c r="DZ47" s="68"/>
+      <c r="EA47" s="68"/>
+      <c r="EB47" s="68"/>
+      <c r="EC47" s="68"/>
+      <c r="ED47" s="68"/>
+      <c r="EE47" s="68"/>
+      <c r="EF47" s="68"/>
+      <c r="EG47" s="68"/>
+      <c r="EH47" s="68"/>
+      <c r="EI47" s="68"/>
+      <c r="EJ47" s="68"/>
+      <c r="EK47" s="68"/>
+      <c r="EL47" s="68"/>
+      <c r="EM47" s="68"/>
+      <c r="EN47" s="68"/>
+      <c r="EO47" s="68"/>
+      <c r="EP47" s="68"/>
+      <c r="EQ47" s="68"/>
+      <c r="ER47" s="68"/>
+      <c r="ES47" s="68"/>
+      <c r="ET47" s="68"/>
+      <c r="EU47" s="68"/>
+      <c r="EV47" s="68"/>
+      <c r="EW47" s="68"/>
+      <c r="EX47" s="68"/>
+      <c r="EY47" s="68"/>
+      <c r="EZ47" s="68"/>
+      <c r="FA47" s="68"/>
+      <c r="FB47" s="68"/>
+      <c r="FC47" s="68"/>
+      <c r="FD47" s="68"/>
+      <c r="FE47" s="68"/>
+      <c r="FF47" s="68"/>
+      <c r="FG47" s="68"/>
+      <c r="FH47" s="68"/>
+      <c r="FI47" s="68"/>
+      <c r="FJ47" s="68"/>
+      <c r="FK47" s="68"/>
+      <c r="FL47" s="68"/>
+      <c r="FM47" s="68"/>
+      <c r="FN47" s="68"/>
+      <c r="FO47" s="68"/>
+      <c r="FP47" s="68"/>
+      <c r="FQ47" s="68"/>
+      <c r="FR47" s="68"/>
+      <c r="FS47" s="68"/>
+      <c r="FT47" s="68"/>
+      <c r="FU47" s="68"/>
+      <c r="FV47" s="68"/>
+      <c r="FW47" s="68"/>
+      <c r="FX47" s="68"/>
+      <c r="FY47" s="68"/>
+      <c r="FZ47" s="68"/>
+      <c r="GA47" s="68"/>
+      <c r="GB47" s="68"/>
+      <c r="GC47" s="68"/>
+      <c r="GD47" s="68"/>
+      <c r="GE47" s="68"/>
+      <c r="GF47" s="68"/>
+      <c r="GG47" s="68"/>
+      <c r="GH47" s="68"/>
+      <c r="GI47" s="68"/>
+      <c r="GJ47" s="68"/>
+      <c r="GK47" s="68"/>
+      <c r="GL47" s="68"/>
+      <c r="GM47" s="68"/>
+      <c r="GN47" s="68"/>
+      <c r="GO47" s="68"/>
+      <c r="GP47" s="68"/>
+      <c r="GQ47" s="68"/>
+      <c r="GR47" s="68"/>
+      <c r="GS47" s="68"/>
+      <c r="GT47" s="68"/>
+      <c r="GU47" s="68"/>
+      <c r="GV47" s="68"/>
+      <c r="GW47" s="68"/>
+      <c r="GX47" s="68"/>
+      <c r="GY47" s="68"/>
+      <c r="GZ47" s="68"/>
+      <c r="HA47" s="68"/>
+      <c r="HB47" s="68"/>
+      <c r="HC47" s="68"/>
+      <c r="HD47" s="68"/>
+      <c r="HE47" s="68"/>
+      <c r="HF47" s="68"/>
+      <c r="HG47" s="68"/>
+      <c r="HH47" s="68"/>
+      <c r="HI47" s="68"/>
+      <c r="HJ47" s="68"/>
+      <c r="HK47" s="68"/>
+      <c r="HL47" s="68"/>
+      <c r="HM47" s="68"/>
+      <c r="HN47" s="68"/>
+      <c r="HO47" s="68"/>
+      <c r="HP47" s="68"/>
+      <c r="HQ47" s="68"/>
+      <c r="HR47" s="68"/>
+      <c r="HS47" s="68"/>
+      <c r="HT47" s="68"/>
+      <c r="HU47" s="68"/>
+      <c r="HV47" s="68"/>
+      <c r="HW47" s="68"/>
+      <c r="HX47" s="68"/>
+      <c r="HY47" s="68"/>
+      <c r="HZ47" s="68"/>
+      <c r="IA47" s="68"/>
+      <c r="IB47" s="68"/>
+      <c r="IC47" s="68"/>
+      <c r="ID47" s="68"/>
+      <c r="IE47" s="68"/>
+      <c r="IF47" s="68"/>
+      <c r="IG47" s="68"/>
+      <c r="IH47" s="68"/>
+      <c r="II47" s="68"/>
+      <c r="IJ47" s="68"/>
+      <c r="IK47" s="68"/>
+      <c r="IL47" s="68"/>
+      <c r="IM47" s="68"/>
+      <c r="IN47" s="68"/>
+      <c r="IO47" s="68"/>
+      <c r="IP47" s="68"/>
+      <c r="IQ47" s="68"/>
+      <c r="IR47" s="68"/>
+      <c r="IS47" s="68"/>
+      <c r="IT47" s="68"/>
+      <c r="IU47" s="68"/>
+      <c r="IV47" s="68"/>
+    </row>
+    <row r="48" spans="1:256" s="69" customFormat="1" ht="12">
+      <c r="A48" s="40" t="s">
+        <v>84</v>
+      </c>
+      <c r="B48" s="42" t="s">
+        <v>85</v>
+      </c>
+      <c r="C48" s="38" t="b">
+        <v>0</v>
+      </c>
+      <c r="D48" s="42"/>
+      <c r="E48" s="42" t="s">
+        <v>86</v>
+      </c>
+      <c r="F48" s="38"/>
+      <c r="G48" s="42"/>
+      <c r="H48" s="68"/>
+      <c r="I48" s="68"/>
+      <c r="J48" s="68"/>
+      <c r="K48" s="68"/>
+      <c r="L48" s="68"/>
+      <c r="M48" s="68"/>
+      <c r="N48" s="68"/>
+      <c r="O48" s="68"/>
+      <c r="P48" s="68"/>
+      <c r="Q48" s="68"/>
+      <c r="R48" s="68"/>
+      <c r="S48" s="68"/>
+      <c r="T48" s="68"/>
+      <c r="U48" s="68"/>
+      <c r="V48" s="68"/>
+      <c r="W48" s="68"/>
+      <c r="X48" s="68"/>
+      <c r="Y48" s="68"/>
+      <c r="Z48" s="68"/>
+      <c r="AA48" s="68"/>
+      <c r="AB48" s="68"/>
+      <c r="AC48" s="68"/>
+      <c r="AD48" s="68"/>
+      <c r="AE48" s="68"/>
+      <c r="AF48" s="68"/>
+      <c r="AG48" s="68"/>
+      <c r="AH48" s="68"/>
+      <c r="AI48" s="68"/>
+      <c r="AJ48" s="68"/>
+      <c r="AK48" s="68"/>
+      <c r="AL48" s="68"/>
+      <c r="AM48" s="68"/>
+      <c r="AN48" s="68"/>
+      <c r="AO48" s="68"/>
+      <c r="AP48" s="68"/>
+      <c r="AQ48" s="68"/>
+      <c r="AR48" s="68"/>
+      <c r="AS48" s="68"/>
+      <c r="AT48" s="68"/>
+      <c r="AU48" s="68"/>
+      <c r="AV48" s="68"/>
+      <c r="AW48" s="68"/>
+      <c r="AX48" s="68"/>
+      <c r="AY48" s="68"/>
+      <c r="AZ48" s="68"/>
+      <c r="BA48" s="68"/>
+      <c r="BB48" s="68"/>
+      <c r="BC48" s="68"/>
+      <c r="BD48" s="68"/>
+      <c r="BE48" s="68"/>
+      <c r="BF48" s="68"/>
+      <c r="BG48" s="68"/>
+      <c r="BH48" s="68"/>
+      <c r="BI48" s="68"/>
+      <c r="BJ48" s="68"/>
+      <c r="BK48" s="68"/>
+      <c r="BL48" s="68"/>
+      <c r="BM48" s="68"/>
+      <c r="BN48" s="68"/>
+      <c r="BO48" s="68"/>
+      <c r="BP48" s="68"/>
+      <c r="BQ48" s="68"/>
+      <c r="BR48" s="68"/>
+      <c r="BS48" s="68"/>
+      <c r="BT48" s="68"/>
+      <c r="BU48" s="68"/>
+      <c r="BV48" s="68"/>
+      <c r="BW48" s="68"/>
+      <c r="BX48" s="68"/>
+      <c r="BY48" s="68"/>
+      <c r="BZ48" s="68"/>
+      <c r="CA48" s="68"/>
+      <c r="CB48" s="68"/>
+      <c r="CC48" s="68"/>
+      <c r="CD48" s="68"/>
+      <c r="CE48" s="68"/>
+      <c r="CF48" s="68"/>
+      <c r="CG48" s="68"/>
+      <c r="CH48" s="68"/>
+      <c r="CI48" s="68"/>
+      <c r="CJ48" s="68"/>
+      <c r="CK48" s="68"/>
+      <c r="CL48" s="68"/>
+      <c r="CM48" s="68"/>
+      <c r="CN48" s="68"/>
+      <c r="CO48" s="68"/>
+      <c r="CP48" s="68"/>
+      <c r="CQ48" s="68"/>
+      <c r="CR48" s="68"/>
+      <c r="CS48" s="68"/>
+      <c r="CT48" s="68"/>
+      <c r="CU48" s="68"/>
+      <c r="CV48" s="68"/>
+      <c r="CW48" s="68"/>
+      <c r="CX48" s="68"/>
+      <c r="CY48" s="68"/>
+      <c r="CZ48" s="68"/>
+      <c r="DA48" s="68"/>
+      <c r="DB48" s="68"/>
+      <c r="DC48" s="68"/>
+      <c r="DD48" s="68"/>
+      <c r="DE48" s="68"/>
+      <c r="DF48" s="68"/>
+      <c r="DG48" s="68"/>
+      <c r="DH48" s="68"/>
+      <c r="DI48" s="68"/>
+      <c r="DJ48" s="68"/>
+      <c r="DK48" s="68"/>
+      <c r="DL48" s="68"/>
+      <c r="DM48" s="68"/>
+      <c r="DN48" s="68"/>
+      <c r="DO48" s="68"/>
+      <c r="DP48" s="68"/>
+      <c r="DQ48" s="68"/>
+      <c r="DR48" s="68"/>
+      <c r="DS48" s="68"/>
+      <c r="DT48" s="68"/>
+      <c r="DU48" s="68"/>
+      <c r="DV48" s="68"/>
+      <c r="DW48" s="68"/>
+      <c r="DX48" s="68"/>
+      <c r="DY48" s="68"/>
+      <c r="DZ48" s="68"/>
+      <c r="EA48" s="68"/>
+      <c r="EB48" s="68"/>
+      <c r="EC48" s="68"/>
+      <c r="ED48" s="68"/>
+      <c r="EE48" s="68"/>
+      <c r="EF48" s="68"/>
+      <c r="EG48" s="68"/>
+      <c r="EH48" s="68"/>
+      <c r="EI48" s="68"/>
+      <c r="EJ48" s="68"/>
+      <c r="EK48" s="68"/>
+      <c r="EL48" s="68"/>
+      <c r="EM48" s="68"/>
+      <c r="EN48" s="68"/>
+      <c r="EO48" s="68"/>
+      <c r="EP48" s="68"/>
+      <c r="EQ48" s="68"/>
+      <c r="ER48" s="68"/>
+      <c r="ES48" s="68"/>
+      <c r="ET48" s="68"/>
+      <c r="EU48" s="68"/>
+      <c r="EV48" s="68"/>
+      <c r="EW48" s="68"/>
+      <c r="EX48" s="68"/>
+      <c r="EY48" s="68"/>
+      <c r="EZ48" s="68"/>
+      <c r="FA48" s="68"/>
+      <c r="FB48" s="68"/>
+      <c r="FC48" s="68"/>
+      <c r="FD48" s="68"/>
+      <c r="FE48" s="68"/>
+      <c r="FF48" s="68"/>
+      <c r="FG48" s="68"/>
+      <c r="FH48" s="68"/>
+      <c r="FI48" s="68"/>
+      <c r="FJ48" s="68"/>
+      <c r="FK48" s="68"/>
+      <c r="FL48" s="68"/>
+      <c r="FM48" s="68"/>
+      <c r="FN48" s="68"/>
+      <c r="FO48" s="68"/>
+      <c r="FP48" s="68"/>
+      <c r="FQ48" s="68"/>
+      <c r="FR48" s="68"/>
+      <c r="FS48" s="68"/>
+      <c r="FT48" s="68"/>
+      <c r="FU48" s="68"/>
+      <c r="FV48" s="68"/>
+      <c r="FW48" s="68"/>
+      <c r="FX48" s="68"/>
+      <c r="FY48" s="68"/>
+      <c r="FZ48" s="68"/>
+      <c r="GA48" s="68"/>
+      <c r="GB48" s="68"/>
+      <c r="GC48" s="68"/>
+      <c r="GD48" s="68"/>
+      <c r="GE48" s="68"/>
+      <c r="GF48" s="68"/>
+      <c r="GG48" s="68"/>
+      <c r="GH48" s="68"/>
+      <c r="GI48" s="68"/>
+      <c r="GJ48" s="68"/>
+      <c r="GK48" s="68"/>
+      <c r="GL48" s="68"/>
+      <c r="GM48" s="68"/>
+      <c r="GN48" s="68"/>
+      <c r="GO48" s="68"/>
+      <c r="GP48" s="68"/>
+      <c r="GQ48" s="68"/>
+      <c r="GR48" s="68"/>
+      <c r="GS48" s="68"/>
+      <c r="GT48" s="68"/>
+      <c r="GU48" s="68"/>
+      <c r="GV48" s="68"/>
+      <c r="GW48" s="68"/>
+      <c r="GX48" s="68"/>
+      <c r="GY48" s="68"/>
+      <c r="GZ48" s="68"/>
+      <c r="HA48" s="68"/>
+      <c r="HB48" s="68"/>
+      <c r="HC48" s="68"/>
+      <c r="HD48" s="68"/>
+      <c r="HE48" s="68"/>
+      <c r="HF48" s="68"/>
+      <c r="HG48" s="68"/>
+      <c r="HH48" s="68"/>
+      <c r="HI48" s="68"/>
+      <c r="HJ48" s="68"/>
+      <c r="HK48" s="68"/>
+      <c r="HL48" s="68"/>
+      <c r="HM48" s="68"/>
+      <c r="HN48" s="68"/>
+      <c r="HO48" s="68"/>
+      <c r="HP48" s="68"/>
+      <c r="HQ48" s="68"/>
+      <c r="HR48" s="68"/>
+      <c r="HS48" s="68"/>
+      <c r="HT48" s="68"/>
+      <c r="HU48" s="68"/>
+      <c r="HV48" s="68"/>
+      <c r="HW48" s="68"/>
+      <c r="HX48" s="68"/>
+      <c r="HY48" s="68"/>
+      <c r="HZ48" s="68"/>
+      <c r="IA48" s="68"/>
+      <c r="IB48" s="68"/>
+      <c r="IC48" s="68"/>
+      <c r="ID48" s="68"/>
+      <c r="IE48" s="68"/>
+      <c r="IF48" s="68"/>
+      <c r="IG48" s="68"/>
+      <c r="IH48" s="68"/>
+      <c r="II48" s="68"/>
+      <c r="IJ48" s="68"/>
+      <c r="IK48" s="68"/>
+      <c r="IL48" s="68"/>
+      <c r="IM48" s="68"/>
+      <c r="IN48" s="68"/>
+      <c r="IO48" s="68"/>
+      <c r="IP48" s="68"/>
+      <c r="IQ48" s="68"/>
+      <c r="IR48" s="68"/>
+      <c r="IS48" s="68"/>
+      <c r="IT48" s="68"/>
+      <c r="IU48" s="68"/>
+      <c r="IV48" s="68"/>
+    </row>
+    <row r="49" spans="1:256" s="69" customFormat="1" ht="60">
+      <c r="A49" s="53" t="s">
         <v>125</v>
       </c>
-      <c r="B35" s="55" t="s">
+      <c r="B49" s="54" t="s">
         <v>126</v>
       </c>
-      <c r="C35" s="50" t="b">
+      <c r="C49" s="49" t="b">
         <v>0</v>
       </c>
-      <c r="D35" s="53" t="s">
+      <c r="D49" s="52" t="s">
         <v>127</v>
       </c>
-      <c r="E35" s="57" t="s">
+      <c r="E49" s="56" t="s">
         <v>128</v>
       </c>
-      <c r="F35" s="53" t="s">
+      <c r="F49" s="52" t="s">
         <v>129</v>
       </c>
-      <c r="G35" s="55"/>
+      <c r="G49" s="54"/>
+      <c r="H49" s="68"/>
+      <c r="I49" s="68"/>
+      <c r="J49" s="68"/>
+      <c r="K49" s="68"/>
+      <c r="L49" s="68"/>
+      <c r="M49" s="68"/>
+      <c r="N49" s="68"/>
+      <c r="O49" s="68"/>
+      <c r="P49" s="68"/>
+      <c r="Q49" s="68"/>
+      <c r="R49" s="68"/>
+      <c r="S49" s="68"/>
+      <c r="T49" s="68"/>
+      <c r="U49" s="68"/>
+      <c r="V49" s="68"/>
+      <c r="W49" s="68"/>
+      <c r="X49" s="68"/>
+      <c r="Y49" s="68"/>
+      <c r="Z49" s="68"/>
+      <c r="AA49" s="68"/>
+      <c r="AB49" s="68"/>
+      <c r="AC49" s="68"/>
+      <c r="AD49" s="68"/>
+      <c r="AE49" s="68"/>
+      <c r="AF49" s="68"/>
+      <c r="AG49" s="68"/>
+      <c r="AH49" s="68"/>
+      <c r="AI49" s="68"/>
+      <c r="AJ49" s="68"/>
+      <c r="AK49" s="68"/>
+      <c r="AL49" s="68"/>
+      <c r="AM49" s="68"/>
+      <c r="AN49" s="68"/>
+      <c r="AO49" s="68"/>
+      <c r="AP49" s="68"/>
+      <c r="AQ49" s="68"/>
+      <c r="AR49" s="68"/>
+      <c r="AS49" s="68"/>
+      <c r="AT49" s="68"/>
+      <c r="AU49" s="68"/>
+      <c r="AV49" s="68"/>
+      <c r="AW49" s="68"/>
+      <c r="AX49" s="68"/>
+      <c r="AY49" s="68"/>
+      <c r="AZ49" s="68"/>
+      <c r="BA49" s="68"/>
+      <c r="BB49" s="68"/>
+      <c r="BC49" s="68"/>
+      <c r="BD49" s="68"/>
+      <c r="BE49" s="68"/>
+      <c r="BF49" s="68"/>
+      <c r="BG49" s="68"/>
+      <c r="BH49" s="68"/>
+      <c r="BI49" s="68"/>
+      <c r="BJ49" s="68"/>
+      <c r="BK49" s="68"/>
+      <c r="BL49" s="68"/>
+      <c r="BM49" s="68"/>
+      <c r="BN49" s="68"/>
+      <c r="BO49" s="68"/>
+      <c r="BP49" s="68"/>
+      <c r="BQ49" s="68"/>
+      <c r="BR49" s="68"/>
+      <c r="BS49" s="68"/>
+      <c r="BT49" s="68"/>
+      <c r="BU49" s="68"/>
+      <c r="BV49" s="68"/>
+      <c r="BW49" s="68"/>
+      <c r="BX49" s="68"/>
+      <c r="BY49" s="68"/>
+      <c r="BZ49" s="68"/>
+      <c r="CA49" s="68"/>
+      <c r="CB49" s="68"/>
+      <c r="CC49" s="68"/>
+      <c r="CD49" s="68"/>
+      <c r="CE49" s="68"/>
+      <c r="CF49" s="68"/>
+      <c r="CG49" s="68"/>
+      <c r="CH49" s="68"/>
+      <c r="CI49" s="68"/>
+      <c r="CJ49" s="68"/>
+      <c r="CK49" s="68"/>
+      <c r="CL49" s="68"/>
+      <c r="CM49" s="68"/>
+      <c r="CN49" s="68"/>
+      <c r="CO49" s="68"/>
+      <c r="CP49" s="68"/>
+      <c r="CQ49" s="68"/>
+      <c r="CR49" s="68"/>
+      <c r="CS49" s="68"/>
+      <c r="CT49" s="68"/>
+      <c r="CU49" s="68"/>
+      <c r="CV49" s="68"/>
+      <c r="CW49" s="68"/>
+      <c r="CX49" s="68"/>
+      <c r="CY49" s="68"/>
+      <c r="CZ49" s="68"/>
+      <c r="DA49" s="68"/>
+      <c r="DB49" s="68"/>
+      <c r="DC49" s="68"/>
+      <c r="DD49" s="68"/>
+      <c r="DE49" s="68"/>
+      <c r="DF49" s="68"/>
+      <c r="DG49" s="68"/>
+      <c r="DH49" s="68"/>
+      <c r="DI49" s="68"/>
+      <c r="DJ49" s="68"/>
+      <c r="DK49" s="68"/>
+      <c r="DL49" s="68"/>
+      <c r="DM49" s="68"/>
+      <c r="DN49" s="68"/>
+      <c r="DO49" s="68"/>
+      <c r="DP49" s="68"/>
+      <c r="DQ49" s="68"/>
+      <c r="DR49" s="68"/>
+      <c r="DS49" s="68"/>
+      <c r="DT49" s="68"/>
+      <c r="DU49" s="68"/>
+      <c r="DV49" s="68"/>
+      <c r="DW49" s="68"/>
+      <c r="DX49" s="68"/>
+      <c r="DY49" s="68"/>
+      <c r="DZ49" s="68"/>
+      <c r="EA49" s="68"/>
+      <c r="EB49" s="68"/>
+      <c r="EC49" s="68"/>
+      <c r="ED49" s="68"/>
+      <c r="EE49" s="68"/>
+      <c r="EF49" s="68"/>
+      <c r="EG49" s="68"/>
+      <c r="EH49" s="68"/>
+      <c r="EI49" s="68"/>
+      <c r="EJ49" s="68"/>
+      <c r="EK49" s="68"/>
+      <c r="EL49" s="68"/>
+      <c r="EM49" s="68"/>
+      <c r="EN49" s="68"/>
+      <c r="EO49" s="68"/>
+      <c r="EP49" s="68"/>
+      <c r="EQ49" s="68"/>
+      <c r="ER49" s="68"/>
+      <c r="ES49" s="68"/>
+      <c r="ET49" s="68"/>
+      <c r="EU49" s="68"/>
+      <c r="EV49" s="68"/>
+      <c r="EW49" s="68"/>
+      <c r="EX49" s="68"/>
+      <c r="EY49" s="68"/>
+      <c r="EZ49" s="68"/>
+      <c r="FA49" s="68"/>
+      <c r="FB49" s="68"/>
+      <c r="FC49" s="68"/>
+      <c r="FD49" s="68"/>
+      <c r="FE49" s="68"/>
+      <c r="FF49" s="68"/>
+      <c r="FG49" s="68"/>
+      <c r="FH49" s="68"/>
+      <c r="FI49" s="68"/>
+      <c r="FJ49" s="68"/>
+      <c r="FK49" s="68"/>
+      <c r="FL49" s="68"/>
+      <c r="FM49" s="68"/>
+      <c r="FN49" s="68"/>
+      <c r="FO49" s="68"/>
+      <c r="FP49" s="68"/>
+      <c r="FQ49" s="68"/>
+      <c r="FR49" s="68"/>
+      <c r="FS49" s="68"/>
+      <c r="FT49" s="68"/>
+      <c r="FU49" s="68"/>
+      <c r="FV49" s="68"/>
+      <c r="FW49" s="68"/>
+      <c r="FX49" s="68"/>
+      <c r="FY49" s="68"/>
+      <c r="FZ49" s="68"/>
+      <c r="GA49" s="68"/>
+      <c r="GB49" s="68"/>
+      <c r="GC49" s="68"/>
+      <c r="GD49" s="68"/>
+      <c r="GE49" s="68"/>
+      <c r="GF49" s="68"/>
+      <c r="GG49" s="68"/>
+      <c r="GH49" s="68"/>
+      <c r="GI49" s="68"/>
+      <c r="GJ49" s="68"/>
+      <c r="GK49" s="68"/>
+      <c r="GL49" s="68"/>
+      <c r="GM49" s="68"/>
+      <c r="GN49" s="68"/>
+      <c r="GO49" s="68"/>
+      <c r="GP49" s="68"/>
+      <c r="GQ49" s="68"/>
+      <c r="GR49" s="68"/>
+      <c r="GS49" s="68"/>
+      <c r="GT49" s="68"/>
+      <c r="GU49" s="68"/>
+      <c r="GV49" s="68"/>
+      <c r="GW49" s="68"/>
+      <c r="GX49" s="68"/>
+      <c r="GY49" s="68"/>
+      <c r="GZ49" s="68"/>
+      <c r="HA49" s="68"/>
+      <c r="HB49" s="68"/>
+      <c r="HC49" s="68"/>
+      <c r="HD49" s="68"/>
+      <c r="HE49" s="68"/>
+      <c r="HF49" s="68"/>
+      <c r="HG49" s="68"/>
+      <c r="HH49" s="68"/>
+      <c r="HI49" s="68"/>
+      <c r="HJ49" s="68"/>
+      <c r="HK49" s="68"/>
+      <c r="HL49" s="68"/>
+      <c r="HM49" s="68"/>
+      <c r="HN49" s="68"/>
+      <c r="HO49" s="68"/>
+      <c r="HP49" s="68"/>
+      <c r="HQ49" s="68"/>
+      <c r="HR49" s="68"/>
+      <c r="HS49" s="68"/>
+      <c r="HT49" s="68"/>
+      <c r="HU49" s="68"/>
+      <c r="HV49" s="68"/>
+      <c r="HW49" s="68"/>
+      <c r="HX49" s="68"/>
+      <c r="HY49" s="68"/>
+      <c r="HZ49" s="68"/>
+      <c r="IA49" s="68"/>
+      <c r="IB49" s="68"/>
+      <c r="IC49" s="68"/>
+      <c r="ID49" s="68"/>
+      <c r="IE49" s="68"/>
+      <c r="IF49" s="68"/>
+      <c r="IG49" s="68"/>
+      <c r="IH49" s="68"/>
+      <c r="II49" s="68"/>
+      <c r="IJ49" s="68"/>
+      <c r="IK49" s="68"/>
+      <c r="IL49" s="68"/>
+      <c r="IM49" s="68"/>
+      <c r="IN49" s="68"/>
+      <c r="IO49" s="68"/>
+      <c r="IP49" s="68"/>
+      <c r="IQ49" s="68"/>
+      <c r="IR49" s="68"/>
+      <c r="IS49" s="68"/>
+      <c r="IT49" s="68"/>
+      <c r="IU49" s="68"/>
+      <c r="IV49" s="68"/>
+    </row>
+    <row r="50" spans="1:256" s="69" customFormat="1" ht="60">
+      <c r="A50" s="53" t="s">
+        <v>171</v>
+      </c>
+      <c r="B50" s="64" t="s">
+        <v>172</v>
+      </c>
+      <c r="C50" s="49" t="b">
+        <v>0</v>
+      </c>
+      <c r="D50" s="65" t="s">
+        <v>127</v>
+      </c>
+      <c r="E50" s="66" t="s">
+        <v>173</v>
+      </c>
+      <c r="F50" s="67" t="s">
+        <v>174</v>
+      </c>
+      <c r="G50" s="64"/>
+      <c r="H50" s="68"/>
+      <c r="I50" s="68"/>
+      <c r="J50" s="68"/>
+      <c r="K50" s="68"/>
+      <c r="L50" s="68"/>
+      <c r="M50" s="68"/>
+      <c r="N50" s="68"/>
+      <c r="O50" s="68"/>
+      <c r="P50" s="68"/>
+      <c r="Q50" s="68"/>
+      <c r="R50" s="68"/>
+      <c r="S50" s="68"/>
+      <c r="T50" s="68"/>
+      <c r="U50" s="68"/>
+      <c r="V50" s="68"/>
+      <c r="W50" s="68"/>
+      <c r="X50" s="68"/>
+      <c r="Y50" s="68"/>
+      <c r="Z50" s="68"/>
+      <c r="AA50" s="68"/>
+      <c r="AB50" s="68"/>
+      <c r="AC50" s="68"/>
+      <c r="AD50" s="68"/>
+      <c r="AE50" s="68"/>
+      <c r="AF50" s="68"/>
+      <c r="AG50" s="68"/>
+      <c r="AH50" s="68"/>
+      <c r="AI50" s="68"/>
+      <c r="AJ50" s="68"/>
+      <c r="AK50" s="68"/>
+      <c r="AL50" s="68"/>
+      <c r="AM50" s="68"/>
+      <c r="AN50" s="68"/>
+      <c r="AO50" s="68"/>
+      <c r="AP50" s="68"/>
+      <c r="AQ50" s="68"/>
+      <c r="AR50" s="68"/>
+      <c r="AS50" s="68"/>
+      <c r="AT50" s="68"/>
+      <c r="AU50" s="68"/>
+      <c r="AV50" s="68"/>
+      <c r="AW50" s="68"/>
+      <c r="AX50" s="68"/>
+      <c r="AY50" s="68"/>
+      <c r="AZ50" s="68"/>
+      <c r="BA50" s="68"/>
+      <c r="BB50" s="68"/>
+      <c r="BC50" s="68"/>
+      <c r="BD50" s="68"/>
+      <c r="BE50" s="68"/>
+      <c r="BF50" s="68"/>
+      <c r="BG50" s="68"/>
+      <c r="BH50" s="68"/>
+      <c r="BI50" s="68"/>
+      <c r="BJ50" s="68"/>
+      <c r="BK50" s="68"/>
+      <c r="BL50" s="68"/>
+      <c r="BM50" s="68"/>
+      <c r="BN50" s="68"/>
+      <c r="BO50" s="68"/>
+      <c r="BP50" s="68"/>
+      <c r="BQ50" s="68"/>
+      <c r="BR50" s="68"/>
+      <c r="BS50" s="68"/>
+      <c r="BT50" s="68"/>
+      <c r="BU50" s="68"/>
+      <c r="BV50" s="68"/>
+      <c r="BW50" s="68"/>
+      <c r="BX50" s="68"/>
+      <c r="BY50" s="68"/>
+      <c r="BZ50" s="68"/>
+      <c r="CA50" s="68"/>
+      <c r="CB50" s="68"/>
+      <c r="CC50" s="68"/>
+      <c r="CD50" s="68"/>
+      <c r="CE50" s="68"/>
+      <c r="CF50" s="68"/>
+      <c r="CG50" s="68"/>
+      <c r="CH50" s="68"/>
+      <c r="CI50" s="68"/>
+      <c r="CJ50" s="68"/>
+      <c r="CK50" s="68"/>
+      <c r="CL50" s="68"/>
+      <c r="CM50" s="68"/>
+      <c r="CN50" s="68"/>
+      <c r="CO50" s="68"/>
+      <c r="CP50" s="68"/>
+      <c r="CQ50" s="68"/>
+      <c r="CR50" s="68"/>
+      <c r="CS50" s="68"/>
+      <c r="CT50" s="68"/>
+      <c r="CU50" s="68"/>
+      <c r="CV50" s="68"/>
+      <c r="CW50" s="68"/>
+      <c r="CX50" s="68"/>
+      <c r="CY50" s="68"/>
+      <c r="CZ50" s="68"/>
+      <c r="DA50" s="68"/>
+      <c r="DB50" s="68"/>
+      <c r="DC50" s="68"/>
+      <c r="DD50" s="68"/>
+      <c r="DE50" s="68"/>
+      <c r="DF50" s="68"/>
+      <c r="DG50" s="68"/>
+      <c r="DH50" s="68"/>
+      <c r="DI50" s="68"/>
+      <c r="DJ50" s="68"/>
+      <c r="DK50" s="68"/>
+      <c r="DL50" s="68"/>
+      <c r="DM50" s="68"/>
+      <c r="DN50" s="68"/>
+      <c r="DO50" s="68"/>
+      <c r="DP50" s="68"/>
+      <c r="DQ50" s="68"/>
+      <c r="DR50" s="68"/>
+      <c r="DS50" s="68"/>
+      <c r="DT50" s="68"/>
+      <c r="DU50" s="68"/>
+      <c r="DV50" s="68"/>
+      <c r="DW50" s="68"/>
+      <c r="DX50" s="68"/>
+      <c r="DY50" s="68"/>
+      <c r="DZ50" s="68"/>
+      <c r="EA50" s="68"/>
+      <c r="EB50" s="68"/>
+      <c r="EC50" s="68"/>
+      <c r="ED50" s="68"/>
+      <c r="EE50" s="68"/>
+      <c r="EF50" s="68"/>
+      <c r="EG50" s="68"/>
+      <c r="EH50" s="68"/>
+      <c r="EI50" s="68"/>
+      <c r="EJ50" s="68"/>
+      <c r="EK50" s="68"/>
+      <c r="EL50" s="68"/>
+      <c r="EM50" s="68"/>
+      <c r="EN50" s="68"/>
+      <c r="EO50" s="68"/>
+      <c r="EP50" s="68"/>
+      <c r="EQ50" s="68"/>
+      <c r="ER50" s="68"/>
+      <c r="ES50" s="68"/>
+      <c r="ET50" s="68"/>
+      <c r="EU50" s="68"/>
+      <c r="EV50" s="68"/>
+      <c r="EW50" s="68"/>
+      <c r="EX50" s="68"/>
+      <c r="EY50" s="68"/>
+      <c r="EZ50" s="68"/>
+      <c r="FA50" s="68"/>
+      <c r="FB50" s="68"/>
+      <c r="FC50" s="68"/>
+      <c r="FD50" s="68"/>
+      <c r="FE50" s="68"/>
+      <c r="FF50" s="68"/>
+      <c r="FG50" s="68"/>
+      <c r="FH50" s="68"/>
+      <c r="FI50" s="68"/>
+      <c r="FJ50" s="68"/>
+      <c r="FK50" s="68"/>
+      <c r="FL50" s="68"/>
+      <c r="FM50" s="68"/>
+      <c r="FN50" s="68"/>
+      <c r="FO50" s="68"/>
+      <c r="FP50" s="68"/>
+      <c r="FQ50" s="68"/>
+      <c r="FR50" s="68"/>
+      <c r="FS50" s="68"/>
+      <c r="FT50" s="68"/>
+      <c r="FU50" s="68"/>
+      <c r="FV50" s="68"/>
+      <c r="FW50" s="68"/>
+      <c r="FX50" s="68"/>
+      <c r="FY50" s="68"/>
+      <c r="FZ50" s="68"/>
+      <c r="GA50" s="68"/>
+      <c r="GB50" s="68"/>
+      <c r="GC50" s="68"/>
+      <c r="GD50" s="68"/>
+      <c r="GE50" s="68"/>
+      <c r="GF50" s="68"/>
+      <c r="GG50" s="68"/>
+      <c r="GH50" s="68"/>
+      <c r="GI50" s="68"/>
+      <c r="GJ50" s="68"/>
+      <c r="GK50" s="68"/>
+      <c r="GL50" s="68"/>
+      <c r="GM50" s="68"/>
+      <c r="GN50" s="68"/>
+      <c r="GO50" s="68"/>
+      <c r="GP50" s="68"/>
+      <c r="GQ50" s="68"/>
+      <c r="GR50" s="68"/>
+      <c r="GS50" s="68"/>
+      <c r="GT50" s="68"/>
+      <c r="GU50" s="68"/>
+      <c r="GV50" s="68"/>
+      <c r="GW50" s="68"/>
+      <c r="GX50" s="68"/>
+      <c r="GY50" s="68"/>
+      <c r="GZ50" s="68"/>
+      <c r="HA50" s="68"/>
+      <c r="HB50" s="68"/>
+      <c r="HC50" s="68"/>
+      <c r="HD50" s="68"/>
+      <c r="HE50" s="68"/>
+      <c r="HF50" s="68"/>
+      <c r="HG50" s="68"/>
+      <c r="HH50" s="68"/>
+      <c r="HI50" s="68"/>
+      <c r="HJ50" s="68"/>
+      <c r="HK50" s="68"/>
+      <c r="HL50" s="68"/>
+      <c r="HM50" s="68"/>
+      <c r="HN50" s="68"/>
+      <c r="HO50" s="68"/>
+      <c r="HP50" s="68"/>
+      <c r="HQ50" s="68"/>
+      <c r="HR50" s="68"/>
+      <c r="HS50" s="68"/>
+      <c r="HT50" s="68"/>
+      <c r="HU50" s="68"/>
+      <c r="HV50" s="68"/>
+      <c r="HW50" s="68"/>
+      <c r="HX50" s="68"/>
+      <c r="HY50" s="68"/>
+      <c r="HZ50" s="68"/>
+      <c r="IA50" s="68"/>
+      <c r="IB50" s="68"/>
+      <c r="IC50" s="68"/>
+      <c r="ID50" s="68"/>
+      <c r="IE50" s="68"/>
+      <c r="IF50" s="68"/>
+      <c r="IG50" s="68"/>
+      <c r="IH50" s="68"/>
+      <c r="II50" s="68"/>
+      <c r="IJ50" s="68"/>
+      <c r="IK50" s="68"/>
+      <c r="IL50" s="68"/>
+      <c r="IM50" s="68"/>
+      <c r="IN50" s="68"/>
+      <c r="IO50" s="68"/>
+      <c r="IP50" s="68"/>
+      <c r="IQ50" s="68"/>
+      <c r="IR50" s="68"/>
+      <c r="IS50" s="68"/>
+      <c r="IT50" s="68"/>
+      <c r="IU50" s="68"/>
+      <c r="IV50" s="68"/>
     </row>
   </sheetData>
-  <autoFilter ref="A2:G35">
+  <autoFilter ref="A2:G35" xr:uid="{00000000-0009-0000-0000-000002000000}">
     <filterColumn colId="2">
       <filters>
         <filter val="FALSE"/>
       </filters>
     </filterColumn>
-    <sortState ref="A3:G35">
+    <sortState ref="A3:G50">
       <sortCondition ref="B2:B35"/>
     </sortState>
   </autoFilter>
   <phoneticPr fontId="12"/>
   <hyperlinks>
-    <hyperlink ref="E11" r:id="rId1"/>
-    <hyperlink ref="F11" r:id="rId2"/>
-    <hyperlink ref="G11" r:id="rId3"/>
-    <hyperlink ref="F3" r:id="rId4"/>
-    <hyperlink ref="E10" r:id="rId5"/>
-    <hyperlink ref="E26" r:id="rId6"/>
-    <hyperlink ref="E13" r:id="rId7"/>
-    <hyperlink ref="E20" r:id="rId8"/>
-    <hyperlink ref="E7" r:id="rId9"/>
+    <hyperlink ref="E13" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
+    <hyperlink ref="F13" r:id="rId2" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
+    <hyperlink ref="G13" r:id="rId3" xr:uid="{00000000-0004-0000-0200-000002000000}"/>
+    <hyperlink ref="F3" r:id="rId4" xr:uid="{00000000-0004-0000-0200-000003000000}"/>
+    <hyperlink ref="E12" r:id="rId5" xr:uid="{00000000-0004-0000-0200-000004000000}"/>
+    <hyperlink ref="E40" r:id="rId6" xr:uid="{00000000-0004-0000-0200-000005000000}"/>
+    <hyperlink ref="E15" r:id="rId7" xr:uid="{00000000-0004-0000-0200-000006000000}"/>
+    <hyperlink ref="E29" r:id="rId8" xr:uid="{00000000-0004-0000-0200-000007000000}"/>
+    <hyperlink ref="E7" r:id="rId9" xr:uid="{00000000-0004-0000-0200-000008000000}"/>
+    <hyperlink ref="E26" r:id="rId10" xr:uid="{8CFF1B35-FFC5-4DD8-82E2-0166EF0446C1}"/>
+    <hyperlink ref="F26" r:id="rId11" xr:uid="{522CAA13-67B6-4997-A33A-CDF0ADEED4D7}"/>
+    <hyperlink ref="E17" r:id="rId12" xr:uid="{8720B725-19A0-408B-8361-B621459CDCE4}"/>
+    <hyperlink ref="F17" r:id="rId13" xr:uid="{D96AEA55-4A7A-4B1E-A04E-69BF8EDA87AC}"/>
+    <hyperlink ref="E8" r:id="rId14" xr:uid="{0833A865-9E8F-4A28-B99A-330B23FC1D46}"/>
+    <hyperlink ref="F8" r:id="rId15" xr:uid="{18F3BA55-DC3B-42B2-99D0-FD34DAEDFC0B}"/>
+    <hyperlink ref="E27" r:id="rId16" xr:uid="{3C23ADA1-C4E7-4EC9-B610-C79C08A8DE0A}"/>
+    <hyperlink ref="F27" r:id="rId17" xr:uid="{49740FD2-9E55-4E3C-B1D4-47B35DB21F9A}"/>
+    <hyperlink ref="E30" r:id="rId18" xr:uid="{EBFF5C27-3B91-41C2-8EEB-CB95CC96304E}"/>
+    <hyperlink ref="F30" r:id="rId19" xr:uid="{8CF05048-474C-49F2-8755-4FA3A5C2A9EE}"/>
+    <hyperlink ref="E23" r:id="rId20" xr:uid="{BE794D2C-2A97-4EAE-950E-52709CB113C7}"/>
+    <hyperlink ref="F23" r:id="rId21" xr:uid="{8CD0DBEB-9052-4503-9A41-E0BF6358A2E3}"/>
+    <hyperlink ref="E28" r:id="rId22" xr:uid="{B1056FB4-35FB-4CAE-A926-3840087DC37D}"/>
+    <hyperlink ref="F28" r:id="rId23" xr:uid="{8F8955CF-70CA-413E-A935-B6CD02E23DEA}"/>
+    <hyperlink ref="E50" r:id="rId24" xr:uid="{5E279699-C670-4B08-8683-2B3D2F2DAAEE}"/>
+    <hyperlink ref="F50" r:id="rId25" xr:uid="{E5DEF1F7-60E2-45AB-B0F8-B9153FE2B981}"/>
+    <hyperlink ref="E32" r:id="rId26" xr:uid="{D71CA47A-D496-4930-8010-A4A638170AD9}"/>
+    <hyperlink ref="F32" r:id="rId27" xr:uid="{8B446E26-3D74-4388-ABB8-038CE729A43C}"/>
+    <hyperlink ref="E33" r:id="rId28" xr:uid="{D56270F6-8A3A-4C77-BE68-DE9516F58843}"/>
+    <hyperlink ref="F33" r:id="rId29" xr:uid="{FB6E22D9-9FAB-44D5-8BFD-E87021DA81FD}"/>
+    <hyperlink ref="F22" r:id="rId30" xr:uid="{FD20641F-0F9B-4FE9-A516-11615CACEF47}"/>
+    <hyperlink ref="E22" r:id="rId31" xr:uid="{94BA81C2-BB77-4838-8761-E2812738FAB5}"/>
+    <hyperlink ref="E31" r:id="rId32" xr:uid="{98D1AC85-0120-4C72-A681-5CE7DB711EFE}"/>
+    <hyperlink ref="F31" r:id="rId33" xr:uid="{F6EC6BAA-CB02-465A-8833-C2B7E5281009}"/>
+    <hyperlink ref="E18" r:id="rId34" xr:uid="{A7E37D9A-6F7F-4091-BDFA-30D3D90F06A1}"/>
+    <hyperlink ref="F18" r:id="rId35" xr:uid="{C1A4276F-2369-487F-9F59-D308349B97D1}"/>
   </hyperlinks>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.27777800000000002" footer="0.27777800000000002"/>
-  <pageSetup orientation="portrait" r:id="rId10"/>
+  <pageSetup orientation="portrait" r:id="rId36"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
